--- a/Competition 2025/2025_FSAE_Design_IC_Spec_Sheet_VU.xlsx
+++ b/Competition 2025/2025_FSAE_Design_IC_Spec_Sheet_VU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egroh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egroh\Documents\GitHub\vandymotorsports\Competition 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1567C742-6634-4617-9718-F1053B478621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752FF2E4-9598-45FC-8006-CF231AF1E007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1852,7 +1852,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="240">
   <si>
     <t>Car No.</t>
   </si>
@@ -2092,9 +2092,6 @@
     <t>Tire Size, Compound and Make</t>
   </si>
   <si>
-    <t>xx mm before _________ and directed towards ________</t>
-  </si>
-  <si>
     <t>Manufacturer / Model</t>
   </si>
   <si>
@@ -2673,9 +2670,6 @@
       </rPr>
       <t xml:space="preserve">Please submit the Spec Sheet and Design Report ON TIME.  Late submission penalties can be significant and there is little excuse for points lost due to late submissions. </t>
     </r>
-  </si>
-  <si>
-    <t>Gripton State University</t>
   </si>
   <si>
     <r>
@@ -2730,6 +2724,90 @@
   <si>
     <t>Wheels (diameter, width)</t>
   </si>
+  <si>
+    <t>Vanderbilt University</t>
+  </si>
+  <si>
+    <t>lifting front and comparing level and lifted rear weights</t>
+  </si>
+  <si>
+    <t>body work only</t>
+  </si>
+  <si>
+    <t>not tested</t>
+  </si>
+  <si>
+    <t>not yet tested</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>tripod CV joint (Taylor Race), with Mobil 1 Full Synthetic grease</t>
+  </si>
+  <si>
+    <t>Spool</t>
+  </si>
+  <si>
+    <t>Yamaha 5-speed sequential gearbox, 520 chain driven</t>
+  </si>
+  <si>
+    <t>Stroker crank shaft adds 3mm to stroke, big bore cylinder kit adds 3mm to bore, displacement increase from 449cc to 501cc, clutch from Rekluse</t>
+  </si>
+  <si>
+    <t>LeoVince LV One EVO Slip-On Exhaust</t>
+  </si>
+  <si>
+    <t>Aluminum 5052 Sheet Metal, located behind driver's left. QFS IN-TANK HFP-382S-U fuel pump.</t>
+  </si>
+  <si>
+    <t>10W-30 oil</t>
+  </si>
+  <si>
+    <t>Dry sump, 1.95 L total volume, crank driven trochoid pump, 60 kPa bypass valve</t>
+  </si>
+  <si>
+    <t>15 degrees base advance, 40 degrees maximum advance, Controlled by RPM and TPS</t>
+  </si>
+  <si>
+    <t>CR8E/NGK spark plug, DC Inductive discharge ignition</t>
+  </si>
+  <si>
+    <t>150 mm before intake valve and directed towards runner at 45 degrees</t>
+  </si>
+  <si>
+    <t>Bosch LSU 4.9 - Wideband Lambda Sensor</t>
+  </si>
+  <si>
+    <t>Magneti Marelli IWP069 44lb/hr injector</t>
+  </si>
+  <si>
+    <t>Butterfly Valve, 19 mm Diameter, converging diverging nozzle, into log style plenum</t>
+  </si>
+  <si>
+    <t>natually aspirated</t>
+  </si>
+  <si>
+    <t>2007 Yamaha YFZ450</t>
+  </si>
+  <si>
+    <t>93 Octane</t>
+  </si>
+  <si>
+    <t>Steel Spaceframe</t>
+  </si>
+  <si>
+    <t>4130 Chromoly Steel, Structural (1" x .049" round/square, 1" x .065" round, 1" x .095" round). Non-structural (0.8" OD or smaller)</t>
+  </si>
+  <si>
+    <t>Tig, ER80SD2</t>
+  </si>
+  <si>
+    <t>9.47-11.54</t>
+  </si>
+  <si>
+    <t>CAE, using manufacturer data (Plascore)</t>
+  </si>
 </sst>
 </file>
 
@@ -2738,7 +2816,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2919,8 +2997,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Franklin Gothic Medium Cond"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2945,6 +3029,12 @@
         <bgColor indexed="27"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="46">
     <border>
@@ -3524,7 +3614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3922,80 +4012,257 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4006,182 +4273,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4559,7 +4661,7 @@
   <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4573,15 +4675,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="175" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
+      <c r="A1" s="168" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
       <c r="H1" s="8">
         <v>2025</v>
       </c>
@@ -4589,195 +4691,205 @@
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="177" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
+      <c r="A2" s="170" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="195">
-        <v>247</v>
-      </c>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
-      <c r="H3" s="197"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="188">
+        <v>130</v>
+      </c>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="190"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="206" t="s">
+      <c r="A4" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="207"/>
-      <c r="C4" s="217" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="218"/>
-      <c r="H4" s="219"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="151" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="153"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="143"/>
-      <c r="B5" s="143"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
+      <c r="A5" s="150"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
     </row>
     <row r="6" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="182"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="184"/>
+        <v>83</v>
+      </c>
+      <c r="C6" s="175"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="177"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="123" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="94" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="97" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="123" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="94" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="31"/>
+        <v>88</v>
+      </c>
+      <c r="D8" s="31">
+        <v>1562.1</v>
+      </c>
       <c r="E8" s="98" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="31">
+        <v>1187.45</v>
+      </c>
+      <c r="G8" s="97" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="97" t="s">
-        <v>162</v>
-      </c>
-      <c r="H8" s="30"/>
+      <c r="H8" s="30">
+        <v>1143</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="124" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="26">
+        <v>8.69</v>
+      </c>
+      <c r="E9" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="210"/>
-      <c r="G9" s="201"/>
-      <c r="H9" s="202"/>
+      <c r="F9" s="139" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="136"/>
+      <c r="H9" s="137"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="95" t="s">
         <v>90</v>
-      </c>
-      <c r="B10" s="124" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="95" t="s">
-        <v>91</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" s="125"/>
       <c r="C11" s="96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" s="28"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="199"/>
+      <c r="G11" s="191"/>
+      <c r="H11" s="192"/>
     </row>
     <row r="12" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="143"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="185" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="186"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="188" t="s">
+      <c r="D13" s="179"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="186"/>
-      <c r="H13" s="187"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="180"/>
     </row>
     <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
@@ -4793,60 +4905,60 @@
     </row>
     <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B15" s="120" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C15" s="67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D15" s="40"/>
       <c r="E15" s="33"/>
       <c r="F15" s="68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="120"/>
-      <c r="C16" s="211"/>
-      <c r="D16" s="212"/>
-      <c r="E16" s="213"/>
-      <c r="F16" s="211"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="213"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="142"/>
     </row>
     <row r="17" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="120"/>
-      <c r="C17" s="208"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="209"/>
-      <c r="G17" s="201"/>
-      <c r="H17" s="202"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="137"/>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="63" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="120" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="33"/>
       <c r="F18" s="68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G18" s="32"/>
       <c r="H18" s="33"/>
@@ -4856,58 +4968,58 @@
         <v>41</v>
       </c>
       <c r="B19" s="120" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="34"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="139"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="146"/>
       <c r="F19" s="35"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="139"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="146"/>
     </row>
     <row r="20" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="120" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C20" s="34"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="139"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
       <c r="F20" s="35"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="139"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="146"/>
     </row>
     <row r="21" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="120" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="36"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="139"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="139"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="146"/>
     </row>
     <row r="22" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="63" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="120" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="39"/>
       <c r="G22" s="98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H22" s="14"/>
     </row>
@@ -4916,322 +5028,322 @@
         <v>36</v>
       </c>
       <c r="B23" s="120" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="39"/>
       <c r="G23" s="98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="120" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="39"/>
       <c r="G24" s="98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B25" s="120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="51"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="139"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="146"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="139"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="146"/>
     </row>
     <row r="26" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" s="120" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="51"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="139"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="146"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="139"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="146"/>
     </row>
     <row r="27" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="120" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="38"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="139"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="146"/>
       <c r="F27" s="19"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="139"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="146"/>
     </row>
     <row r="28" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="120" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="38"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="139"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="146"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="139"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="146"/>
     </row>
     <row r="29" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="120"/>
-      <c r="C29" s="192"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="216"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="147"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="149"/>
     </row>
     <row r="30" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="63" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="120" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="50"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="139"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="146"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="139"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="146"/>
     </row>
     <row r="31" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="115" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" s="120" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="51"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="139"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="146"/>
       <c r="F31" s="52"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="139"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="146"/>
     </row>
     <row r="32" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="63" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="120" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D32" s="40"/>
       <c r="E32" s="33"/>
       <c r="F32" s="68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B33" s="120"/>
       <c r="C33" s="100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D33" s="53"/>
       <c r="E33" s="104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F33" s="54"/>
       <c r="G33" s="108" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H33" s="55"/>
     </row>
     <row r="34" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B34" s="120"/>
       <c r="C34" s="101" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D34" s="46"/>
       <c r="E34" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F34" s="46"/>
-      <c r="G34" s="214"/>
-      <c r="H34" s="215"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="144"/>
     </row>
     <row r="35" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B35" s="120" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="56"/>
       <c r="D35" s="103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E35" s="18"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="191"/>
+      <c r="F35" s="182"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="184"/>
     </row>
     <row r="36" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B36" s="121"/>
-      <c r="C36" s="200"/>
-      <c r="D36" s="201"/>
-      <c r="E36" s="201"/>
-      <c r="F36" s="201"/>
-      <c r="G36" s="201"/>
-      <c r="H36" s="202"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="137"/>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="114" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B37" s="122"/>
       <c r="C37" s="102" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D37" s="57"/>
       <c r="E37" s="106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F37" s="57"/>
       <c r="G37" s="107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H37" s="58"/>
     </row>
     <row r="38" spans="1:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="143"/>
-      <c r="B38" s="143"/>
-      <c r="C38" s="143"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="143"/>
+      <c r="A38" s="150"/>
+      <c r="B38" s="150"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
     </row>
     <row r="39" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>29</v>
       </c>
       <c r="B39" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="185" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="186"/>
-      <c r="E39" s="187"/>
-      <c r="F39" s="185" t="s">
+      <c r="D39" s="179"/>
+      <c r="E39" s="180"/>
+      <c r="F39" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="186"/>
-      <c r="H39" s="187"/>
+      <c r="G39" s="179"/>
+      <c r="H39" s="180"/>
     </row>
     <row r="40" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="63" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="69"/>
-      <c r="C40" s="145"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="145"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="147"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="149"/>
     </row>
     <row r="41" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="69"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="145"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="147"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="149"/>
     </row>
     <row r="42" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="63" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="69"/>
-      <c r="C42" s="145"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="147"/>
+      <c r="C42" s="157"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="149"/>
     </row>
     <row r="43" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B43" s="69"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="145"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="147"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="149"/>
     </row>
     <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="115" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B44" s="69"/>
       <c r="C44" s="109" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D44" s="59"/>
       <c r="E44" s="98" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F44" s="46"/>
       <c r="G44" s="98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H44" s="42"/>
     </row>
@@ -5240,1076 +5352,1222 @@
         <v>37</v>
       </c>
       <c r="B45" s="70"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="145"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="147"/>
+      <c r="C45" s="157"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="149"/>
+      <c r="F45" s="157"/>
+      <c r="G45" s="148"/>
+      <c r="H45" s="149"/>
     </row>
     <row r="46" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="63" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="69"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="146"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="145"/>
-      <c r="G46" s="146"/>
-      <c r="H46" s="147"/>
+      <c r="C46" s="157"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="149"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="149"/>
     </row>
     <row r="47" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="65" t="s">
         <v>24</v>
       </c>
       <c r="B47" s="71"/>
-      <c r="C47" s="144"/>
-      <c r="D47" s="141"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="144"/>
-      <c r="G47" s="141"/>
-      <c r="H47" s="142"/>
+      <c r="C47" s="158"/>
+      <c r="D47" s="159"/>
+      <c r="E47" s="160"/>
+      <c r="F47" s="158"/>
+      <c r="G47" s="159"/>
+      <c r="H47" s="160"/>
     </row>
     <row r="48" spans="1:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="143"/>
-      <c r="B48" s="143"/>
-      <c r="C48" s="143"/>
-      <c r="D48" s="143"/>
-      <c r="E48" s="143"/>
-      <c r="F48" s="143"/>
-      <c r="G48" s="143"/>
-      <c r="H48" s="143"/>
+      <c r="A48" s="150"/>
+      <c r="B48" s="150"/>
+      <c r="C48" s="150"/>
+      <c r="D48" s="150"/>
+      <c r="E48" s="150"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="150"/>
+      <c r="H48" s="150"/>
     </row>
     <row r="49" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
         <v>44</v>
       </c>
       <c r="B49" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="151"/>
-      <c r="D49" s="152"/>
-      <c r="E49" s="152"/>
-      <c r="F49" s="152"/>
-      <c r="G49" s="152"/>
-      <c r="H49" s="153"/>
+        <v>83</v>
+      </c>
+      <c r="C49" s="161"/>
+      <c r="D49" s="162"/>
+      <c r="E49" s="162"/>
+      <c r="F49" s="162"/>
+      <c r="G49" s="162"/>
+      <c r="H49" s="163"/>
     </row>
     <row r="50" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="63" t="s">
         <v>9</v>
       </c>
       <c r="B50" s="73"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="135"/>
-      <c r="F50" s="135"/>
-      <c r="G50" s="135"/>
-      <c r="H50" s="136"/>
+      <c r="C50" s="154"/>
+      <c r="D50" s="155"/>
+      <c r="E50" s="155"/>
+      <c r="F50" s="155"/>
+      <c r="G50" s="155"/>
+      <c r="H50" s="156"/>
     </row>
     <row r="51" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="63" t="s">
         <v>57</v>
       </c>
       <c r="B51" s="73"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="135"/>
-      <c r="F51" s="135"/>
-      <c r="G51" s="135"/>
-      <c r="H51" s="136"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="155"/>
+      <c r="E51" s="155"/>
+      <c r="F51" s="155"/>
+      <c r="G51" s="155"/>
+      <c r="H51" s="156"/>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B52" s="73"/>
       <c r="C52" s="101" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D52" s="24"/>
       <c r="E52" s="105" t="s">
-        <v>191</v>
-      </c>
-      <c r="F52" s="203"/>
-      <c r="G52" s="204"/>
-      <c r="H52" s="205"/>
+        <v>190</v>
+      </c>
+      <c r="F52" s="164"/>
+      <c r="G52" s="165"/>
+      <c r="H52" s="166"/>
     </row>
     <row r="53" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="63" t="s">
         <v>32</v>
       </c>
       <c r="B53" s="73"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="135"/>
-      <c r="F53" s="135"/>
-      <c r="G53" s="135"/>
-      <c r="H53" s="136"/>
+      <c r="C53" s="154"/>
+      <c r="D53" s="155"/>
+      <c r="E53" s="155"/>
+      <c r="F53" s="155"/>
+      <c r="G53" s="155"/>
+      <c r="H53" s="156"/>
     </row>
     <row r="54" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="63" t="s">
         <v>33</v>
       </c>
       <c r="B54" s="73"/>
-      <c r="C54" s="134"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="135"/>
-      <c r="F54" s="135"/>
-      <c r="G54" s="135"/>
-      <c r="H54" s="136"/>
+      <c r="C54" s="154"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
+      <c r="H54" s="156"/>
     </row>
     <row r="55" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="63" t="s">
         <v>34</v>
       </c>
       <c r="B55" s="73"/>
-      <c r="C55" s="134"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="135"/>
-      <c r="F55" s="135"/>
-      <c r="G55" s="135"/>
-      <c r="H55" s="136"/>
+      <c r="C55" s="154"/>
+      <c r="D55" s="155"/>
+      <c r="E55" s="155"/>
+      <c r="F55" s="155"/>
+      <c r="G55" s="155"/>
+      <c r="H55" s="156"/>
     </row>
     <row r="56" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="74" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B56" s="75"/>
-      <c r="C56" s="179"/>
-      <c r="D56" s="180"/>
-      <c r="E56" s="180"/>
-      <c r="F56" s="180"/>
-      <c r="G56" s="180"/>
-      <c r="H56" s="181"/>
+      <c r="C56" s="172"/>
+      <c r="D56" s="173"/>
+      <c r="E56" s="173"/>
+      <c r="F56" s="173"/>
+      <c r="G56" s="173"/>
+      <c r="H56" s="174"/>
     </row>
     <row r="57" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="137"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="137"/>
-      <c r="F57" s="137"/>
-      <c r="G57" s="137"/>
-      <c r="H57" s="137"/>
+      <c r="A57" s="212"/>
+      <c r="B57" s="212"/>
+      <c r="C57" s="212"/>
+      <c r="D57" s="212"/>
+      <c r="E57" s="212"/>
+      <c r="F57" s="212"/>
+      <c r="G57" s="212"/>
+      <c r="H57" s="212"/>
     </row>
     <row r="58" spans="1:8" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="133"/>
-      <c r="B58" s="133"/>
-      <c r="C58" s="133"/>
-      <c r="D58" s="133"/>
-      <c r="E58" s="133"/>
-      <c r="F58" s="133"/>
-      <c r="G58" s="133"/>
-      <c r="H58" s="133"/>
+      <c r="A58" s="211"/>
+      <c r="B58" s="211"/>
+      <c r="C58" s="211"/>
+      <c r="D58" s="211"/>
+      <c r="E58" s="211"/>
+      <c r="F58" s="211"/>
+      <c r="G58" s="211"/>
+      <c r="H58" s="211"/>
     </row>
     <row r="59" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="151"/>
-      <c r="D59" s="152"/>
-      <c r="E59" s="152"/>
-      <c r="F59" s="152"/>
-      <c r="G59" s="152"/>
-      <c r="H59" s="153"/>
+        <v>83</v>
+      </c>
+      <c r="C59" s="161"/>
+      <c r="D59" s="162"/>
+      <c r="E59" s="162"/>
+      <c r="F59" s="162"/>
+      <c r="G59" s="162"/>
+      <c r="H59" s="163"/>
     </row>
     <row r="60" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B60" s="76"/>
-      <c r="C60" s="134"/>
-      <c r="D60" s="135"/>
-      <c r="E60" s="135"/>
-      <c r="F60" s="135"/>
-      <c r="G60" s="135"/>
-      <c r="H60" s="136"/>
+      <c r="C60" s="154"/>
+      <c r="D60" s="155"/>
+      <c r="E60" s="155"/>
+      <c r="F60" s="155"/>
+      <c r="G60" s="155"/>
+      <c r="H60" s="156"/>
     </row>
     <row r="61" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="63" t="s">
         <v>58</v>
       </c>
       <c r="B61" s="76"/>
-      <c r="C61" s="134"/>
-      <c r="D61" s="135"/>
-      <c r="E61" s="135"/>
-      <c r="F61" s="135"/>
-      <c r="G61" s="135"/>
-      <c r="H61" s="136"/>
+      <c r="C61" s="154"/>
+      <c r="D61" s="155"/>
+      <c r="E61" s="155"/>
+      <c r="F61" s="155"/>
+      <c r="G61" s="155"/>
+      <c r="H61" s="156"/>
     </row>
     <row r="62" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="63" t="s">
         <v>53</v>
       </c>
       <c r="B62" s="76"/>
-      <c r="C62" s="134"/>
-      <c r="D62" s="135"/>
-      <c r="E62" s="135"/>
-      <c r="F62" s="135"/>
-      <c r="G62" s="135"/>
-      <c r="H62" s="136"/>
+      <c r="C62" s="154"/>
+      <c r="D62" s="155"/>
+      <c r="E62" s="155"/>
+      <c r="F62" s="155"/>
+      <c r="G62" s="155"/>
+      <c r="H62" s="156"/>
     </row>
     <row r="63" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="63" t="s">
         <v>54</v>
       </c>
       <c r="B63" s="73"/>
-      <c r="C63" s="134"/>
-      <c r="D63" s="135"/>
-      <c r="E63" s="135"/>
-      <c r="F63" s="135"/>
-      <c r="G63" s="135"/>
-      <c r="H63" s="136"/>
+      <c r="C63" s="154"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="155"/>
+      <c r="H63" s="156"/>
     </row>
     <row r="64" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="63" t="s">
         <v>51</v>
       </c>
       <c r="B64" s="76"/>
-      <c r="C64" s="134"/>
-      <c r="D64" s="135"/>
-      <c r="E64" s="135"/>
-      <c r="F64" s="135"/>
-      <c r="G64" s="135"/>
-      <c r="H64" s="136"/>
-    </row>
-    <row r="65" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="154"/>
+      <c r="D64" s="155"/>
+      <c r="E64" s="155"/>
+      <c r="F64" s="155"/>
+      <c r="G64" s="155"/>
+      <c r="H64" s="156"/>
+    </row>
+    <row r="65" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="63" t="s">
         <v>55</v>
       </c>
       <c r="B65" s="76"/>
-      <c r="C65" s="134"/>
-      <c r="D65" s="135"/>
-      <c r="E65" s="135"/>
-      <c r="F65" s="135"/>
-      <c r="G65" s="135"/>
-      <c r="H65" s="136"/>
-    </row>
-    <row r="66" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="154"/>
+      <c r="D65" s="155"/>
+      <c r="E65" s="155"/>
+      <c r="F65" s="155"/>
+      <c r="G65" s="155"/>
+      <c r="H65" s="156"/>
+    </row>
+    <row r="66" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="65" t="s">
         <v>52</v>
       </c>
       <c r="B66" s="77"/>
-      <c r="C66" s="158"/>
-      <c r="D66" s="159"/>
-      <c r="E66" s="159"/>
-      <c r="F66" s="159"/>
-      <c r="G66" s="159"/>
-      <c r="H66" s="160"/>
-    </row>
-    <row r="67" spans="1:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="143"/>
-      <c r="B67" s="143"/>
-      <c r="C67" s="143"/>
-      <c r="D67" s="143"/>
-      <c r="E67" s="143"/>
-      <c r="F67" s="143"/>
-      <c r="G67" s="143"/>
-      <c r="H67" s="143"/>
-    </row>
-    <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="217"/>
+      <c r="D66" s="218"/>
+      <c r="E66" s="218"/>
+      <c r="F66" s="218"/>
+      <c r="G66" s="218"/>
+      <c r="H66" s="219"/>
+    </row>
+    <row r="67" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="150"/>
+      <c r="B67" s="150"/>
+      <c r="C67" s="150"/>
+      <c r="D67" s="150"/>
+      <c r="E67" s="150"/>
+      <c r="F67" s="150"/>
+      <c r="G67" s="150"/>
+      <c r="H67" s="150"/>
+    </row>
+    <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="61" t="s">
         <v>27</v>
       </c>
       <c r="B68" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="151"/>
-      <c r="D68" s="152"/>
-      <c r="E68" s="152"/>
-      <c r="F68" s="152"/>
-      <c r="G68" s="152"/>
-      <c r="H68" s="153"/>
-    </row>
-    <row r="69" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C68" s="161"/>
+      <c r="D68" s="162"/>
+      <c r="E68" s="162"/>
+      <c r="F68" s="162"/>
+      <c r="G68" s="162"/>
+      <c r="H68" s="163"/>
+    </row>
+    <row r="69" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="78" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="79"/>
-      <c r="C69" s="134"/>
-      <c r="D69" s="135"/>
-      <c r="E69" s="135"/>
-      <c r="F69" s="135"/>
-      <c r="G69" s="135"/>
-      <c r="H69" s="136"/>
-    </row>
-    <row r="70" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C69" s="154" t="s">
+        <v>235</v>
+      </c>
+      <c r="D69" s="155"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="155"/>
+      <c r="H69" s="156"/>
+    </row>
+    <row r="70" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A70" s="78" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="79"/>
-      <c r="C70" s="134"/>
-      <c r="D70" s="135"/>
-      <c r="E70" s="135"/>
-      <c r="F70" s="135"/>
-      <c r="G70" s="135"/>
-      <c r="H70" s="136"/>
-    </row>
-    <row r="71" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C70" s="154" t="s">
+        <v>236</v>
+      </c>
+      <c r="D70" s="155"/>
+      <c r="E70" s="155"/>
+      <c r="F70" s="155"/>
+      <c r="G70" s="155"/>
+      <c r="H70" s="156"/>
+    </row>
+    <row r="71" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="78" t="s">
         <v>7</v>
       </c>
       <c r="B71" s="126"/>
-      <c r="C71" s="134"/>
-      <c r="D71" s="135"/>
-      <c r="E71" s="135"/>
-      <c r="F71" s="135"/>
-      <c r="G71" s="135"/>
-      <c r="H71" s="136"/>
-    </row>
-    <row r="72" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C71" s="154" t="s">
+        <v>237</v>
+      </c>
+      <c r="D71" s="155"/>
+      <c r="E71" s="155"/>
+      <c r="F71" s="155"/>
+      <c r="G71" s="155"/>
+      <c r="H71" s="156"/>
+    </row>
+    <row r="72" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" s="116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B72" s="126" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" s="110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D72" s="46"/>
       <c r="E72" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F72" s="46"/>
-      <c r="G72" s="138"/>
-      <c r="H72" s="139"/>
-    </row>
-    <row r="73" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="G72" s="145"/>
+      <c r="H72" s="146"/>
+      <c r="I72" s="222"/>
+    </row>
+    <row r="73" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A73" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="109" t="s">
         <v>107</v>
-      </c>
-      <c r="B73" s="126" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" s="109" t="s">
-        <v>108</v>
       </c>
       <c r="D73" s="47"/>
       <c r="E73" s="98" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F73" s="47"/>
       <c r="G73" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="H73" s="42"/>
+      <c r="I73" s="222"/>
+    </row>
+    <row r="74" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A74" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="126"/>
+      <c r="C74" s="154"/>
+      <c r="D74" s="155"/>
+      <c r="E74" s="155"/>
+      <c r="F74" s="155"/>
+      <c r="G74" s="155"/>
+      <c r="H74" s="156"/>
+      <c r="I74" s="222"/>
+    </row>
+    <row r="75" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="126"/>
+      <c r="C75" s="154"/>
+      <c r="D75" s="155"/>
+      <c r="E75" s="155"/>
+      <c r="F75" s="155"/>
+      <c r="G75" s="155"/>
+      <c r="H75" s="156"/>
+      <c r="I75" s="222"/>
+    </row>
+    <row r="76" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A76" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" s="41">
+        <v>201</v>
+      </c>
+      <c r="E76" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="F76" s="41">
+        <v>100</v>
+      </c>
+      <c r="G76" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="H76" s="48">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="E77" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="H73" s="42"/>
-    </row>
-    <row r="74" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="116" t="s">
-        <v>106</v>
-      </c>
-      <c r="B74" s="126"/>
-      <c r="C74" s="134"/>
-      <c r="D74" s="135"/>
-      <c r="E74" s="135"/>
-      <c r="F74" s="135"/>
-      <c r="G74" s="135"/>
-      <c r="H74" s="136"/>
-    </row>
-    <row r="75" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="B75" s="126"/>
-      <c r="C75" s="134"/>
-      <c r="D75" s="135"/>
-      <c r="E75" s="135"/>
-      <c r="F75" s="135"/>
-      <c r="G75" s="135"/>
-      <c r="H75" s="136"/>
-    </row>
-    <row r="76" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A76" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="B76" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="C76" s="109" t="s">
-        <v>86</v>
-      </c>
-      <c r="D76" s="41"/>
-      <c r="E76" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="F76" s="41"/>
-      <c r="G76" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="H76" s="48"/>
-    </row>
-    <row r="77" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="B77" s="127" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" s="112" t="s">
-        <v>112</v>
-      </c>
-      <c r="D77" s="49"/>
-      <c r="E77" s="111" t="s">
-        <v>111</v>
-      </c>
-      <c r="F77" s="140"/>
-      <c r="G77" s="141"/>
-      <c r="H77" s="142"/>
-    </row>
-    <row r="78" spans="1:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="161"/>
-      <c r="B78" s="161"/>
-      <c r="C78" s="161"/>
-      <c r="D78" s="161"/>
-      <c r="E78" s="161"/>
-      <c r="F78" s="161"/>
-      <c r="G78" s="161"/>
-      <c r="H78" s="161"/>
-    </row>
-    <row r="79" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="F77" s="213" t="s">
+        <v>239</v>
+      </c>
+      <c r="G77" s="159"/>
+      <c r="H77" s="160"/>
+    </row>
+    <row r="78" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="195"/>
+      <c r="B78" s="195"/>
+      <c r="C78" s="195"/>
+      <c r="D78" s="195"/>
+      <c r="E78" s="195"/>
+      <c r="F78" s="195"/>
+      <c r="G78" s="195"/>
+      <c r="H78" s="195"/>
+    </row>
+    <row r="79" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A79" s="82" t="s">
         <v>25</v>
       </c>
       <c r="B79" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C79" s="151"/>
-      <c r="D79" s="152"/>
-      <c r="E79" s="152"/>
-      <c r="F79" s="152"/>
-      <c r="G79" s="152"/>
-      <c r="H79" s="153"/>
-    </row>
-    <row r="80" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C79" s="161"/>
+      <c r="D79" s="162"/>
+      <c r="E79" s="162"/>
+      <c r="F79" s="162"/>
+      <c r="G79" s="162"/>
+      <c r="H79" s="163"/>
+    </row>
+    <row r="80" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A80" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B80" s="79"/>
-      <c r="C80" s="145"/>
-      <c r="D80" s="146"/>
-      <c r="E80" s="146"/>
-      <c r="F80" s="146"/>
-      <c r="G80" s="146"/>
-      <c r="H80" s="147"/>
-    </row>
-    <row r="81" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C80" s="157" t="s">
+        <v>233</v>
+      </c>
+      <c r="D80" s="148"/>
+      <c r="E80" s="148"/>
+      <c r="F80" s="148"/>
+      <c r="G80" s="148"/>
+      <c r="H80" s="149"/>
+    </row>
+    <row r="81" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A81" s="78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B81" s="126"/>
-      <c r="C81" s="154" t="s">
+      <c r="C81" s="209" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" s="210"/>
+      <c r="E81" s="29">
+        <v>1</v>
+      </c>
+      <c r="F81" s="193" t="s">
+        <v>174</v>
+      </c>
+      <c r="G81" s="194"/>
+      <c r="H81" s="22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A82" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" s="126"/>
+      <c r="C82" s="209" t="s">
         <v>113</v>
       </c>
-      <c r="D81" s="155"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="156" t="s">
-        <v>175</v>
-      </c>
-      <c r="G81" s="157"/>
-      <c r="H81" s="22"/>
-    </row>
-    <row r="82" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="B82" s="126"/>
-      <c r="C82" s="154" t="s">
+      <c r="D82" s="210"/>
+      <c r="E82" s="29">
+        <v>501</v>
+      </c>
+      <c r="F82" s="193" t="s">
         <v>114</v>
       </c>
-      <c r="D82" s="155"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="156" t="s">
+      <c r="G82" s="194"/>
+      <c r="H82" s="33">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A83" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="G82" s="157"/>
-      <c r="H82" s="33"/>
-    </row>
-    <row r="83" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A83" s="78" t="s">
-        <v>116</v>
-      </c>
       <c r="B83" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="C83" s="154" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="209" t="s">
+        <v>154</v>
+      </c>
+      <c r="D83" s="210"/>
+      <c r="E83" s="40">
+        <v>98</v>
+      </c>
+      <c r="F83" s="193" t="s">
         <v>155</v>
       </c>
-      <c r="D83" s="155"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="156" t="s">
-        <v>156</v>
-      </c>
-      <c r="G83" s="157"/>
-      <c r="H83" s="33"/>
-    </row>
-    <row r="84" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="G83" s="194"/>
+      <c r="H83" s="33">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A84" s="78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B84" s="126"/>
       <c r="C84" s="109" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" s="17">
+        <v>23.87</v>
+      </c>
+      <c r="E84" s="113" t="s">
         <v>166</v>
       </c>
-      <c r="D84" s="17"/>
-      <c r="E84" s="113" t="s">
-        <v>167</v>
-      </c>
-      <c r="F84" s="13"/>
-      <c r="G84" s="173"/>
-      <c r="H84" s="174"/>
-    </row>
-    <row r="85" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="F84" s="13">
+        <v>29.8</v>
+      </c>
+      <c r="G84" s="207"/>
+      <c r="H84" s="208"/>
+      <c r="I84" s="223"/>
+    </row>
+    <row r="85" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A85" s="78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B85" s="126" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C85" s="109" t="s">
+        <v>118</v>
+      </c>
+      <c r="D85" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E85" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="D85" s="16"/>
-      <c r="E85" s="98" t="s">
+      <c r="F85" s="16">
+        <v>7500</v>
+      </c>
+      <c r="G85" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="F85" s="16"/>
-      <c r="G85" s="98" t="s">
-        <v>121</v>
-      </c>
-      <c r="H85" s="14"/>
-    </row>
-    <row r="86" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="H85" s="14">
+        <v>5000</v>
+      </c>
+      <c r="I85" s="222"/>
+    </row>
+    <row r="86" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A86" s="116" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B86" s="126"/>
-      <c r="C86" s="145"/>
-      <c r="D86" s="146"/>
-      <c r="E86" s="146"/>
-      <c r="F86" s="146"/>
-      <c r="G86" s="146"/>
-      <c r="H86" s="147"/>
-    </row>
-    <row r="87" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C86" s="157" t="s">
+        <v>232</v>
+      </c>
+      <c r="D86" s="148"/>
+      <c r="E86" s="148"/>
+      <c r="F86" s="148"/>
+      <c r="G86" s="148"/>
+      <c r="H86" s="149"/>
+    </row>
+    <row r="87" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A87" s="78" t="s">
         <v>47</v>
       </c>
       <c r="B87" s="126"/>
-      <c r="C87" s="145"/>
-      <c r="D87" s="146"/>
-      <c r="E87" s="146"/>
-      <c r="F87" s="146"/>
-      <c r="G87" s="146"/>
-      <c r="H87" s="147"/>
-    </row>
-    <row r="88" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C87" s="157" t="s">
+        <v>231</v>
+      </c>
+      <c r="D87" s="148"/>
+      <c r="E87" s="148"/>
+      <c r="F87" s="148"/>
+      <c r="G87" s="148"/>
+      <c r="H87" s="149"/>
+    </row>
+    <row r="88" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A88" s="116" t="s">
         <v>56</v>
       </c>
       <c r="B88" s="126"/>
-      <c r="C88" s="145"/>
-      <c r="D88" s="146"/>
-      <c r="E88" s="146"/>
-      <c r="F88" s="146"/>
-      <c r="G88" s="146"/>
-      <c r="H88" s="147"/>
-    </row>
-    <row r="89" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C88" s="157" t="s">
+        <v>230</v>
+      </c>
+      <c r="D88" s="148"/>
+      <c r="E88" s="148"/>
+      <c r="F88" s="148"/>
+      <c r="G88" s="148"/>
+      <c r="H88" s="149"/>
+    </row>
+    <row r="89" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A89" s="116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B89" s="126"/>
-      <c r="C89" s="145"/>
-      <c r="D89" s="146"/>
-      <c r="E89" s="146"/>
-      <c r="F89" s="146"/>
-      <c r="G89" s="146"/>
-      <c r="H89" s="147"/>
-    </row>
-    <row r="90" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C89" s="157" t="s">
+        <v>229</v>
+      </c>
+      <c r="D89" s="148"/>
+      <c r="E89" s="148"/>
+      <c r="F89" s="148"/>
+      <c r="G89" s="148"/>
+      <c r="H89" s="149"/>
+    </row>
+    <row r="90" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A90" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B90" s="126" t="s">
-        <v>82</v>
-      </c>
-      <c r="C90" s="20"/>
-      <c r="D90" s="168"/>
-      <c r="E90" s="169"/>
-      <c r="F90" s="169"/>
-      <c r="G90" s="169"/>
-      <c r="H90" s="170"/>
-    </row>
-    <row r="91" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C90" s="20">
+        <v>2.76</v>
+      </c>
+      <c r="D90" s="202"/>
+      <c r="E90" s="203"/>
+      <c r="F90" s="203"/>
+      <c r="G90" s="203"/>
+      <c r="H90" s="204"/>
+    </row>
+    <row r="91" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A91" s="78" t="s">
         <v>18</v>
       </c>
       <c r="B91" s="126"/>
-      <c r="C91" s="145" t="s">
-        <v>63</v>
-      </c>
-      <c r="D91" s="146"/>
-      <c r="E91" s="146"/>
-      <c r="F91" s="146"/>
-      <c r="G91" s="146"/>
-      <c r="H91" s="147"/>
-    </row>
-    <row r="92" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C91" s="157" t="s">
+        <v>228</v>
+      </c>
+      <c r="D91" s="148"/>
+      <c r="E91" s="148"/>
+      <c r="F91" s="148"/>
+      <c r="G91" s="148"/>
+      <c r="H91" s="149"/>
+    </row>
+    <row r="92" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A92" s="78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B92" s="126"/>
       <c r="C92" s="109" t="s">
-        <v>123</v>
-      </c>
-      <c r="D92" s="47"/>
-      <c r="E92" s="163" t="s">
         <v>122</v>
       </c>
-      <c r="F92" s="164"/>
-      <c r="G92" s="32"/>
+      <c r="D92" s="47">
+        <v>1709</v>
+      </c>
+      <c r="E92" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="F92" s="198"/>
+      <c r="G92" s="32">
+        <v>190</v>
+      </c>
       <c r="H92" s="23"/>
     </row>
-    <row r="93" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A93" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="B93" s="126"/>
+      <c r="C93" s="221">
+        <v>45658</v>
+      </c>
+      <c r="D93" s="205" t="s">
+        <v>152</v>
+      </c>
+      <c r="E93" s="206"/>
+      <c r="F93" s="46">
+        <v>2390</v>
+      </c>
+      <c r="G93" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="H93" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A94" s="78" t="s">
         <v>151</v>
-      </c>
-      <c r="B93" s="126"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="171" t="s">
-        <v>153</v>
-      </c>
-      <c r="E93" s="172"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="97" t="s">
-        <v>154</v>
-      </c>
-      <c r="H93" s="21"/>
-    </row>
-    <row r="94" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A94" s="78" t="s">
-        <v>152</v>
       </c>
       <c r="B94" s="126"/>
       <c r="C94" s="109" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" s="46">
+        <v>42</v>
+      </c>
+      <c r="E94" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="D94" s="46"/>
-      <c r="E94" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="F94" s="46"/>
-      <c r="G94" s="138"/>
-      <c r="H94" s="139"/>
-    </row>
-    <row r="95" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="F94" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="G94" s="145"/>
+      <c r="H94" s="146"/>
+    </row>
+    <row r="95" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A95" s="78" t="s">
         <v>46</v>
       </c>
       <c r="B95" s="126"/>
-      <c r="C95" s="145"/>
-      <c r="D95" s="146"/>
-      <c r="E95" s="146"/>
-      <c r="F95" s="146"/>
-      <c r="G95" s="146"/>
-      <c r="H95" s="147"/>
-    </row>
-    <row r="96" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C95" s="157" t="s">
+        <v>227</v>
+      </c>
+      <c r="D95" s="148"/>
+      <c r="E95" s="148"/>
+      <c r="F95" s="148"/>
+      <c r="G95" s="148"/>
+      <c r="H95" s="149"/>
+    </row>
+    <row r="96" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A96" s="78" t="s">
         <v>16</v>
       </c>
       <c r="B96" s="126"/>
-      <c r="C96" s="145"/>
-      <c r="D96" s="146"/>
-      <c r="E96" s="146"/>
-      <c r="F96" s="146"/>
-      <c r="G96" s="146"/>
-      <c r="H96" s="147"/>
-    </row>
-    <row r="97" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C96" s="157" t="s">
+        <v>226</v>
+      </c>
+      <c r="D96" s="148"/>
+      <c r="E96" s="148"/>
+      <c r="F96" s="148"/>
+      <c r="G96" s="148"/>
+      <c r="H96" s="149"/>
+    </row>
+    <row r="97" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A97" s="78" t="s">
         <v>40</v>
       </c>
       <c r="B97" s="126"/>
-      <c r="C97" s="145"/>
-      <c r="D97" s="146"/>
-      <c r="E97" s="146"/>
-      <c r="F97" s="146"/>
-      <c r="G97" s="146"/>
-      <c r="H97" s="147"/>
-    </row>
-    <row r="98" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C97" s="157" t="s">
+        <v>225</v>
+      </c>
+      <c r="D97" s="148"/>
+      <c r="E97" s="148"/>
+      <c r="F97" s="148"/>
+      <c r="G97" s="148"/>
+      <c r="H97" s="149"/>
+    </row>
+    <row r="98" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A98" s="116" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B98" s="126"/>
-      <c r="C98" s="145"/>
-      <c r="D98" s="146"/>
-      <c r="E98" s="146"/>
-      <c r="F98" s="146"/>
-      <c r="G98" s="146"/>
-      <c r="H98" s="147"/>
-    </row>
-    <row r="99" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C98" s="157" t="s">
+        <v>224</v>
+      </c>
+      <c r="D98" s="148"/>
+      <c r="E98" s="148"/>
+      <c r="F98" s="148"/>
+      <c r="G98" s="148"/>
+      <c r="H98" s="149"/>
+    </row>
+    <row r="99" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A99" s="117" t="s">
         <v>15</v>
       </c>
       <c r="B99" s="83"/>
-      <c r="C99" s="165" t="s">
-        <v>158</v>
-      </c>
-      <c r="D99" s="166"/>
-      <c r="E99" s="166"/>
-      <c r="F99" s="166"/>
-      <c r="G99" s="166"/>
-      <c r="H99" s="167"/>
-    </row>
-    <row r="100" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C99" s="199" t="s">
+        <v>157</v>
+      </c>
+      <c r="D99" s="200"/>
+      <c r="E99" s="200"/>
+      <c r="F99" s="200"/>
+      <c r="G99" s="200"/>
+      <c r="H99" s="201"/>
+      <c r="I99" s="220"/>
+    </row>
+    <row r="100" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A100" s="78" t="s">
         <v>39</v>
       </c>
       <c r="B100" s="79"/>
-      <c r="C100" s="145"/>
-      <c r="D100" s="146"/>
-      <c r="E100" s="146"/>
-      <c r="F100" s="162"/>
+      <c r="C100" s="157" t="s">
+        <v>223</v>
+      </c>
+      <c r="D100" s="148"/>
+      <c r="E100" s="148"/>
+      <c r="F100" s="196"/>
       <c r="G100" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="H100" s="45"/>
-    </row>
-    <row r="101" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="H100" s="45">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A101" s="78" t="s">
         <v>28</v>
       </c>
       <c r="B101" s="79"/>
-      <c r="C101" s="145"/>
-      <c r="D101" s="146"/>
-      <c r="E101" s="146"/>
-      <c r="F101" s="146"/>
-      <c r="G101" s="146"/>
-      <c r="H101" s="147"/>
-    </row>
-    <row r="102" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="157" t="s">
+        <v>222</v>
+      </c>
+      <c r="D101" s="148"/>
+      <c r="E101" s="148"/>
+      <c r="F101" s="148"/>
+      <c r="G101" s="148"/>
+      <c r="H101" s="149"/>
+    </row>
+    <row r="102" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="118" t="s">
         <v>48</v>
       </c>
       <c r="B102" s="81"/>
-      <c r="C102" s="144"/>
-      <c r="D102" s="141"/>
-      <c r="E102" s="141"/>
-      <c r="F102" s="141"/>
-      <c r="G102" s="141"/>
-      <c r="H102" s="142"/>
-    </row>
-    <row r="103" spans="1:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="161"/>
-      <c r="B103" s="161"/>
-      <c r="C103" s="161"/>
-      <c r="D103" s="161"/>
-      <c r="E103" s="161"/>
-      <c r="F103" s="161"/>
-      <c r="G103" s="161"/>
-      <c r="H103" s="161"/>
-    </row>
-    <row r="104" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C102" s="158" t="s">
+        <v>221</v>
+      </c>
+      <c r="D102" s="159"/>
+      <c r="E102" s="159"/>
+      <c r="F102" s="159"/>
+      <c r="G102" s="159"/>
+      <c r="H102" s="160"/>
+    </row>
+    <row r="103" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="195"/>
+      <c r="B103" s="195"/>
+      <c r="C103" s="195"/>
+      <c r="D103" s="195"/>
+      <c r="E103" s="195"/>
+      <c r="F103" s="195"/>
+      <c r="G103" s="195"/>
+      <c r="H103" s="195"/>
+    </row>
+    <row r="104" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A104" s="82" t="s">
         <v>8</v>
       </c>
       <c r="B104" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C104" s="151"/>
-      <c r="D104" s="152"/>
-      <c r="E104" s="152"/>
-      <c r="F104" s="152"/>
-      <c r="G104" s="152"/>
-      <c r="H104" s="153"/>
-    </row>
-    <row r="105" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C104" s="161"/>
+      <c r="D104" s="162"/>
+      <c r="E104" s="162"/>
+      <c r="F104" s="162"/>
+      <c r="G104" s="162"/>
+      <c r="H104" s="163"/>
+    </row>
+    <row r="105" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A105" s="78" t="s">
         <v>10</v>
       </c>
       <c r="B105" s="79"/>
-      <c r="C105" s="145"/>
-      <c r="D105" s="146"/>
-      <c r="E105" s="146"/>
-      <c r="F105" s="146"/>
-      <c r="G105" s="146"/>
-      <c r="H105" s="147"/>
-    </row>
-    <row r="106" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C105" s="157" t="s">
+        <v>220</v>
+      </c>
+      <c r="D105" s="148"/>
+      <c r="E105" s="148"/>
+      <c r="F105" s="148"/>
+      <c r="G105" s="148"/>
+      <c r="H105" s="149"/>
+    </row>
+    <row r="106" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A106" s="78" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B106" s="126"/>
-      <c r="C106" s="145"/>
-      <c r="D106" s="146"/>
-      <c r="E106" s="146"/>
-      <c r="F106" s="146"/>
-      <c r="G106" s="146"/>
-      <c r="H106" s="147"/>
-    </row>
-    <row r="107" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C106" s="157" t="s">
+        <v>219</v>
+      </c>
+      <c r="D106" s="148"/>
+      <c r="E106" s="148"/>
+      <c r="F106" s="148"/>
+      <c r="G106" s="148"/>
+      <c r="H106" s="149"/>
+    </row>
+    <row r="107" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A107" s="78" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B107" s="126" t="s">
-        <v>102</v>
-      </c>
-      <c r="C107" s="20"/>
-      <c r="D107" s="148"/>
-      <c r="E107" s="149"/>
-      <c r="F107" s="149"/>
-      <c r="G107" s="149"/>
-      <c r="H107" s="150"/>
-    </row>
-    <row r="108" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1</v>
+      </c>
+      <c r="D107" s="214"/>
+      <c r="E107" s="215"/>
+      <c r="F107" s="215"/>
+      <c r="G107" s="215"/>
+      <c r="H107" s="216"/>
+    </row>
+    <row r="108" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A108" s="116" t="s">
         <v>21</v>
       </c>
       <c r="B108" s="126" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="C108" s="109" t="s">
-        <v>127</v>
-      </c>
-      <c r="D108" s="40"/>
+      <c r="D108" s="40">
+        <v>32.6</v>
+      </c>
       <c r="E108" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="F108" s="40">
+        <v>40.9</v>
+      </c>
+      <c r="G108" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="F108" s="40"/>
-      <c r="G108" s="97" t="s">
-        <v>131</v>
-      </c>
-      <c r="H108" s="33"/>
-    </row>
-    <row r="109" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="H108" s="33">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A109" s="116" t="s">
         <v>21</v>
       </c>
       <c r="B109" s="126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C109" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="D109" s="40">
+        <v>61.7</v>
+      </c>
+      <c r="E109" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="D109" s="40"/>
-      <c r="E109" s="97" t="s">
-        <v>129</v>
-      </c>
-      <c r="F109" s="40"/>
+      <c r="F109" s="40">
+        <v>75</v>
+      </c>
       <c r="G109" s="97" t="s">
-        <v>132</v>
-      </c>
-      <c r="H109" s="33"/>
-    </row>
-    <row r="110" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="H109" s="33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A110" s="78" t="s">
         <v>11</v>
       </c>
       <c r="B110" s="79"/>
-      <c r="C110" s="145"/>
-      <c r="D110" s="146"/>
-      <c r="E110" s="146"/>
-      <c r="F110" s="146"/>
-      <c r="G110" s="146"/>
-      <c r="H110" s="147"/>
-    </row>
-    <row r="111" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="157"/>
+      <c r="D110" s="148"/>
+      <c r="E110" s="148"/>
+      <c r="F110" s="148"/>
+      <c r="G110" s="148"/>
+      <c r="H110" s="149"/>
+      <c r="I110" s="220"/>
+    </row>
+    <row r="111" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B111" s="81"/>
-      <c r="C111" s="144"/>
-      <c r="D111" s="141"/>
-      <c r="E111" s="141"/>
-      <c r="F111" s="141"/>
-      <c r="G111" s="141"/>
-      <c r="H111" s="142"/>
-    </row>
-    <row r="112" spans="1:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="143"/>
-      <c r="B112" s="143"/>
-      <c r="C112" s="143"/>
-      <c r="D112" s="143"/>
-      <c r="E112" s="143"/>
-      <c r="F112" s="143"/>
-      <c r="G112" s="143"/>
-      <c r="H112" s="143"/>
-    </row>
-    <row r="113" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C111" s="158" t="s">
+        <v>218</v>
+      </c>
+      <c r="D111" s="159"/>
+      <c r="E111" s="159"/>
+      <c r="F111" s="159"/>
+      <c r="G111" s="159"/>
+      <c r="H111" s="160"/>
+    </row>
+    <row r="112" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="150"/>
+      <c r="B112" s="150"/>
+      <c r="C112" s="150"/>
+      <c r="D112" s="150"/>
+      <c r="E112" s="150"/>
+      <c r="F112" s="150"/>
+      <c r="G112" s="150"/>
+      <c r="H112" s="150"/>
+    </row>
+    <row r="113" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A113" s="84" t="s">
         <v>38</v>
       </c>
       <c r="B113" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C113" s="151"/>
-      <c r="D113" s="152"/>
-      <c r="E113" s="152"/>
-      <c r="F113" s="152"/>
-      <c r="G113" s="152"/>
-      <c r="H113" s="153"/>
-    </row>
-    <row r="114" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C113" s="161"/>
+      <c r="D113" s="162"/>
+      <c r="E113" s="162"/>
+      <c r="F113" s="162"/>
+      <c r="G113" s="162"/>
+      <c r="H113" s="163"/>
+    </row>
+    <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="85" t="s">
         <v>49</v>
       </c>
       <c r="B114" s="86"/>
-      <c r="C114" s="145"/>
-      <c r="D114" s="146"/>
-      <c r="E114" s="146"/>
-      <c r="F114" s="146"/>
-      <c r="G114" s="146"/>
-      <c r="H114" s="147"/>
-    </row>
-    <row r="115" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C114" s="157" t="s">
+        <v>214</v>
+      </c>
+      <c r="D114" s="148"/>
+      <c r="E114" s="148"/>
+      <c r="F114" s="148"/>
+      <c r="G114" s="148"/>
+      <c r="H114" s="149"/>
+    </row>
+    <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B115" s="86"/>
       <c r="C115" s="109" t="s">
+        <v>135</v>
+      </c>
+      <c r="D115" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="E115" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G115" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="D115" s="41"/>
-      <c r="E115" s="97" t="s">
-        <v>134</v>
-      </c>
-      <c r="F115" s="13"/>
-      <c r="G115" s="97" t="s">
+      <c r="H115" s="42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="B116" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="C116" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="D116" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="E116" s="97" t="s">
         <v>137</v>
-      </c>
-      <c r="H115" s="42"/>
-    </row>
-    <row r="116" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="87" t="s">
-        <v>142</v>
-      </c>
-      <c r="B116" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="C116" s="109" t="s">
-        <v>140</v>
-      </c>
-      <c r="D116" s="43"/>
-      <c r="E116" s="97" t="s">
-        <v>138</v>
       </c>
       <c r="F116" s="43"/>
       <c r="G116" s="97" t="s">
-        <v>139</v>
-      </c>
-      <c r="H116" s="44"/>
-    </row>
-    <row r="117" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="H116" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="I116" s="220"/>
+    </row>
+    <row r="117" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="88" t="s">
         <v>50</v>
       </c>
       <c r="B117" s="89"/>
-      <c r="C117" s="144"/>
-      <c r="D117" s="141"/>
-      <c r="E117" s="141"/>
-      <c r="F117" s="141"/>
-      <c r="G117" s="141"/>
-      <c r="H117" s="142"/>
-    </row>
-    <row r="118" spans="1:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="143"/>
-      <c r="B118" s="143"/>
-      <c r="C118" s="143"/>
-      <c r="D118" s="143"/>
-      <c r="E118" s="143"/>
-      <c r="F118" s="143"/>
-      <c r="G118" s="143"/>
-      <c r="H118" s="143"/>
-    </row>
-    <row r="119" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C117" s="158" t="s">
+        <v>217</v>
+      </c>
+      <c r="D117" s="159"/>
+      <c r="E117" s="159"/>
+      <c r="F117" s="159"/>
+      <c r="G117" s="159"/>
+      <c r="H117" s="160"/>
+    </row>
+    <row r="118" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="150"/>
+      <c r="B118" s="150"/>
+      <c r="C118" s="150"/>
+      <c r="D118" s="150"/>
+      <c r="E118" s="150"/>
+      <c r="F118" s="150"/>
+      <c r="G118" s="150"/>
+      <c r="H118" s="150"/>
+    </row>
+    <row r="119" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A119" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="B119" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C119" s="161"/>
+      <c r="D119" s="162"/>
+      <c r="E119" s="162"/>
+      <c r="F119" s="162"/>
+      <c r="G119" s="162"/>
+      <c r="H119" s="163"/>
+    </row>
+    <row r="120" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B119" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C119" s="151"/>
-      <c r="D119" s="152"/>
-      <c r="E119" s="152"/>
-      <c r="F119" s="152"/>
-      <c r="G119" s="152"/>
-      <c r="H119" s="153"/>
-    </row>
-    <row r="120" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="90" t="s">
-        <v>66</v>
-      </c>
       <c r="B120" s="91"/>
-      <c r="C120" s="145"/>
-      <c r="D120" s="146"/>
-      <c r="E120" s="146"/>
-      <c r="F120" s="146"/>
-      <c r="G120" s="146"/>
-      <c r="H120" s="147"/>
-    </row>
-    <row r="121" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="157"/>
+      <c r="D120" s="148"/>
+      <c r="E120" s="148"/>
+      <c r="F120" s="148"/>
+      <c r="G120" s="148"/>
+      <c r="H120" s="149"/>
+      <c r="I120" s="220"/>
+    </row>
+    <row r="121" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="80" t="s">
         <v>45</v>
       </c>
       <c r="B121" s="92"/>
-      <c r="C121" s="144"/>
-      <c r="D121" s="141"/>
-      <c r="E121" s="141"/>
-      <c r="F121" s="141"/>
-      <c r="G121" s="141"/>
-      <c r="H121" s="142"/>
+      <c r="C121" s="158"/>
+      <c r="D121" s="159"/>
+      <c r="E121" s="159"/>
+      <c r="F121" s="159"/>
+      <c r="G121" s="159"/>
+      <c r="H121" s="160"/>
+      <c r="I121" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="A67:H67"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C105:H105"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C110:H110"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="A118:H118"/>
+    <mergeCell ref="C117:H117"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="A112:H112"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="A103:H103"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C83:D83"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C50:H50"/>
@@ -6334,68 +6592,47 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="A112:H112"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="A103:H103"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="A67:H67"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C105:H105"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C110:H110"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="C119:H119"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="A118:H118"/>
-    <mergeCell ref="C117:H117"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="C4:H4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6437,12 +6674,12 @@
     </row>
     <row r="4" spans="2:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="130" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="130" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6452,17 +6689,17 @@
     </row>
     <row r="7" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="130" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="130" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="130" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6472,12 +6709,12 @@
     </row>
     <row r="11" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="131" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="130" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Competition 2025/2025_FSAE_Design_IC_Spec_Sheet_VU.xlsx
+++ b/Competition 2025/2025_FSAE_Design_IC_Spec_Sheet_VU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egroh\Documents\GitHub\vandymotorsports\Competition 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752FF2E4-9598-45FC-8006-CF231AF1E007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B570DE78-F991-4CD9-B97C-4871B2A5474D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1852,7 +1852,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="266">
   <si>
     <t>Car No.</t>
   </si>
@@ -2807,6 +2807,84 @@
   </si>
   <si>
     <t>CAE, using manufacturer data (Plascore)</t>
+  </si>
+  <si>
+    <t>interchangeable seat inserts, adjustable headrest padding placement</t>
+  </si>
+  <si>
+    <t>Fibre Glast #25 2-part Mix and Pour Foam, Polyurethane</t>
+  </si>
+  <si>
+    <t>Bought, QuickCar Black 12" Steering Wheel</t>
+  </si>
+  <si>
+    <t>Cable shifter, mounted on right side impact structure, push pull shifter for sequential shifting</t>
+  </si>
+  <si>
+    <t>no clutch actuator mounted in cockpit, not needed for ordinary operation with Rekulse clutch</t>
+  </si>
+  <si>
+    <t>removeable electronic dash</t>
+  </si>
+  <si>
+    <t>Fixed, Vented Steel. Thickness: 0.155" Outer Diameter Wave Pattern, Max Diameter: 7"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tilton Brand 5/8" with Bias Bar </t>
+  </si>
+  <si>
+    <t>Wilwood PS-1 , stainless steel, 1 inch piston diameter</t>
+  </si>
+  <si>
+    <t>Wilwood Pad #4108, Sintered Metallic</t>
+  </si>
+  <si>
+    <t>CNC Aluminum 6061</t>
+  </si>
+  <si>
+    <t>CNC Aluminum 6061 for main body, Aluminum 7075 for top hat</t>
+  </si>
+  <si>
+    <t>Tapered Roller 2.5" OD</t>
+  </si>
+  <si>
+    <t>Dual Angular Contact Ball 2.92" OD</t>
+  </si>
+  <si>
+    <t>Lathe and Tapped 4130, 1.34" OD</t>
+  </si>
+  <si>
+    <t>4130  42-47 HRC, 2.59" OD</t>
+  </si>
+  <si>
+    <t>Engine data is logged through the custom data logging programs provided by the ECU. Accelerometer, GPS, Gryoscope data is collected and stored with a RaceBox Mini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dedicated ground plane welded onto the chassis. </t>
+  </si>
+  <si>
+    <t>Shorai  LFX14L2-BS12.  The battery supplies 12 V with a capacity of 14 Ah and CCA of 210 A.  Charging is provided by the yamaha regulator and engine driven alternator</t>
+  </si>
+  <si>
+    <t>4 AWG for high current, 16 AWG for charging, 20 AWG for everything else. Aluminum case with rubber padding</t>
+  </si>
+  <si>
+    <t>There are three active safety mechanisms that can shut off power to the sensors and ECU.  There is a master switch located on the side of the car near the drivers shoulder through which all current between the battery and the rest of the car flows.  There is a cockpit master switch which controls relays that supply power to the ECU, injector coil, fuel pump and ignition coils.  Lastly, there is a brake over travel switch in series with the cockpit master switch which controls the same relays as the cockpit master switch and is designed to cut power in the event the brakes travel past their desirable range.  In addition, each relays' power line is fused.  The relay that supplies power to the starter motor is also fused.  The ECU is a PE3-8400A.</t>
+  </si>
+  <si>
+    <t>Hoosier</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>16.0X6.0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>linear</t>
   </si>
 </sst>
 </file>
@@ -3004,7 +3082,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3035,6 +3113,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="46">
     <border>
@@ -3614,7 +3698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3688,329 +3772,551 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4021,12 +4327,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4048,23 +4348,8 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4075,214 +4360,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4660,8 +4756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4675,15 +4771,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
       <c r="H1" s="8">
         <v>2025</v>
       </c>
@@ -4691,1138 +4787,1261 @@
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="179" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="188">
+      <c r="B3" s="196"/>
+      <c r="C3" s="197">
         <v>130</v>
       </c>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="190"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="199"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="151" t="s">
+      <c r="B4" s="208"/>
+      <c r="C4" s="218" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="153"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="219"/>
+      <c r="H4" s="220"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="150"/>
-      <c r="B5" s="150"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
+      <c r="A5" s="145"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
     </row>
     <row r="6" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="177"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="186"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="97" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="97" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="134"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="30">
         <v>1562.1</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="97" t="s">
         <v>160</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <v>1187.45</v>
       </c>
-      <c r="G8" s="97" t="s">
+      <c r="G8" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="29">
         <v>1143</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>8.69</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="139" t="s">
+      <c r="F9" s="211" t="s">
         <v>213</v>
       </c>
-      <c r="G9" s="136"/>
-      <c r="H9" s="137"/>
+      <c r="G9" s="203"/>
+      <c r="H9" s="204"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="93" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="93" t="s">
+      <c r="F10" s="25"/>
+      <c r="G10" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="27"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="132"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="125"/>
-      <c r="C11" s="96" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="99" t="s">
+      <c r="D11" s="27">
+        <v>50.5</v>
+      </c>
+      <c r="E11" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="191"/>
-      <c r="H11" s="192"/>
+      <c r="F11" s="27">
+        <v>50.4</v>
+      </c>
+      <c r="G11" s="200"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="227"/>
     </row>
     <row r="12" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="150"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="178" t="s">
+      <c r="C13" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="179"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="181" t="s">
+      <c r="D13" s="188"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="179"/>
-      <c r="H13" s="180"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="189"/>
     </row>
     <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="225" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="226" t="s">
+        <v>263</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="225" t="s">
+        <v>262</v>
+      </c>
+      <c r="H14" s="226" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="B15" s="120" t="s">
+      <c r="B15" s="119" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="68" t="s">
+      <c r="D15" s="39"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="134"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="142"/>
-    </row>
-    <row r="17" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
+      <c r="B16" s="119"/>
+      <c r="C16" s="212"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="212"/>
+      <c r="G16" s="213"/>
+      <c r="H16" s="214"/>
+      <c r="I16" s="134"/>
+    </row>
+    <row r="17" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="137"/>
-    </row>
-    <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="B17" s="119"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="210"/>
+      <c r="G17" s="203"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="134"/>
+    </row>
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="120" t="s">
+      <c r="B18" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="68" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
-    </row>
-    <row r="19" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="134"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="120" t="s">
+      <c r="B19" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="146"/>
-    </row>
-    <row r="20" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="134"/>
+    </row>
+    <row r="20" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="120" t="s">
+      <c r="B20" s="119" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="146"/>
-    </row>
-    <row r="21" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="63" t="s">
+      <c r="C20" s="33"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="134"/>
+    </row>
+    <row r="21" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="146"/>
-    </row>
-    <row r="22" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="134"/>
+    </row>
+    <row r="22" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="120" t="s">
+      <c r="B22" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="98" t="s">
+      <c r="C22" s="49"/>
+      <c r="D22" s="97" t="s">
         <v>98</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="98" t="s">
+      <c r="F22" s="38"/>
+      <c r="G22" s="97" t="s">
         <v>98</v>
       </c>
       <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
+      <c r="I22" s="134"/>
+    </row>
+    <row r="23" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="98" t="s">
+      <c r="C23" s="49"/>
+      <c r="D23" s="97" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="14"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="98" t="s">
+      <c r="F23" s="38"/>
+      <c r="G23" s="97" t="s">
         <v>98</v>
       </c>
       <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="I23" s="134"/>
+    </row>
+    <row r="24" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="120" t="s">
+      <c r="B24" s="119" t="s">
         <v>173</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="98" t="s">
+      <c r="C24" s="37">
+        <v>2.14</v>
+      </c>
+      <c r="D24" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="98" t="s">
+      <c r="E24" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="F24" s="38">
+        <v>2.14</v>
+      </c>
+      <c r="G24" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="H24" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="146"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="141"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="146"/>
-    </row>
-    <row r="26" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="63" t="s">
+      <c r="G25" s="140"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="134"/>
+    </row>
+    <row r="26" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="120" t="s">
+      <c r="B26" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="146"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="141"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="146"/>
-    </row>
-    <row r="27" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
+      <c r="G26" s="140"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="134"/>
+    </row>
+    <row r="27" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="120" t="s">
+      <c r="B27" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="146"/>
-    </row>
-    <row r="28" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
+      <c r="C27" s="37">
+        <v>0</v>
+      </c>
+      <c r="D27" s="140"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="G27" s="140"/>
+      <c r="H27" s="141"/>
+    </row>
+    <row r="28" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="120" t="s">
+      <c r="B28" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="146"/>
-    </row>
-    <row r="29" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+      <c r="C28" s="37">
+        <v>-0.8</v>
+      </c>
+      <c r="D28" s="140"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="G28" s="140"/>
+      <c r="H28" s="141"/>
+    </row>
+    <row r="29" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="120"/>
-      <c r="C29" s="185"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="194"/>
       <c r="D29" s="148"/>
       <c r="E29" s="149"/>
-      <c r="F29" s="147"/>
+      <c r="F29" s="217"/>
       <c r="G29" s="148"/>
       <c r="H29" s="149"/>
-    </row>
-    <row r="30" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
+      <c r="I29" s="134"/>
+    </row>
+    <row r="30" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="120" t="s">
+      <c r="B30" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="146"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="141"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="146"/>
-    </row>
-    <row r="31" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="115" t="s">
+      <c r="G30" s="140"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="134"/>
+    </row>
+    <row r="31" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="120" t="s">
+      <c r="B31" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="146"/>
-    </row>
-    <row r="32" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="63" t="s">
+      <c r="C31" s="50"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="134"/>
+    </row>
+    <row r="32" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="120" t="s">
+      <c r="B32" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="68" t="s">
+      <c r="D32" s="39"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
-    </row>
-    <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="63" t="s">
+      <c r="G32" s="31"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="134"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="B33" s="120"/>
-      <c r="C33" s="100" t="s">
+      <c r="B33" s="119"/>
+      <c r="C33" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="104" t="s">
+      <c r="D33" s="52">
+        <v>9.85</v>
+      </c>
+      <c r="E33" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="F33" s="54"/>
-      <c r="G33" s="108" t="s">
+      <c r="F33" s="53"/>
+      <c r="G33" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="H33" s="55"/>
-    </row>
-    <row r="34" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="63" t="s">
+      <c r="H33" s="54"/>
+    </row>
+    <row r="34" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="120"/>
-      <c r="C34" s="101" t="s">
+      <c r="B34" s="119"/>
+      <c r="C34" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="105" t="s">
+      <c r="D34" s="45"/>
+      <c r="E34" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="F34" s="46"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="144"/>
-    </row>
-    <row r="35" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="s">
+      <c r="F34" s="45"/>
+      <c r="G34" s="215"/>
+      <c r="H34" s="216"/>
+      <c r="I34" s="134"/>
+    </row>
+    <row r="35" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="B35" s="120" t="s">
+      <c r="B35" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="103" t="s">
+      <c r="C35" s="55"/>
+      <c r="D35" s="102" t="s">
         <v>144</v>
       </c>
       <c r="E35" s="18"/>
-      <c r="F35" s="182"/>
-      <c r="G35" s="183"/>
-      <c r="H35" s="184"/>
-    </row>
-    <row r="36" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="64" t="s">
+      <c r="F35" s="191"/>
+      <c r="G35" s="192"/>
+      <c r="H35" s="193"/>
+      <c r="I35" s="134"/>
+    </row>
+    <row r="36" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="B36" s="121"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="136"/>
-      <c r="F36" s="136"/>
-      <c r="G36" s="136"/>
-      <c r="H36" s="137"/>
-    </row>
-    <row r="37" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="114" t="s">
+      <c r="B36" s="120"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="203"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="203"/>
+      <c r="H36" s="204"/>
+      <c r="I36" s="134"/>
+    </row>
+    <row r="37" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="113" t="s">
         <v>186</v>
       </c>
-      <c r="B37" s="122"/>
-      <c r="C37" s="102" t="s">
+      <c r="B37" s="121"/>
+      <c r="C37" s="101" t="s">
         <v>187</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="106" t="s">
+      <c r="D37" s="56"/>
+      <c r="E37" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="F37" s="57"/>
-      <c r="G37" s="107" t="s">
+      <c r="F37" s="56"/>
+      <c r="G37" s="106" t="s">
         <v>162</v>
       </c>
-      <c r="H37" s="58"/>
-    </row>
-    <row r="38" spans="1:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="150"/>
-      <c r="B38" s="150"/>
-      <c r="C38" s="150"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-    </row>
-    <row r="39" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="61" t="s">
+      <c r="H37" s="57"/>
+      <c r="I37" s="134"/>
+    </row>
+    <row r="38" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="145"/>
+      <c r="B38" s="145"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
+    </row>
+    <row r="39" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="178" t="s">
+      <c r="C39" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="179"/>
-      <c r="E39" s="180"/>
-      <c r="F39" s="178" t="s">
+      <c r="D39" s="188"/>
+      <c r="E39" s="189"/>
+      <c r="F39" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="179"/>
-      <c r="H39" s="180"/>
-    </row>
-    <row r="40" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="63" t="s">
+      <c r="G39" s="188"/>
+      <c r="H39" s="189"/>
+    </row>
+    <row r="40" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="157"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="147" t="s">
+        <v>246</v>
+      </c>
       <c r="D40" s="148"/>
       <c r="E40" s="149"/>
-      <c r="F40" s="157"/>
+      <c r="F40" s="147" t="s">
+        <v>246</v>
+      </c>
       <c r="G40" s="148"/>
       <c r="H40" s="149"/>
     </row>
-    <row r="41" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="63" t="s">
+    <row r="41" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="157"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="147" t="s">
+        <v>247</v>
+      </c>
       <c r="D41" s="148"/>
       <c r="E41" s="149"/>
-      <c r="F41" s="157"/>
+      <c r="F41" s="147" t="s">
+        <v>247</v>
+      </c>
       <c r="G41" s="148"/>
       <c r="H41" s="149"/>
     </row>
-    <row r="42" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="63" t="s">
+    <row r="42" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="157"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="147" t="s">
+        <v>248</v>
+      </c>
       <c r="D42" s="148"/>
       <c r="E42" s="149"/>
-      <c r="F42" s="157"/>
+      <c r="F42" s="147" t="s">
+        <v>248</v>
+      </c>
       <c r="G42" s="148"/>
       <c r="H42" s="149"/>
     </row>
-    <row r="43" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="63" t="s">
+    <row r="43" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="157"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="147" t="s">
+        <v>249</v>
+      </c>
       <c r="D43" s="148"/>
       <c r="E43" s="149"/>
-      <c r="F43" s="157"/>
+      <c r="F43" s="147" t="s">
+        <v>249</v>
+      </c>
       <c r="G43" s="148"/>
       <c r="H43" s="149"/>
     </row>
-    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="115" t="s">
+    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="109" t="s">
+      <c r="B44" s="68"/>
+      <c r="C44" s="108" t="s">
         <v>171</v>
       </c>
-      <c r="D44" s="59"/>
-      <c r="E44" s="98" t="s">
+      <c r="D44" s="58">
+        <v>34.4</v>
+      </c>
+      <c r="E44" s="97" t="s">
         <v>170</v>
       </c>
-      <c r="F44" s="46"/>
-      <c r="G44" s="98" t="s">
+      <c r="F44" s="45">
+        <v>45.4</v>
+      </c>
+      <c r="G44" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="H44" s="42"/>
-    </row>
-    <row r="45" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="64" t="s">
+      <c r="H44" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="70"/>
-      <c r="C45" s="157"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="147" t="s">
+        <v>250</v>
+      </c>
       <c r="D45" s="148"/>
       <c r="E45" s="149"/>
-      <c r="F45" s="157"/>
+      <c r="F45" s="147" t="s">
+        <v>251</v>
+      </c>
       <c r="G45" s="148"/>
       <c r="H45" s="149"/>
     </row>
-    <row r="46" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="63" t="s">
+    <row r="46" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="157"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="147" t="s">
+        <v>252</v>
+      </c>
       <c r="D46" s="148"/>
       <c r="E46" s="149"/>
-      <c r="F46" s="157"/>
+      <c r="F46" s="147" t="s">
+        <v>253</v>
+      </c>
       <c r="G46" s="148"/>
       <c r="H46" s="149"/>
     </row>
-    <row r="47" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="65" t="s">
+    <row r="47" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="71"/>
-      <c r="C47" s="158"/>
-      <c r="D47" s="159"/>
-      <c r="E47" s="160"/>
-      <c r="F47" s="158"/>
-      <c r="G47" s="159"/>
-      <c r="H47" s="160"/>
-    </row>
-    <row r="48" spans="1:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="150"/>
-      <c r="B48" s="150"/>
-      <c r="C48" s="150"/>
-      <c r="D48" s="150"/>
-      <c r="E48" s="150"/>
-      <c r="F48" s="150"/>
-      <c r="G48" s="150"/>
-      <c r="H48" s="150"/>
-    </row>
-    <row r="49" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="61" t="s">
+      <c r="B47" s="70"/>
+      <c r="C47" s="146" t="s">
+        <v>254</v>
+      </c>
+      <c r="D47" s="143"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="146" t="s">
+        <v>255</v>
+      </c>
+      <c r="G47" s="143"/>
+      <c r="H47" s="144"/>
+    </row>
+    <row r="48" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="145"/>
+      <c r="B48" s="145"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+      <c r="G48" s="145"/>
+      <c r="H48" s="145"/>
+    </row>
+    <row r="49" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="161"/>
-      <c r="D49" s="162"/>
-      <c r="E49" s="162"/>
-      <c r="F49" s="162"/>
-      <c r="G49" s="162"/>
-      <c r="H49" s="163"/>
-    </row>
-    <row r="50" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="63" t="s">
+      <c r="C49" s="153"/>
+      <c r="D49" s="154"/>
+      <c r="E49" s="154"/>
+      <c r="F49" s="154"/>
+      <c r="G49" s="154"/>
+      <c r="H49" s="155"/>
+    </row>
+    <row r="50" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="73"/>
-      <c r="C50" s="154"/>
-      <c r="D50" s="155"/>
-      <c r="E50" s="155"/>
-      <c r="F50" s="155"/>
-      <c r="G50" s="155"/>
-      <c r="H50" s="156"/>
-    </row>
-    <row r="51" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="63" t="s">
+      <c r="B50" s="72"/>
+      <c r="C50" s="136" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" s="137"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="138"/>
+    </row>
+    <row r="51" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="73"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="155"/>
-      <c r="E51" s="155"/>
-      <c r="F51" s="155"/>
-      <c r="G51" s="155"/>
-      <c r="H51" s="156"/>
-    </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="63" t="s">
+      <c r="B51" s="72"/>
+      <c r="C51" s="136" t="s">
+        <v>241</v>
+      </c>
+      <c r="D51" s="137"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="137"/>
+      <c r="H51" s="138"/>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="B52" s="73"/>
-      <c r="C52" s="101" t="s">
+      <c r="B52" s="72"/>
+      <c r="C52" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="D52" s="24"/>
-      <c r="E52" s="105" t="s">
+      <c r="D52" s="24">
+        <v>297</v>
+      </c>
+      <c r="E52" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="F52" s="164"/>
-      <c r="G52" s="165"/>
-      <c r="H52" s="166"/>
-    </row>
-    <row r="53" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="63" t="s">
+      <c r="F52" s="222" t="s">
+        <v>242</v>
+      </c>
+      <c r="G52" s="205"/>
+      <c r="H52" s="206"/>
+    </row>
+    <row r="53" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="73"/>
-      <c r="C53" s="154"/>
-      <c r="D53" s="155"/>
-      <c r="E53" s="155"/>
-      <c r="F53" s="155"/>
-      <c r="G53" s="155"/>
-      <c r="H53" s="156"/>
-    </row>
-    <row r="54" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="63" t="s">
+      <c r="B53" s="72"/>
+      <c r="C53" s="136" t="s">
+        <v>243</v>
+      </c>
+      <c r="D53" s="137"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="137"/>
+      <c r="G53" s="137"/>
+      <c r="H53" s="138"/>
+    </row>
+    <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="73"/>
-      <c r="C54" s="154"/>
-      <c r="D54" s="155"/>
-      <c r="E54" s="155"/>
-      <c r="F54" s="155"/>
-      <c r="G54" s="155"/>
-      <c r="H54" s="156"/>
-    </row>
-    <row r="55" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="63" t="s">
+      <c r="B54" s="72"/>
+      <c r="C54" s="136" t="s">
+        <v>244</v>
+      </c>
+      <c r="D54" s="137"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="137"/>
+      <c r="G54" s="137"/>
+      <c r="H54" s="138"/>
+    </row>
+    <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="73"/>
-      <c r="C55" s="154"/>
-      <c r="D55" s="155"/>
-      <c r="E55" s="155"/>
-      <c r="F55" s="155"/>
-      <c r="G55" s="155"/>
-      <c r="H55" s="156"/>
-    </row>
-    <row r="56" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="74" t="s">
+      <c r="B55" s="72"/>
+      <c r="C55" s="136" t="s">
+        <v>245</v>
+      </c>
+      <c r="D55" s="137"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="137"/>
+      <c r="G55" s="137"/>
+      <c r="H55" s="138"/>
+    </row>
+    <row r="56" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="B56" s="75"/>
-      <c r="C56" s="172"/>
-      <c r="D56" s="173"/>
-      <c r="E56" s="173"/>
-      <c r="F56" s="173"/>
-      <c r="G56" s="173"/>
-      <c r="H56" s="174"/>
-    </row>
-    <row r="57" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="212"/>
-      <c r="B57" s="212"/>
-      <c r="C57" s="212"/>
-      <c r="D57" s="212"/>
-      <c r="E57" s="212"/>
-      <c r="F57" s="212"/>
-      <c r="G57" s="212"/>
-      <c r="H57" s="212"/>
-    </row>
-    <row r="58" spans="1:8" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="211"/>
-      <c r="B58" s="211"/>
-      <c r="C58" s="211"/>
-      <c r="D58" s="211"/>
-      <c r="E58" s="211"/>
-      <c r="F58" s="211"/>
-      <c r="G58" s="211"/>
-      <c r="H58" s="211"/>
-    </row>
-    <row r="59" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="61" t="s">
+      <c r="B56" s="74"/>
+      <c r="C56" s="181" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" s="182"/>
+      <c r="E56" s="182"/>
+      <c r="F56" s="182"/>
+      <c r="G56" s="182"/>
+      <c r="H56" s="183"/>
+    </row>
+    <row r="57" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="139"/>
+      <c r="B57" s="139"/>
+      <c r="C57" s="139"/>
+      <c r="D57" s="139"/>
+      <c r="E57" s="139"/>
+      <c r="F57" s="139"/>
+      <c r="G57" s="139"/>
+      <c r="H57" s="139"/>
+    </row>
+    <row r="58" spans="1:9" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="135"/>
+      <c r="B58" s="135"/>
+      <c r="C58" s="135"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="135"/>
+      <c r="F58" s="135"/>
+      <c r="G58" s="135"/>
+      <c r="H58" s="135"/>
+    </row>
+    <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="B59" s="62" t="s">
+      <c r="B59" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="161"/>
-      <c r="D59" s="162"/>
-      <c r="E59" s="162"/>
-      <c r="F59" s="162"/>
-      <c r="G59" s="162"/>
-      <c r="H59" s="163"/>
-    </row>
-    <row r="60" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="63" t="s">
+      <c r="C59" s="153"/>
+      <c r="D59" s="154"/>
+      <c r="E59" s="154"/>
+      <c r="F59" s="154"/>
+      <c r="G59" s="154"/>
+      <c r="H59" s="155"/>
+    </row>
+    <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="B60" s="76"/>
-      <c r="C60" s="154"/>
-      <c r="D60" s="155"/>
-      <c r="E60" s="155"/>
-      <c r="F60" s="155"/>
-      <c r="G60" s="155"/>
-      <c r="H60" s="156"/>
-    </row>
-    <row r="61" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="63" t="s">
+      <c r="B60" s="75"/>
+      <c r="C60" s="147" t="s">
+        <v>260</v>
+      </c>
+      <c r="D60" s="223"/>
+      <c r="E60" s="223"/>
+      <c r="F60" s="223"/>
+      <c r="G60" s="223"/>
+      <c r="H60" s="224"/>
+      <c r="I60" s="221"/>
+    </row>
+    <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="76"/>
-      <c r="C61" s="154"/>
-      <c r="D61" s="155"/>
-      <c r="E61" s="155"/>
-      <c r="F61" s="155"/>
-      <c r="G61" s="155"/>
-      <c r="H61" s="156"/>
-    </row>
-    <row r="62" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="63" t="s">
+      <c r="B61" s="75"/>
+      <c r="C61" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="D61" s="137"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="138"/>
+      <c r="I61" s="221"/>
+    </row>
+    <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="76"/>
-      <c r="C62" s="154"/>
-      <c r="D62" s="155"/>
-      <c r="E62" s="155"/>
-      <c r="F62" s="155"/>
-      <c r="G62" s="155"/>
-      <c r="H62" s="156"/>
-    </row>
-    <row r="63" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="63" t="s">
+      <c r="B62" s="75"/>
+      <c r="C62" s="147" t="s">
+        <v>258</v>
+      </c>
+      <c r="D62" s="223"/>
+      <c r="E62" s="223"/>
+      <c r="F62" s="223"/>
+      <c r="G62" s="223"/>
+      <c r="H62" s="224"/>
+      <c r="I62" s="221"/>
+    </row>
+    <row r="63" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="73"/>
-      <c r="C63" s="154"/>
-      <c r="D63" s="155"/>
-      <c r="E63" s="155"/>
-      <c r="F63" s="155"/>
-      <c r="G63" s="155"/>
-      <c r="H63" s="156"/>
-    </row>
-    <row r="64" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="63" t="s">
+      <c r="B63" s="72"/>
+      <c r="C63" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="D63" s="137"/>
+      <c r="E63" s="137"/>
+      <c r="F63" s="137"/>
+      <c r="G63" s="137"/>
+      <c r="H63" s="138"/>
+    </row>
+    <row r="64" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="76"/>
-      <c r="C64" s="154"/>
-      <c r="D64" s="155"/>
-      <c r="E64" s="155"/>
-      <c r="F64" s="155"/>
-      <c r="G64" s="155"/>
-      <c r="H64" s="156"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="136" t="s">
+        <v>217</v>
+      </c>
+      <c r="D64" s="137"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
+      <c r="G64" s="137"/>
+      <c r="H64" s="138"/>
     </row>
     <row r="65" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="63" t="s">
+      <c r="A65" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="76"/>
-      <c r="C65" s="154"/>
-      <c r="D65" s="155"/>
-      <c r="E65" s="155"/>
-      <c r="F65" s="155"/>
-      <c r="G65" s="155"/>
-      <c r="H65" s="156"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="136" t="s">
+        <v>256</v>
+      </c>
+      <c r="D65" s="137"/>
+      <c r="E65" s="137"/>
+      <c r="F65" s="137"/>
+      <c r="G65" s="137"/>
+      <c r="H65" s="138"/>
     </row>
     <row r="66" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="65" t="s">
+      <c r="A66" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="B66" s="77"/>
-      <c r="C66" s="217"/>
-      <c r="D66" s="218"/>
-      <c r="E66" s="218"/>
-      <c r="F66" s="218"/>
-      <c r="G66" s="218"/>
-      <c r="H66" s="219"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="160" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" s="161"/>
+      <c r="E66" s="161"/>
+      <c r="F66" s="161"/>
+      <c r="G66" s="161"/>
+      <c r="H66" s="162"/>
     </row>
     <row r="67" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="150"/>
-      <c r="B67" s="150"/>
-      <c r="C67" s="150"/>
-      <c r="D67" s="150"/>
-      <c r="E67" s="150"/>
-      <c r="F67" s="150"/>
-      <c r="G67" s="150"/>
-      <c r="H67" s="150"/>
+      <c r="A67" s="145"/>
+      <c r="B67" s="145"/>
+      <c r="C67" s="145"/>
+      <c r="D67" s="145"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="145"/>
+      <c r="G67" s="145"/>
+      <c r="H67" s="145"/>
     </row>
     <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="61" t="s">
+      <c r="A68" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="62" t="s">
+      <c r="B68" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C68" s="161"/>
-      <c r="D68" s="162"/>
-      <c r="E68" s="162"/>
-      <c r="F68" s="162"/>
-      <c r="G68" s="162"/>
-      <c r="H68" s="163"/>
+      <c r="C68" s="153"/>
+      <c r="D68" s="154"/>
+      <c r="E68" s="154"/>
+      <c r="F68" s="154"/>
+      <c r="G68" s="154"/>
+      <c r="H68" s="155"/>
     </row>
     <row r="69" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A69" s="78" t="s">
+      <c r="A69" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="79"/>
-      <c r="C69" s="154" t="s">
+      <c r="B69" s="78"/>
+      <c r="C69" s="136" t="s">
         <v>235</v>
       </c>
-      <c r="D69" s="155"/>
-      <c r="E69" s="155"/>
-      <c r="F69" s="155"/>
-      <c r="G69" s="155"/>
-      <c r="H69" s="156"/>
+      <c r="D69" s="137"/>
+      <c r="E69" s="137"/>
+      <c r="F69" s="137"/>
+      <c r="G69" s="137"/>
+      <c r="H69" s="138"/>
     </row>
     <row r="70" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A70" s="78" t="s">
+      <c r="A70" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="79"/>
-      <c r="C70" s="154" t="s">
+      <c r="B70" s="78"/>
+      <c r="C70" s="136" t="s">
         <v>236</v>
       </c>
-      <c r="D70" s="155"/>
-      <c r="E70" s="155"/>
-      <c r="F70" s="155"/>
-      <c r="G70" s="155"/>
-      <c r="H70" s="156"/>
+      <c r="D70" s="137"/>
+      <c r="E70" s="137"/>
+      <c r="F70" s="137"/>
+      <c r="G70" s="137"/>
+      <c r="H70" s="138"/>
     </row>
     <row r="71" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="78" t="s">
+      <c r="A71" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="126"/>
-      <c r="C71" s="154" t="s">
+      <c r="B71" s="125"/>
+      <c r="C71" s="136" t="s">
         <v>237</v>
       </c>
-      <c r="D71" s="155"/>
-      <c r="E71" s="155"/>
-      <c r="F71" s="155"/>
-      <c r="G71" s="155"/>
-      <c r="H71" s="156"/>
+      <c r="D71" s="137"/>
+      <c r="E71" s="137"/>
+      <c r="F71" s="137"/>
+      <c r="G71" s="137"/>
+      <c r="H71" s="138"/>
     </row>
     <row r="72" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="116" t="s">
+      <c r="A72" s="115" t="s">
         <v>178</v>
       </c>
-      <c r="B72" s="126" t="s">
+      <c r="B72" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="110" t="s">
+      <c r="C72" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="D72" s="46"/>
-      <c r="E72" s="97" t="s">
+      <c r="D72" s="45"/>
+      <c r="E72" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="F72" s="46"/>
-      <c r="G72" s="145"/>
-      <c r="H72" s="146"/>
-      <c r="I72" s="222"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="140"/>
+      <c r="H72" s="141"/>
+      <c r="I72" s="134"/>
     </row>
     <row r="73" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A73" s="78" t="s">
+      <c r="A73" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="126" t="s">
+      <c r="B73" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="109" t="s">
+      <c r="C73" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="D73" s="47"/>
-      <c r="E73" s="98" t="s">
+      <c r="D73" s="46"/>
+      <c r="E73" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="F73" s="47"/>
-      <c r="G73" s="98" t="s">
+      <c r="F73" s="46"/>
+      <c r="G73" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="H73" s="42"/>
-      <c r="I73" s="222"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="134"/>
     </row>
     <row r="74" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="116" t="s">
+      <c r="A74" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="B74" s="126"/>
-      <c r="C74" s="154"/>
-      <c r="D74" s="155"/>
-      <c r="E74" s="155"/>
-      <c r="F74" s="155"/>
-      <c r="G74" s="155"/>
-      <c r="H74" s="156"/>
-      <c r="I74" s="222"/>
+      <c r="B74" s="125"/>
+      <c r="C74" s="136"/>
+      <c r="D74" s="137"/>
+      <c r="E74" s="137"/>
+      <c r="F74" s="137"/>
+      <c r="G74" s="137"/>
+      <c r="H74" s="138"/>
+      <c r="I74" s="134"/>
     </row>
     <row r="75" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="78" t="s">
+      <c r="A75" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="B75" s="126"/>
-      <c r="C75" s="154"/>
-      <c r="D75" s="155"/>
-      <c r="E75" s="155"/>
-      <c r="F75" s="155"/>
-      <c r="G75" s="155"/>
-      <c r="H75" s="156"/>
-      <c r="I75" s="222"/>
+      <c r="B75" s="125"/>
+      <c r="C75" s="136"/>
+      <c r="D75" s="137"/>
+      <c r="E75" s="137"/>
+      <c r="F75" s="137"/>
+      <c r="G75" s="137"/>
+      <c r="H75" s="138"/>
+      <c r="I75" s="134"/>
     </row>
     <row r="76" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A76" s="78" t="s">
+      <c r="A76" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="126" t="s">
+      <c r="B76" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="109" t="s">
+      <c r="C76" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="D76" s="41">
+      <c r="D76" s="40">
         <v>201</v>
       </c>
-      <c r="E76" s="97" t="s">
+      <c r="E76" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="F76" s="41">
+      <c r="F76" s="40">
         <v>100</v>
       </c>
-      <c r="G76" s="97" t="s">
+      <c r="G76" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="H76" s="48">
+      <c r="H76" s="47">
         <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="80" t="s">
+      <c r="A77" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="127" t="s">
+      <c r="B77" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="112" t="s">
+      <c r="C77" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="49" t="s">
+      <c r="D77" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="E77" s="111" t="s">
+      <c r="E77" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="F77" s="213" t="s">
+      <c r="F77" s="142" t="s">
         <v>239</v>
       </c>
-      <c r="G77" s="159"/>
-      <c r="H77" s="160"/>
+      <c r="G77" s="143"/>
+      <c r="H77" s="144"/>
     </row>
     <row r="78" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="195"/>
-      <c r="B78" s="195"/>
-      <c r="C78" s="195"/>
-      <c r="D78" s="195"/>
-      <c r="E78" s="195"/>
-      <c r="F78" s="195"/>
-      <c r="G78" s="195"/>
-      <c r="H78" s="195"/>
+      <c r="A78" s="163"/>
+      <c r="B78" s="163"/>
+      <c r="C78" s="163"/>
+      <c r="D78" s="163"/>
+      <c r="E78" s="163"/>
+      <c r="F78" s="163"/>
+      <c r="G78" s="163"/>
+      <c r="H78" s="163"/>
     </row>
     <row r="79" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A79" s="82" t="s">
+      <c r="A79" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="B79" s="62" t="s">
+      <c r="B79" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="161"/>
-      <c r="D79" s="162"/>
-      <c r="E79" s="162"/>
-      <c r="F79" s="162"/>
-      <c r="G79" s="162"/>
-      <c r="H79" s="163"/>
+      <c r="C79" s="153"/>
+      <c r="D79" s="154"/>
+      <c r="E79" s="154"/>
+      <c r="F79" s="154"/>
+      <c r="G79" s="154"/>
+      <c r="H79" s="155"/>
     </row>
     <row r="80" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="78" t="s">
+      <c r="A80" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B80" s="79"/>
-      <c r="C80" s="157" t="s">
+      <c r="B80" s="78"/>
+      <c r="C80" s="147" t="s">
         <v>233</v>
       </c>
       <c r="D80" s="148"/>
@@ -5832,121 +6051,120 @@
       <c r="H80" s="149"/>
     </row>
     <row r="81" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A81" s="78" t="s">
+      <c r="A81" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="B81" s="126"/>
-      <c r="C81" s="209" t="s">
+      <c r="B81" s="125"/>
+      <c r="C81" s="156" t="s">
         <v>112</v>
       </c>
-      <c r="D81" s="210"/>
-      <c r="E81" s="29">
+      <c r="D81" s="157"/>
+      <c r="E81" s="28">
         <v>1</v>
       </c>
-      <c r="F81" s="193" t="s">
+      <c r="F81" s="158" t="s">
         <v>174</v>
       </c>
-      <c r="G81" s="194"/>
+      <c r="G81" s="159"/>
       <c r="H81" s="22" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="78" t="s">
+      <c r="A82" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="B82" s="126"/>
-      <c r="C82" s="209" t="s">
+      <c r="B82" s="125"/>
+      <c r="C82" s="156" t="s">
         <v>113</v>
       </c>
-      <c r="D82" s="210"/>
-      <c r="E82" s="29">
+      <c r="D82" s="157"/>
+      <c r="E82" s="28">
         <v>501</v>
       </c>
-      <c r="F82" s="193" t="s">
+      <c r="F82" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="G82" s="194"/>
-      <c r="H82" s="33">
+      <c r="G82" s="159"/>
+      <c r="H82" s="32">
         <v>12.5</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A83" s="78" t="s">
+      <c r="A83" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="B83" s="126" t="s">
+      <c r="B83" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="C83" s="209" t="s">
+      <c r="C83" s="156" t="s">
         <v>154</v>
       </c>
-      <c r="D83" s="210"/>
-      <c r="E83" s="40">
+      <c r="D83" s="157"/>
+      <c r="E83" s="39">
         <v>98</v>
       </c>
-      <c r="F83" s="193" t="s">
+      <c r="F83" s="158" t="s">
         <v>155</v>
       </c>
-      <c r="G83" s="194"/>
-      <c r="H83" s="33">
+      <c r="G83" s="159"/>
+      <c r="H83" s="32">
         <v>66.400000000000006</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="78" t="s">
+      <c r="A84" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="B84" s="126"/>
-      <c r="C84" s="109" t="s">
+      <c r="B84" s="125"/>
+      <c r="C84" s="108" t="s">
         <v>165</v>
       </c>
       <c r="D84" s="17">
         <v>23.87</v>
       </c>
-      <c r="E84" s="113" t="s">
+      <c r="E84" s="112" t="s">
         <v>166</v>
       </c>
       <c r="F84" s="13">
         <v>29.8</v>
       </c>
-      <c r="G84" s="207"/>
-      <c r="H84" s="208"/>
-      <c r="I84" s="223"/>
+      <c r="G84" s="175"/>
+      <c r="H84" s="176"/>
     </row>
     <row r="85" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A85" s="78" t="s">
+      <c r="A85" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="B85" s="126" t="s">
+      <c r="B85" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="C85" s="109" t="s">
+      <c r="C85" s="108" t="s">
         <v>118</v>
       </c>
       <c r="D85" s="16">
         <v>10000</v>
       </c>
-      <c r="E85" s="98" t="s">
+      <c r="E85" s="97" t="s">
         <v>119</v>
       </c>
       <c r="F85" s="16">
         <v>7500</v>
       </c>
-      <c r="G85" s="98" t="s">
+      <c r="G85" s="97" t="s">
         <v>120</v>
       </c>
       <c r="H85" s="14">
         <v>5000</v>
       </c>
-      <c r="I85" s="222"/>
+      <c r="I85" s="134"/>
     </row>
     <row r="86" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A86" s="116" t="s">
+      <c r="A86" s="115" t="s">
         <v>210</v>
       </c>
-      <c r="B86" s="126"/>
-      <c r="C86" s="157" t="s">
+      <c r="B86" s="125"/>
+      <c r="C86" s="147" t="s">
         <v>232</v>
       </c>
       <c r="D86" s="148"/>
@@ -5956,11 +6174,11 @@
       <c r="H86" s="149"/>
     </row>
     <row r="87" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A87" s="78" t="s">
+      <c r="A87" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B87" s="126"/>
-      <c r="C87" s="157" t="s">
+      <c r="B87" s="125"/>
+      <c r="C87" s="147" t="s">
         <v>231</v>
       </c>
       <c r="D87" s="148"/>
@@ -5970,11 +6188,11 @@
       <c r="H87" s="149"/>
     </row>
     <row r="88" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A88" s="116" t="s">
+      <c r="A88" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B88" s="126"/>
-      <c r="C88" s="157" t="s">
+      <c r="B88" s="125"/>
+      <c r="C88" s="147" t="s">
         <v>230</v>
       </c>
       <c r="D88" s="148"/>
@@ -5984,11 +6202,11 @@
       <c r="H88" s="149"/>
     </row>
     <row r="89" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A89" s="116" t="s">
+      <c r="A89" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="B89" s="126"/>
-      <c r="C89" s="157" t="s">
+      <c r="B89" s="125"/>
+      <c r="C89" s="147" t="s">
         <v>229</v>
       </c>
       <c r="D89" s="148"/>
@@ -5998,27 +6216,27 @@
       <c r="H89" s="149"/>
     </row>
     <row r="90" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A90" s="78" t="s">
+      <c r="A90" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B90" s="126" t="s">
+      <c r="B90" s="125" t="s">
         <v>81</v>
       </c>
       <c r="C90" s="20">
         <v>2.76</v>
       </c>
-      <c r="D90" s="202"/>
-      <c r="E90" s="203"/>
-      <c r="F90" s="203"/>
-      <c r="G90" s="203"/>
-      <c r="H90" s="204"/>
+      <c r="D90" s="170"/>
+      <c r="E90" s="171"/>
+      <c r="F90" s="171"/>
+      <c r="G90" s="171"/>
+      <c r="H90" s="172"/>
     </row>
     <row r="91" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="78" t="s">
+      <c r="A91" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B91" s="126"/>
-      <c r="C91" s="157" t="s">
+      <c r="B91" s="125"/>
+      <c r="C91" s="147" t="s">
         <v>228</v>
       </c>
       <c r="D91" s="148"/>
@@ -6028,41 +6246,41 @@
       <c r="H91" s="149"/>
     </row>
     <row r="92" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A92" s="78" t="s">
+      <c r="A92" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="B92" s="126"/>
-      <c r="C92" s="109" t="s">
+      <c r="B92" s="125"/>
+      <c r="C92" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="D92" s="47">
+      <c r="D92" s="46">
         <v>1709</v>
       </c>
-      <c r="E92" s="197" t="s">
+      <c r="E92" s="165" t="s">
         <v>121</v>
       </c>
-      <c r="F92" s="198"/>
-      <c r="G92" s="32">
+      <c r="F92" s="166"/>
+      <c r="G92" s="31">
         <v>190</v>
       </c>
       <c r="H92" s="23"/>
     </row>
     <row r="93" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A93" s="78" t="s">
+      <c r="A93" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="B93" s="126"/>
-      <c r="C93" s="221">
+      <c r="B93" s="125"/>
+      <c r="C93" s="133">
         <v>45658</v>
       </c>
-      <c r="D93" s="205" t="s">
+      <c r="D93" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="E93" s="206"/>
-      <c r="F93" s="46">
+      <c r="E93" s="174"/>
+      <c r="F93" s="45">
         <v>2390</v>
       </c>
-      <c r="G93" s="97" t="s">
+      <c r="G93" s="96" t="s">
         <v>153</v>
       </c>
       <c r="H93" s="21">
@@ -6070,31 +6288,31 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A94" s="78" t="s">
+      <c r="A94" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="B94" s="126"/>
-      <c r="C94" s="109" t="s">
+      <c r="B94" s="125"/>
+      <c r="C94" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="D94" s="46">
+      <c r="D94" s="45">
         <v>42</v>
       </c>
-      <c r="E94" s="97" t="s">
+      <c r="E94" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="F94" s="46" t="s">
+      <c r="F94" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="G94" s="145"/>
-      <c r="H94" s="146"/>
+      <c r="G94" s="140"/>
+      <c r="H94" s="141"/>
     </row>
     <row r="95" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A95" s="78" t="s">
+      <c r="A95" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="B95" s="126"/>
-      <c r="C95" s="157" t="s">
+      <c r="B95" s="125"/>
+      <c r="C95" s="147" t="s">
         <v>227</v>
       </c>
       <c r="D95" s="148"/>
@@ -6104,11 +6322,11 @@
       <c r="H95" s="149"/>
     </row>
     <row r="96" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A96" s="78" t="s">
+      <c r="A96" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B96" s="126"/>
-      <c r="C96" s="157" t="s">
+      <c r="B96" s="125"/>
+      <c r="C96" s="147" t="s">
         <v>226</v>
       </c>
       <c r="D96" s="148"/>
@@ -6118,11 +6336,11 @@
       <c r="H96" s="149"/>
     </row>
     <row r="97" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A97" s="78" t="s">
+      <c r="A97" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B97" s="126"/>
-      <c r="C97" s="157" t="s">
+      <c r="B97" s="125"/>
+      <c r="C97" s="147" t="s">
         <v>225</v>
       </c>
       <c r="D97" s="148"/>
@@ -6132,11 +6350,11 @@
       <c r="H97" s="149"/>
     </row>
     <row r="98" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A98" s="116" t="s">
+      <c r="A98" s="115" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="126"/>
-      <c r="C98" s="157" t="s">
+      <c r="B98" s="125"/>
+      <c r="C98" s="147" t="s">
         <v>224</v>
       </c>
       <c r="D98" s="148"/>
@@ -6146,44 +6364,44 @@
       <c r="H98" s="149"/>
     </row>
     <row r="99" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A99" s="117" t="s">
+      <c r="A99" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="B99" s="83"/>
-      <c r="C99" s="199" t="s">
+      <c r="B99" s="82"/>
+      <c r="C99" s="167" t="s">
         <v>157</v>
       </c>
-      <c r="D99" s="200"/>
-      <c r="E99" s="200"/>
-      <c r="F99" s="200"/>
-      <c r="G99" s="200"/>
-      <c r="H99" s="201"/>
-      <c r="I99" s="220"/>
+      <c r="D99" s="168"/>
+      <c r="E99" s="168"/>
+      <c r="F99" s="168"/>
+      <c r="G99" s="168"/>
+      <c r="H99" s="169"/>
+      <c r="I99" s="132"/>
     </row>
     <row r="100" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A100" s="78" t="s">
+      <c r="A100" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B100" s="79"/>
-      <c r="C100" s="157" t="s">
+      <c r="B100" s="78"/>
+      <c r="C100" s="147" t="s">
         <v>223</v>
       </c>
       <c r="D100" s="148"/>
       <c r="E100" s="148"/>
-      <c r="F100" s="196"/>
-      <c r="G100" s="97" t="s">
+      <c r="F100" s="164"/>
+      <c r="G100" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="H100" s="45">
+      <c r="H100" s="44">
         <v>7.2</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A101" s="78" t="s">
+      <c r="A101" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B101" s="79"/>
-      <c r="C101" s="157" t="s">
+      <c r="B101" s="78"/>
+      <c r="C101" s="147" t="s">
         <v>222</v>
       </c>
       <c r="D101" s="148"/>
@@ -6193,49 +6411,49 @@
       <c r="H101" s="149"/>
     </row>
     <row r="102" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="118" t="s">
+      <c r="A102" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="B102" s="81"/>
-      <c r="C102" s="158" t="s">
+      <c r="B102" s="80"/>
+      <c r="C102" s="146" t="s">
         <v>221</v>
       </c>
-      <c r="D102" s="159"/>
-      <c r="E102" s="159"/>
-      <c r="F102" s="159"/>
-      <c r="G102" s="159"/>
-      <c r="H102" s="160"/>
+      <c r="D102" s="143"/>
+      <c r="E102" s="143"/>
+      <c r="F102" s="143"/>
+      <c r="G102" s="143"/>
+      <c r="H102" s="144"/>
     </row>
     <row r="103" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="195"/>
-      <c r="B103" s="195"/>
-      <c r="C103" s="195"/>
-      <c r="D103" s="195"/>
-      <c r="E103" s="195"/>
-      <c r="F103" s="195"/>
-      <c r="G103" s="195"/>
-      <c r="H103" s="195"/>
+      <c r="A103" s="163"/>
+      <c r="B103" s="163"/>
+      <c r="C103" s="163"/>
+      <c r="D103" s="163"/>
+      <c r="E103" s="163"/>
+      <c r="F103" s="163"/>
+      <c r="G103" s="163"/>
+      <c r="H103" s="163"/>
     </row>
     <row r="104" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A104" s="82" t="s">
+      <c r="A104" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="62" t="s">
+      <c r="B104" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="161"/>
-      <c r="D104" s="162"/>
-      <c r="E104" s="162"/>
-      <c r="F104" s="162"/>
-      <c r="G104" s="162"/>
-      <c r="H104" s="163"/>
+      <c r="C104" s="153"/>
+      <c r="D104" s="154"/>
+      <c r="E104" s="154"/>
+      <c r="F104" s="154"/>
+      <c r="G104" s="154"/>
+      <c r="H104" s="155"/>
     </row>
     <row r="105" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A105" s="78" t="s">
+      <c r="A105" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B105" s="79"/>
-      <c r="C105" s="157" t="s">
+      <c r="B105" s="78"/>
+      <c r="C105" s="147" t="s">
         <v>220</v>
       </c>
       <c r="D105" s="148"/>
@@ -6245,11 +6463,11 @@
       <c r="H105" s="149"/>
     </row>
     <row r="106" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A106" s="78" t="s">
+      <c r="A106" s="77" t="s">
         <v>196</v>
       </c>
-      <c r="B106" s="126"/>
-      <c r="C106" s="157" t="s">
+      <c r="B106" s="125"/>
+      <c r="C106" s="147" t="s">
         <v>219</v>
       </c>
       <c r="D106" s="148"/>
@@ -6259,130 +6477,130 @@
       <c r="H106" s="149"/>
     </row>
     <row r="107" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A107" s="78" t="s">
+      <c r="A107" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B107" s="126" t="s">
+      <c r="B107" s="125" t="s">
         <v>101</v>
       </c>
       <c r="C107" s="20">
         <v>1</v>
       </c>
-      <c r="D107" s="214"/>
-      <c r="E107" s="215"/>
-      <c r="F107" s="215"/>
-      <c r="G107" s="215"/>
-      <c r="H107" s="216"/>
+      <c r="D107" s="150"/>
+      <c r="E107" s="151"/>
+      <c r="F107" s="151"/>
+      <c r="G107" s="151"/>
+      <c r="H107" s="152"/>
     </row>
     <row r="108" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A108" s="116" t="s">
+      <c r="A108" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B108" s="126" t="s">
+      <c r="B108" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="C108" s="109" t="s">
+      <c r="C108" s="108" t="s">
         <v>126</v>
       </c>
-      <c r="D108" s="40">
+      <c r="D108" s="39">
         <v>32.6</v>
       </c>
-      <c r="E108" s="97" t="s">
+      <c r="E108" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="F108" s="40">
+      <c r="F108" s="39">
         <v>40.9</v>
       </c>
-      <c r="G108" s="97" t="s">
+      <c r="G108" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="H108" s="33">
+      <c r="H108" s="32">
         <v>50.4</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A109" s="116" t="s">
+      <c r="A109" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B109" s="126" t="s">
+      <c r="B109" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="C109" s="109" t="s">
+      <c r="C109" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="D109" s="40">
+      <c r="D109" s="39">
         <v>61.7</v>
       </c>
-      <c r="E109" s="97" t="s">
+      <c r="E109" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="F109" s="40">
+      <c r="F109" s="39">
         <v>75</v>
       </c>
-      <c r="G109" s="97" t="s">
+      <c r="G109" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="H109" s="33" t="s">
+      <c r="H109" s="32" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A110" s="78" t="s">
+      <c r="A110" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B110" s="79"/>
-      <c r="C110" s="157"/>
+      <c r="B110" s="78"/>
+      <c r="C110" s="147"/>
       <c r="D110" s="148"/>
       <c r="E110" s="148"/>
       <c r="F110" s="148"/>
       <c r="G110" s="148"/>
       <c r="H110" s="149"/>
-      <c r="I110" s="220"/>
+      <c r="I110" s="132"/>
     </row>
     <row r="111" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="80" t="s">
+      <c r="A111" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="B111" s="81"/>
-      <c r="C111" s="158" t="s">
+      <c r="B111" s="80"/>
+      <c r="C111" s="146" t="s">
         <v>218</v>
       </c>
-      <c r="D111" s="159"/>
-      <c r="E111" s="159"/>
-      <c r="F111" s="159"/>
-      <c r="G111" s="159"/>
-      <c r="H111" s="160"/>
+      <c r="D111" s="143"/>
+      <c r="E111" s="143"/>
+      <c r="F111" s="143"/>
+      <c r="G111" s="143"/>
+      <c r="H111" s="144"/>
     </row>
     <row r="112" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="150"/>
-      <c r="B112" s="150"/>
-      <c r="C112" s="150"/>
-      <c r="D112" s="150"/>
-      <c r="E112" s="150"/>
-      <c r="F112" s="150"/>
-      <c r="G112" s="150"/>
-      <c r="H112" s="150"/>
+      <c r="A112" s="145"/>
+      <c r="B112" s="145"/>
+      <c r="C112" s="145"/>
+      <c r="D112" s="145"/>
+      <c r="E112" s="145"/>
+      <c r="F112" s="145"/>
+      <c r="G112" s="145"/>
+      <c r="H112" s="145"/>
     </row>
     <row r="113" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A113" s="84" t="s">
+      <c r="A113" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="B113" s="62" t="s">
+      <c r="B113" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C113" s="161"/>
-      <c r="D113" s="162"/>
-      <c r="E113" s="162"/>
-      <c r="F113" s="162"/>
-      <c r="G113" s="162"/>
-      <c r="H113" s="163"/>
+      <c r="C113" s="153"/>
+      <c r="D113" s="154"/>
+      <c r="E113" s="154"/>
+      <c r="F113" s="154"/>
+      <c r="G113" s="154"/>
+      <c r="H113" s="155"/>
     </row>
     <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="85" t="s">
+      <c r="A114" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="B114" s="86"/>
-      <c r="C114" s="157" t="s">
+      <c r="B114" s="85"/>
+      <c r="C114" s="147" t="s">
         <v>214</v>
       </c>
       <c r="D114" s="148"/>
@@ -6392,120 +6610,223 @@
       <c r="H114" s="149"/>
     </row>
     <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="119" t="s">
+      <c r="A115" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="B115" s="86"/>
-      <c r="C115" s="109" t="s">
+      <c r="B115" s="85"/>
+      <c r="C115" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="D115" s="41" t="s">
+      <c r="D115" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="E115" s="97" t="s">
+      <c r="E115" s="96" t="s">
         <v>133</v>
       </c>
       <c r="F115" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="G115" s="97" t="s">
+      <c r="G115" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="H115" s="42" t="s">
+      <c r="H115" s="41" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="87" t="s">
+      <c r="A116" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="B116" s="86" t="s">
+      <c r="B116" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="C116" s="109" t="s">
+      <c r="C116" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="D116" s="43" t="s">
+      <c r="D116" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="E116" s="97" t="s">
+      <c r="E116" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="F116" s="43"/>
-      <c r="G116" s="97" t="s">
+      <c r="F116" s="42"/>
+      <c r="G116" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="H116" s="44" t="s">
+      <c r="H116" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="I116" s="220"/>
+      <c r="I116" s="132"/>
     </row>
     <row r="117" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="88" t="s">
+      <c r="A117" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B117" s="89"/>
-      <c r="C117" s="158" t="s">
+      <c r="B117" s="88"/>
+      <c r="C117" s="146" t="s">
         <v>217</v>
       </c>
-      <c r="D117" s="159"/>
-      <c r="E117" s="159"/>
-      <c r="F117" s="159"/>
-      <c r="G117" s="159"/>
-      <c r="H117" s="160"/>
+      <c r="D117" s="143"/>
+      <c r="E117" s="143"/>
+      <c r="F117" s="143"/>
+      <c r="G117" s="143"/>
+      <c r="H117" s="144"/>
     </row>
     <row r="118" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="150"/>
-      <c r="B118" s="150"/>
-      <c r="C118" s="150"/>
-      <c r="D118" s="150"/>
-      <c r="E118" s="150"/>
-      <c r="F118" s="150"/>
-      <c r="G118" s="150"/>
-      <c r="H118" s="150"/>
+      <c r="A118" s="145"/>
+      <c r="B118" s="145"/>
+      <c r="C118" s="145"/>
+      <c r="D118" s="145"/>
+      <c r="E118" s="145"/>
+      <c r="F118" s="145"/>
+      <c r="G118" s="145"/>
+      <c r="H118" s="145"/>
     </row>
     <row r="119" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A119" s="82" t="s">
+      <c r="A119" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="B119" s="62" t="s">
+      <c r="B119" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C119" s="161"/>
-      <c r="D119" s="162"/>
-      <c r="E119" s="162"/>
-      <c r="F119" s="162"/>
-      <c r="G119" s="162"/>
-      <c r="H119" s="163"/>
+      <c r="C119" s="153"/>
+      <c r="D119" s="154"/>
+      <c r="E119" s="154"/>
+      <c r="F119" s="154"/>
+      <c r="G119" s="154"/>
+      <c r="H119" s="155"/>
     </row>
     <row r="120" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="90" t="s">
+      <c r="A120" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="B120" s="91"/>
-      <c r="C120" s="157"/>
+      <c r="B120" s="90"/>
+      <c r="C120" s="147"/>
       <c r="D120" s="148"/>
       <c r="E120" s="148"/>
       <c r="F120" s="148"/>
       <c r="G120" s="148"/>
       <c r="H120" s="149"/>
-      <c r="I120" s="220"/>
+      <c r="I120" s="132"/>
     </row>
     <row r="121" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="80" t="s">
+      <c r="A121" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B121" s="92"/>
-      <c r="C121" s="158"/>
-      <c r="D121" s="159"/>
-      <c r="E121" s="159"/>
-      <c r="F121" s="159"/>
-      <c r="G121" s="159"/>
-      <c r="H121" s="160"/>
-      <c r="I121" s="220"/>
+      <c r="B121" s="91"/>
+      <c r="C121" s="146"/>
+      <c r="D121" s="143"/>
+      <c r="E121" s="143"/>
+      <c r="F121" s="143"/>
+      <c r="G121" s="143"/>
+      <c r="H121" s="144"/>
+      <c r="I121" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="127">
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="A112:H112"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="A103:H103"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
     <mergeCell ref="A58:H58"/>
     <mergeCell ref="C65:H65"/>
     <mergeCell ref="A57:H57"/>
@@ -6530,109 +6851,6 @@
     <mergeCell ref="C66:H66"/>
     <mergeCell ref="C59:H59"/>
     <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="A112:H112"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="A103:H103"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C4:H4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6661,112 +6879,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1" style="128" customWidth="1"/>
-    <col min="2" max="2" width="113.5546875" style="128" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="128"/>
+    <col min="1" max="1" width="1" style="127" customWidth="1"/>
+    <col min="2" max="2" width="113.5546875" style="127" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="127"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="128" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="129" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="129" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="129" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="129" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="129" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="129" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="129" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="130" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="129" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="132"/>
+      <c r="B13" s="131"/>
     </row>
     <row r="14" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="130"/>
+      <c r="B14" s="129"/>
     </row>
     <row r="15" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="130"/>
+      <c r="B15" s="129"/>
     </row>
     <row r="16" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="130"/>
+      <c r="B16" s="129"/>
     </row>
     <row r="17" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="130"/>
+      <c r="B17" s="129"/>
     </row>
     <row r="18" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="130"/>
+      <c r="B18" s="129"/>
     </row>
     <row r="19" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="130"/>
+      <c r="B19" s="129"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="130"/>
+      <c r="B20" s="129"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="130"/>
+      <c r="B21" s="129"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="130"/>
+      <c r="B22" s="129"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="130"/>
+      <c r="B23" s="129"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="130"/>
+      <c r="B24" s="129"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="130"/>
+      <c r="B25" s="129"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="130"/>
+      <c r="B26" s="129"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="130"/>
+      <c r="B27" s="129"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="130"/>
+      <c r="B28" s="129"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="130"/>
+      <c r="B29" s="129"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Competition 2025/2025_FSAE_Design_IC_Spec_Sheet_VU.xlsx
+++ b/Competition 2025/2025_FSAE_Design_IC_Spec_Sheet_VU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egroh\Documents\GitHub\vandymotorsports\Competition 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B570DE78-F991-4CD9-B97C-4871B2A5474D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566779A6-5711-4CC9-B86B-C1F4A5E909F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FSAE_Specs_IC" sheetId="1" r:id="rId1"/>
@@ -1852,7 +1852,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="267">
   <si>
     <t>Car No.</t>
   </si>
@@ -2885,6 +2885,9 @@
   </si>
   <si>
     <t>linear</t>
+  </si>
+  <si>
+    <t>1-1</t>
   </si>
 </sst>
 </file>
@@ -4096,86 +4099,278 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4186,200 +4381,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4756,8 +4759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99:H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4771,15 +4774,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
       <c r="H1" s="8">
         <v>2025</v>
       </c>
@@ -4787,60 +4790,60 @@
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="177" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="197">
+      <c r="B3" s="194"/>
+      <c r="C3" s="195">
         <v>130</v>
       </c>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="199"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="197"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="208"/>
-      <c r="C4" s="218" t="s">
+      <c r="B4" s="142"/>
+      <c r="C4" s="159" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="220"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="161"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="145"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
     </row>
     <row r="6" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
@@ -4849,12 +4852,12 @@
       <c r="B6" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="184"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="186"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="184"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
@@ -4875,7 +4878,7 @@
         <v>86</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="134"/>
+      <c r="I7" s="133"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
@@ -4919,11 +4922,11 @@
       <c r="E9" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="211" t="s">
+      <c r="F9" s="147" t="s">
         <v>213</v>
       </c>
-      <c r="G9" s="203"/>
-      <c r="H9" s="204"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="145"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
@@ -4963,18 +4966,18 @@
       <c r="F11" s="27">
         <v>50.4</v>
       </c>
-      <c r="G11" s="200"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="227"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="137"/>
     </row>
     <row r="12" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
@@ -4983,16 +4986,16 @@
       <c r="B13" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="187" t="s">
+      <c r="C13" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="188"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="190" t="s">
+      <c r="D13" s="186"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="188"/>
-      <c r="H13" s="189"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="187"/>
     </row>
     <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
@@ -5002,19 +5005,19 @@
       <c r="C14" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D14" s="225" t="s">
+      <c r="D14" s="135" t="s">
         <v>262</v>
       </c>
-      <c r="E14" s="226" t="s">
+      <c r="E14" s="136" t="s">
         <v>263</v>
       </c>
       <c r="F14" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="G14" s="225" t="s">
+      <c r="G14" s="135" t="s">
         <v>262</v>
       </c>
-      <c r="H14" s="226" t="s">
+      <c r="H14" s="136" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5035,33 +5038,33 @@
       </c>
       <c r="G15" s="31"/>
       <c r="H15" s="32"/>
-      <c r="I15" s="134"/>
+      <c r="I15" s="133"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="62" t="s">
         <v>202</v>
       </c>
       <c r="B16" s="119"/>
-      <c r="C16" s="212"/>
-      <c r="D16" s="213"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="212"/>
-      <c r="G16" s="213"/>
-      <c r="H16" s="214"/>
-      <c r="I16" s="134"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="133"/>
     </row>
     <row r="17" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="119"/>
-      <c r="C17" s="209"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="210"/>
-      <c r="G17" s="203"/>
-      <c r="H17" s="204"/>
-      <c r="I17" s="134"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="133"/>
     </row>
     <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
@@ -5080,7 +5083,7 @@
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="32"/>
-      <c r="I18" s="134"/>
+      <c r="I18" s="133"/>
     </row>
     <row r="19" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
@@ -5090,12 +5093,12 @@
         <v>71</v>
       </c>
       <c r="C19" s="33"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="154"/>
       <c r="F19" s="34"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="134"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="133"/>
     </row>
     <row r="20" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
@@ -5105,12 +5108,12 @@
         <v>192</v>
       </c>
       <c r="C20" s="33"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="141"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="154"/>
       <c r="F20" s="34"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="134"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="133"/>
     </row>
     <row r="21" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
@@ -5120,12 +5123,12 @@
         <v>72</v>
       </c>
       <c r="C21" s="35"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="141"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="154"/>
       <c r="F21" s="36"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="134"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="133"/>
     </row>
     <row r="22" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
@@ -5144,7 +5147,7 @@
         <v>98</v>
       </c>
       <c r="H22" s="14"/>
-      <c r="I22" s="134"/>
+      <c r="I22" s="133"/>
     </row>
     <row r="23" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
@@ -5163,7 +5166,7 @@
         <v>98</v>
       </c>
       <c r="H23" s="14"/>
-      <c r="I23" s="134"/>
+      <c r="I23" s="133"/>
     </row>
     <row r="24" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
@@ -5199,12 +5202,12 @@
         <v>74</v>
       </c>
       <c r="C25" s="50"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="141"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="154"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="134"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="133"/>
     </row>
     <row r="26" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
@@ -5214,12 +5217,12 @@
         <v>75</v>
       </c>
       <c r="C26" s="50"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="141"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="154"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="134"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="133"/>
     </row>
     <row r="27" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="62" t="s">
@@ -5231,13 +5234,13 @@
       <c r="C27" s="37">
         <v>0</v>
       </c>
-      <c r="D27" s="140"/>
-      <c r="E27" s="141"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="154"/>
       <c r="F27" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="G27" s="140"/>
-      <c r="H27" s="141"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="154"/>
     </row>
     <row r="28" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="s">
@@ -5249,26 +5252,26 @@
       <c r="C28" s="37">
         <v>-0.8</v>
       </c>
-      <c r="D28" s="140"/>
-      <c r="E28" s="141"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="154"/>
       <c r="F28" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="G28" s="140"/>
-      <c r="H28" s="141"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="154"/>
     </row>
     <row r="29" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="62" t="s">
         <v>96</v>
       </c>
       <c r="B29" s="119"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="217"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="134"/>
+      <c r="C29" s="192"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="133"/>
     </row>
     <row r="30" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="62" t="s">
@@ -5278,12 +5281,12 @@
         <v>77</v>
       </c>
       <c r="C30" s="49"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="141"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="154"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="134"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="133"/>
     </row>
     <row r="31" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="114" t="s">
@@ -5293,12 +5296,12 @@
         <v>69</v>
       </c>
       <c r="C31" s="50"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="141"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="154"/>
       <c r="F31" s="51"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="134"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="133"/>
     </row>
     <row r="32" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="62" t="s">
@@ -5317,7 +5320,7 @@
       </c>
       <c r="G32" s="31"/>
       <c r="H32" s="32"/>
-      <c r="I32" s="134"/>
+      <c r="I32" s="133"/>
     </row>
     <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="62" t="s">
@@ -5352,9 +5355,9 @@
         <v>142</v>
       </c>
       <c r="F34" s="45"/>
-      <c r="G34" s="215"/>
-      <c r="H34" s="216"/>
-      <c r="I34" s="134"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="133"/>
     </row>
     <row r="35" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="62" t="s">
@@ -5368,23 +5371,23 @@
         <v>144</v>
       </c>
       <c r="E35" s="18"/>
-      <c r="F35" s="191"/>
-      <c r="G35" s="192"/>
-      <c r="H35" s="193"/>
-      <c r="I35" s="134"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="133"/>
     </row>
     <row r="36" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="63" t="s">
         <v>172</v>
       </c>
       <c r="B36" s="120"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="203"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="203"/>
-      <c r="G36" s="203"/>
-      <c r="H36" s="204"/>
-      <c r="I36" s="134"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="133"/>
     </row>
     <row r="37" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="113" t="s">
@@ -5403,17 +5406,17 @@
         <v>162</v>
       </c>
       <c r="H37" s="57"/>
-      <c r="I37" s="134"/>
+      <c r="I37" s="133"/>
     </row>
     <row r="38" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="145"/>
-      <c r="B38" s="145"/>
-      <c r="C38" s="145"/>
-      <c r="D38" s="145"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="145"/>
+      <c r="A38" s="158"/>
+      <c r="B38" s="158"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="158"/>
     </row>
     <row r="39" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="60" t="s">
@@ -5422,80 +5425,80 @@
       <c r="B39" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="187" t="s">
+      <c r="C39" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="188"/>
-      <c r="E39" s="189"/>
-      <c r="F39" s="187" t="s">
+      <c r="D39" s="186"/>
+      <c r="E39" s="187"/>
+      <c r="F39" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="188"/>
-      <c r="H39" s="189"/>
+      <c r="G39" s="186"/>
+      <c r="H39" s="187"/>
     </row>
     <row r="40" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="68"/>
-      <c r="C40" s="147" t="s">
+      <c r="C40" s="138" t="s">
         <v>246</v>
       </c>
-      <c r="D40" s="148"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="147" t="s">
+      <c r="D40" s="156"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="138" t="s">
         <v>246</v>
       </c>
-      <c r="G40" s="148"/>
-      <c r="H40" s="149"/>
+      <c r="G40" s="156"/>
+      <c r="H40" s="157"/>
     </row>
     <row r="41" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="68"/>
-      <c r="C41" s="147" t="s">
+      <c r="C41" s="138" t="s">
         <v>247</v>
       </c>
-      <c r="D41" s="148"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="147" t="s">
+      <c r="D41" s="156"/>
+      <c r="E41" s="157"/>
+      <c r="F41" s="138" t="s">
         <v>247</v>
       </c>
-      <c r="G41" s="148"/>
-      <c r="H41" s="149"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="157"/>
     </row>
     <row r="42" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="62" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="68"/>
-      <c r="C42" s="147" t="s">
+      <c r="C42" s="138" t="s">
         <v>248</v>
       </c>
-      <c r="D42" s="148"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="147" t="s">
+      <c r="D42" s="156"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="138" t="s">
         <v>248</v>
       </c>
-      <c r="G42" s="148"/>
-      <c r="H42" s="149"/>
+      <c r="G42" s="156"/>
+      <c r="H42" s="157"/>
     </row>
     <row r="43" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="62" t="s">
         <v>181</v>
       </c>
       <c r="B43" s="68"/>
-      <c r="C43" s="147" t="s">
+      <c r="C43" s="138" t="s">
         <v>249</v>
       </c>
-      <c r="D43" s="148"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="147" t="s">
+      <c r="D43" s="156"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="138" t="s">
         <v>249</v>
       </c>
-      <c r="G43" s="148"/>
-      <c r="H43" s="149"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="157"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="114" t="s">
@@ -5526,58 +5529,58 @@
         <v>37</v>
       </c>
       <c r="B45" s="69"/>
-      <c r="C45" s="147" t="s">
+      <c r="C45" s="138" t="s">
         <v>250</v>
       </c>
-      <c r="D45" s="148"/>
-      <c r="E45" s="149"/>
-      <c r="F45" s="147" t="s">
+      <c r="D45" s="156"/>
+      <c r="E45" s="157"/>
+      <c r="F45" s="138" t="s">
         <v>251</v>
       </c>
-      <c r="G45" s="148"/>
-      <c r="H45" s="149"/>
+      <c r="G45" s="156"/>
+      <c r="H45" s="157"/>
     </row>
     <row r="46" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="62" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="68"/>
-      <c r="C46" s="147" t="s">
+      <c r="C46" s="138" t="s">
         <v>252</v>
       </c>
-      <c r="D46" s="148"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="147" t="s">
+      <c r="D46" s="156"/>
+      <c r="E46" s="157"/>
+      <c r="F46" s="138" t="s">
         <v>253</v>
       </c>
-      <c r="G46" s="148"/>
-      <c r="H46" s="149"/>
+      <c r="G46" s="156"/>
+      <c r="H46" s="157"/>
     </row>
     <row r="47" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="64" t="s">
         <v>24</v>
       </c>
       <c r="B47" s="70"/>
-      <c r="C47" s="146" t="s">
+      <c r="C47" s="165" t="s">
         <v>254</v>
       </c>
-      <c r="D47" s="143"/>
-      <c r="E47" s="144"/>
-      <c r="F47" s="146" t="s">
+      <c r="D47" s="166"/>
+      <c r="E47" s="167"/>
+      <c r="F47" s="165" t="s">
         <v>255</v>
       </c>
-      <c r="G47" s="143"/>
-      <c r="H47" s="144"/>
+      <c r="G47" s="166"/>
+      <c r="H47" s="167"/>
     </row>
     <row r="48" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="145"/>
-      <c r="B48" s="145"/>
-      <c r="C48" s="145"/>
-      <c r="D48" s="145"/>
-      <c r="E48" s="145"/>
-      <c r="F48" s="145"/>
-      <c r="G48" s="145"/>
-      <c r="H48" s="145"/>
+      <c r="A48" s="158"/>
+      <c r="B48" s="158"/>
+      <c r="C48" s="158"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="158"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="158"/>
+      <c r="H48" s="158"/>
     </row>
     <row r="49" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="60" t="s">
@@ -5586,40 +5589,40 @@
       <c r="B49" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="153"/>
-      <c r="D49" s="154"/>
-      <c r="E49" s="154"/>
-      <c r="F49" s="154"/>
-      <c r="G49" s="154"/>
-      <c r="H49" s="155"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="169"/>
+      <c r="E49" s="169"/>
+      <c r="F49" s="169"/>
+      <c r="G49" s="169"/>
+      <c r="H49" s="170"/>
     </row>
     <row r="50" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="62" t="s">
         <v>9</v>
       </c>
       <c r="B50" s="72"/>
-      <c r="C50" s="136" t="s">
+      <c r="C50" s="162" t="s">
         <v>240</v>
       </c>
-      <c r="D50" s="137"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="138"/>
+      <c r="D50" s="163"/>
+      <c r="E50" s="163"/>
+      <c r="F50" s="163"/>
+      <c r="G50" s="163"/>
+      <c r="H50" s="164"/>
     </row>
     <row r="51" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="62" t="s">
         <v>57</v>
       </c>
       <c r="B51" s="72"/>
-      <c r="C51" s="136" t="s">
+      <c r="C51" s="162" t="s">
         <v>241</v>
       </c>
-      <c r="D51" s="137"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="138"/>
+      <c r="D51" s="163"/>
+      <c r="E51" s="163"/>
+      <c r="F51" s="163"/>
+      <c r="G51" s="163"/>
+      <c r="H51" s="164"/>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="62" t="s">
@@ -5635,87 +5638,87 @@
       <c r="E52" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="F52" s="222" t="s">
+      <c r="F52" s="171" t="s">
         <v>242</v>
       </c>
-      <c r="G52" s="205"/>
-      <c r="H52" s="206"/>
+      <c r="G52" s="172"/>
+      <c r="H52" s="173"/>
     </row>
     <row r="53" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="62" t="s">
         <v>32</v>
       </c>
       <c r="B53" s="72"/>
-      <c r="C53" s="136" t="s">
+      <c r="C53" s="162" t="s">
         <v>243</v>
       </c>
-      <c r="D53" s="137"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="137"/>
-      <c r="G53" s="137"/>
-      <c r="H53" s="138"/>
+      <c r="D53" s="163"/>
+      <c r="E53" s="163"/>
+      <c r="F53" s="163"/>
+      <c r="G53" s="163"/>
+      <c r="H53" s="164"/>
     </row>
     <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="62" t="s">
         <v>33</v>
       </c>
       <c r="B54" s="72"/>
-      <c r="C54" s="136" t="s">
+      <c r="C54" s="162" t="s">
         <v>244</v>
       </c>
-      <c r="D54" s="137"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="137"/>
-      <c r="G54" s="137"/>
-      <c r="H54" s="138"/>
+      <c r="D54" s="163"/>
+      <c r="E54" s="163"/>
+      <c r="F54" s="163"/>
+      <c r="G54" s="163"/>
+      <c r="H54" s="164"/>
     </row>
     <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="62" t="s">
         <v>34</v>
       </c>
       <c r="B55" s="72"/>
-      <c r="C55" s="136" t="s">
+      <c r="C55" s="162" t="s">
         <v>245</v>
       </c>
-      <c r="D55" s="137"/>
-      <c r="E55" s="137"/>
-      <c r="F55" s="137"/>
-      <c r="G55" s="137"/>
-      <c r="H55" s="138"/>
+      <c r="D55" s="163"/>
+      <c r="E55" s="163"/>
+      <c r="F55" s="163"/>
+      <c r="G55" s="163"/>
+      <c r="H55" s="164"/>
     </row>
     <row r="56" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="73" t="s">
         <v>180</v>
       </c>
       <c r="B56" s="74"/>
-      <c r="C56" s="181" t="s">
+      <c r="C56" s="179" t="s">
         <v>217</v>
       </c>
-      <c r="D56" s="182"/>
-      <c r="E56" s="182"/>
-      <c r="F56" s="182"/>
-      <c r="G56" s="182"/>
-      <c r="H56" s="183"/>
+      <c r="D56" s="180"/>
+      <c r="E56" s="180"/>
+      <c r="F56" s="180"/>
+      <c r="G56" s="180"/>
+      <c r="H56" s="181"/>
     </row>
     <row r="57" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="139"/>
-      <c r="B57" s="139"/>
-      <c r="C57" s="139"/>
-      <c r="D57" s="139"/>
-      <c r="E57" s="139"/>
-      <c r="F57" s="139"/>
-      <c r="G57" s="139"/>
-      <c r="H57" s="139"/>
+      <c r="A57" s="219"/>
+      <c r="B57" s="219"/>
+      <c r="C57" s="219"/>
+      <c r="D57" s="219"/>
+      <c r="E57" s="219"/>
+      <c r="F57" s="219"/>
+      <c r="G57" s="219"/>
+      <c r="H57" s="219"/>
     </row>
     <row r="58" spans="1:9" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="135"/>
-      <c r="B58" s="135"/>
-      <c r="C58" s="135"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="135"/>
-      <c r="F58" s="135"/>
-      <c r="G58" s="135"/>
-      <c r="H58" s="135"/>
+      <c r="A58" s="218"/>
+      <c r="B58" s="218"/>
+      <c r="C58" s="218"/>
+      <c r="D58" s="218"/>
+      <c r="E58" s="218"/>
+      <c r="F58" s="218"/>
+      <c r="G58" s="218"/>
+      <c r="H58" s="218"/>
     </row>
     <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="60" t="s">
@@ -5724,123 +5727,123 @@
       <c r="B59" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="153"/>
-      <c r="D59" s="154"/>
-      <c r="E59" s="154"/>
-      <c r="F59" s="154"/>
-      <c r="G59" s="154"/>
-      <c r="H59" s="155"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="169"/>
+      <c r="E59" s="169"/>
+      <c r="F59" s="169"/>
+      <c r="G59" s="169"/>
+      <c r="H59" s="170"/>
     </row>
     <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="62" t="s">
         <v>177</v>
       </c>
       <c r="B60" s="75"/>
-      <c r="C60" s="147" t="s">
+      <c r="C60" s="138" t="s">
         <v>260</v>
       </c>
-      <c r="D60" s="223"/>
-      <c r="E60" s="223"/>
-      <c r="F60" s="223"/>
-      <c r="G60" s="223"/>
-      <c r="H60" s="224"/>
-      <c r="I60" s="221"/>
+      <c r="D60" s="139"/>
+      <c r="E60" s="139"/>
+      <c r="F60" s="139"/>
+      <c r="G60" s="139"/>
+      <c r="H60" s="140"/>
+      <c r="I60" s="134"/>
     </row>
     <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="62" t="s">
         <v>58</v>
       </c>
       <c r="B61" s="75"/>
-      <c r="C61" s="136" t="s">
+      <c r="C61" s="162" t="s">
         <v>259</v>
       </c>
-      <c r="D61" s="137"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
-      <c r="G61" s="137"/>
-      <c r="H61" s="138"/>
-      <c r="I61" s="221"/>
+      <c r="D61" s="163"/>
+      <c r="E61" s="163"/>
+      <c r="F61" s="163"/>
+      <c r="G61" s="163"/>
+      <c r="H61" s="164"/>
+      <c r="I61" s="134"/>
     </row>
     <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="62" t="s">
         <v>53</v>
       </c>
       <c r="B62" s="75"/>
-      <c r="C62" s="147" t="s">
+      <c r="C62" s="138" t="s">
         <v>258</v>
       </c>
-      <c r="D62" s="223"/>
-      <c r="E62" s="223"/>
-      <c r="F62" s="223"/>
-      <c r="G62" s="223"/>
-      <c r="H62" s="224"/>
-      <c r="I62" s="221"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="139"/>
+      <c r="H62" s="140"/>
+      <c r="I62" s="134"/>
     </row>
     <row r="63" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="62" t="s">
         <v>54</v>
       </c>
       <c r="B63" s="72"/>
-      <c r="C63" s="136" t="s">
+      <c r="C63" s="162" t="s">
         <v>257</v>
       </c>
-      <c r="D63" s="137"/>
-      <c r="E63" s="137"/>
-      <c r="F63" s="137"/>
-      <c r="G63" s="137"/>
-      <c r="H63" s="138"/>
+      <c r="D63" s="163"/>
+      <c r="E63" s="163"/>
+      <c r="F63" s="163"/>
+      <c r="G63" s="163"/>
+      <c r="H63" s="164"/>
     </row>
     <row r="64" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="62" t="s">
         <v>51</v>
       </c>
       <c r="B64" s="75"/>
-      <c r="C64" s="136" t="s">
+      <c r="C64" s="162" t="s">
         <v>217</v>
       </c>
-      <c r="D64" s="137"/>
-      <c r="E64" s="137"/>
-      <c r="F64" s="137"/>
-      <c r="G64" s="137"/>
-      <c r="H64" s="138"/>
+      <c r="D64" s="163"/>
+      <c r="E64" s="163"/>
+      <c r="F64" s="163"/>
+      <c r="G64" s="163"/>
+      <c r="H64" s="164"/>
     </row>
     <row r="65" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="62" t="s">
         <v>55</v>
       </c>
       <c r="B65" s="75"/>
-      <c r="C65" s="136" t="s">
+      <c r="C65" s="162" t="s">
         <v>256</v>
       </c>
-      <c r="D65" s="137"/>
-      <c r="E65" s="137"/>
-      <c r="F65" s="137"/>
-      <c r="G65" s="137"/>
-      <c r="H65" s="138"/>
+      <c r="D65" s="163"/>
+      <c r="E65" s="163"/>
+      <c r="F65" s="163"/>
+      <c r="G65" s="163"/>
+      <c r="H65" s="164"/>
     </row>
     <row r="66" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="64" t="s">
         <v>52</v>
       </c>
       <c r="B66" s="76"/>
-      <c r="C66" s="160" t="s">
+      <c r="C66" s="224" t="s">
         <v>217</v>
       </c>
-      <c r="D66" s="161"/>
-      <c r="E66" s="161"/>
-      <c r="F66" s="161"/>
-      <c r="G66" s="161"/>
-      <c r="H66" s="162"/>
+      <c r="D66" s="225"/>
+      <c r="E66" s="225"/>
+      <c r="F66" s="225"/>
+      <c r="G66" s="225"/>
+      <c r="H66" s="226"/>
     </row>
     <row r="67" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="145"/>
-      <c r="B67" s="145"/>
-      <c r="C67" s="145"/>
-      <c r="D67" s="145"/>
-      <c r="E67" s="145"/>
-      <c r="F67" s="145"/>
-      <c r="G67" s="145"/>
-      <c r="H67" s="145"/>
+      <c r="A67" s="158"/>
+      <c r="B67" s="158"/>
+      <c r="C67" s="158"/>
+      <c r="D67" s="158"/>
+      <c r="E67" s="158"/>
+      <c r="F67" s="158"/>
+      <c r="G67" s="158"/>
+      <c r="H67" s="158"/>
     </row>
     <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="60" t="s">
@@ -5849,54 +5852,54 @@
       <c r="B68" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C68" s="153"/>
-      <c r="D68" s="154"/>
-      <c r="E68" s="154"/>
-      <c r="F68" s="154"/>
-      <c r="G68" s="154"/>
-      <c r="H68" s="155"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="169"/>
+      <c r="E68" s="169"/>
+      <c r="F68" s="169"/>
+      <c r="G68" s="169"/>
+      <c r="H68" s="170"/>
     </row>
     <row r="69" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="77" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="78"/>
-      <c r="C69" s="136" t="s">
+      <c r="C69" s="162" t="s">
         <v>235</v>
       </c>
-      <c r="D69" s="137"/>
-      <c r="E69" s="137"/>
-      <c r="F69" s="137"/>
-      <c r="G69" s="137"/>
-      <c r="H69" s="138"/>
+      <c r="D69" s="163"/>
+      <c r="E69" s="163"/>
+      <c r="F69" s="163"/>
+      <c r="G69" s="163"/>
+      <c r="H69" s="164"/>
     </row>
     <row r="70" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A70" s="77" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="78"/>
-      <c r="C70" s="136" t="s">
+      <c r="C70" s="162" t="s">
         <v>236</v>
       </c>
-      <c r="D70" s="137"/>
-      <c r="E70" s="137"/>
-      <c r="F70" s="137"/>
-      <c r="G70" s="137"/>
-      <c r="H70" s="138"/>
+      <c r="D70" s="163"/>
+      <c r="E70" s="163"/>
+      <c r="F70" s="163"/>
+      <c r="G70" s="163"/>
+      <c r="H70" s="164"/>
     </row>
     <row r="71" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="77" t="s">
         <v>7</v>
       </c>
       <c r="B71" s="125"/>
-      <c r="C71" s="136" t="s">
+      <c r="C71" s="162" t="s">
         <v>237</v>
       </c>
-      <c r="D71" s="137"/>
-      <c r="E71" s="137"/>
-      <c r="F71" s="137"/>
-      <c r="G71" s="137"/>
-      <c r="H71" s="138"/>
+      <c r="D71" s="163"/>
+      <c r="E71" s="163"/>
+      <c r="F71" s="163"/>
+      <c r="G71" s="163"/>
+      <c r="H71" s="164"/>
     </row>
     <row r="72" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" s="115" t="s">
@@ -5913,9 +5916,9 @@
         <v>109</v>
       </c>
       <c r="F72" s="45"/>
-      <c r="G72" s="140"/>
-      <c r="H72" s="141"/>
-      <c r="I72" s="134"/>
+      <c r="G72" s="153"/>
+      <c r="H72" s="154"/>
+      <c r="I72" s="133"/>
     </row>
     <row r="73" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A73" s="77" t="s">
@@ -5936,33 +5939,33 @@
         <v>109</v>
       </c>
       <c r="H73" s="41"/>
-      <c r="I73" s="134"/>
+      <c r="I73" s="133"/>
     </row>
     <row r="74" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="115" t="s">
         <v>105</v>
       </c>
       <c r="B74" s="125"/>
-      <c r="C74" s="136"/>
-      <c r="D74" s="137"/>
-      <c r="E74" s="137"/>
-      <c r="F74" s="137"/>
-      <c r="G74" s="137"/>
-      <c r="H74" s="138"/>
-      <c r="I74" s="134"/>
+      <c r="C74" s="162"/>
+      <c r="D74" s="163"/>
+      <c r="E74" s="163"/>
+      <c r="F74" s="163"/>
+      <c r="G74" s="163"/>
+      <c r="H74" s="164"/>
+      <c r="I74" s="133"/>
     </row>
     <row r="75" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A75" s="77" t="s">
         <v>169</v>
       </c>
       <c r="B75" s="125"/>
-      <c r="C75" s="136"/>
-      <c r="D75" s="137"/>
-      <c r="E75" s="137"/>
-      <c r="F75" s="137"/>
-      <c r="G75" s="137"/>
-      <c r="H75" s="138"/>
-      <c r="I75" s="134"/>
+      <c r="C75" s="162"/>
+      <c r="D75" s="163"/>
+      <c r="E75" s="163"/>
+      <c r="F75" s="163"/>
+      <c r="G75" s="163"/>
+      <c r="H75" s="164"/>
+      <c r="I75" s="133"/>
     </row>
     <row r="76" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A76" s="77" t="s">
@@ -6006,21 +6009,21 @@
       <c r="E77" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="F77" s="142" t="s">
+      <c r="F77" s="220" t="s">
         <v>239</v>
       </c>
-      <c r="G77" s="143"/>
-      <c r="H77" s="144"/>
+      <c r="G77" s="166"/>
+      <c r="H77" s="167"/>
     </row>
     <row r="78" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="163"/>
-      <c r="B78" s="163"/>
-      <c r="C78" s="163"/>
-      <c r="D78" s="163"/>
-      <c r="E78" s="163"/>
-      <c r="F78" s="163"/>
-      <c r="G78" s="163"/>
-      <c r="H78" s="163"/>
+      <c r="A78" s="202"/>
+      <c r="B78" s="202"/>
+      <c r="C78" s="202"/>
+      <c r="D78" s="202"/>
+      <c r="E78" s="202"/>
+      <c r="F78" s="202"/>
+      <c r="G78" s="202"/>
+      <c r="H78" s="202"/>
     </row>
     <row r="79" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A79" s="81" t="s">
@@ -6029,43 +6032,43 @@
       <c r="B79" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="153"/>
-      <c r="D79" s="154"/>
-      <c r="E79" s="154"/>
-      <c r="F79" s="154"/>
-      <c r="G79" s="154"/>
-      <c r="H79" s="155"/>
+      <c r="C79" s="168"/>
+      <c r="D79" s="169"/>
+      <c r="E79" s="169"/>
+      <c r="F79" s="169"/>
+      <c r="G79" s="169"/>
+      <c r="H79" s="170"/>
     </row>
     <row r="80" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A80" s="77" t="s">
         <v>63</v>
       </c>
       <c r="B80" s="78"/>
-      <c r="C80" s="147" t="s">
+      <c r="C80" s="138" t="s">
         <v>233</v>
       </c>
-      <c r="D80" s="148"/>
-      <c r="E80" s="148"/>
-      <c r="F80" s="148"/>
-      <c r="G80" s="148"/>
-      <c r="H80" s="149"/>
+      <c r="D80" s="156"/>
+      <c r="E80" s="156"/>
+      <c r="F80" s="156"/>
+      <c r="G80" s="156"/>
+      <c r="H80" s="157"/>
     </row>
     <row r="81" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A81" s="77" t="s">
         <v>117</v>
       </c>
       <c r="B81" s="125"/>
-      <c r="C81" s="156" t="s">
+      <c r="C81" s="216" t="s">
         <v>112</v>
       </c>
-      <c r="D81" s="157"/>
+      <c r="D81" s="217"/>
       <c r="E81" s="28">
         <v>1</v>
       </c>
-      <c r="F81" s="158" t="s">
+      <c r="F81" s="200" t="s">
         <v>174</v>
       </c>
-      <c r="G81" s="159"/>
+      <c r="G81" s="201"/>
       <c r="H81" s="22" t="s">
         <v>234</v>
       </c>
@@ -6075,17 +6078,17 @@
         <v>116</v>
       </c>
       <c r="B82" s="125"/>
-      <c r="C82" s="156" t="s">
+      <c r="C82" s="216" t="s">
         <v>113</v>
       </c>
-      <c r="D82" s="157"/>
+      <c r="D82" s="217"/>
       <c r="E82" s="28">
         <v>501</v>
       </c>
-      <c r="F82" s="158" t="s">
+      <c r="F82" s="200" t="s">
         <v>114</v>
       </c>
-      <c r="G82" s="159"/>
+      <c r="G82" s="201"/>
       <c r="H82" s="32">
         <v>12.5</v>
       </c>
@@ -6097,17 +6100,17 @@
       <c r="B83" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="C83" s="156" t="s">
+      <c r="C83" s="216" t="s">
         <v>154</v>
       </c>
-      <c r="D83" s="157"/>
+      <c r="D83" s="217"/>
       <c r="E83" s="39">
         <v>98</v>
       </c>
-      <c r="F83" s="158" t="s">
+      <c r="F83" s="200" t="s">
         <v>155</v>
       </c>
-      <c r="G83" s="159"/>
+      <c r="G83" s="201"/>
       <c r="H83" s="32">
         <v>66.400000000000006</v>
       </c>
@@ -6129,8 +6132,8 @@
       <c r="F84" s="13">
         <v>29.8</v>
       </c>
-      <c r="G84" s="175"/>
-      <c r="H84" s="176"/>
+      <c r="G84" s="214"/>
+      <c r="H84" s="215"/>
     </row>
     <row r="85" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A85" s="77" t="s">
@@ -6157,63 +6160,63 @@
       <c r="H85" s="14">
         <v>5000</v>
       </c>
-      <c r="I85" s="134"/>
+      <c r="I85" s="133"/>
     </row>
     <row r="86" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A86" s="115" t="s">
         <v>210</v>
       </c>
       <c r="B86" s="125"/>
-      <c r="C86" s="147" t="s">
+      <c r="C86" s="138" t="s">
         <v>232</v>
       </c>
-      <c r="D86" s="148"/>
-      <c r="E86" s="148"/>
-      <c r="F86" s="148"/>
-      <c r="G86" s="148"/>
-      <c r="H86" s="149"/>
+      <c r="D86" s="156"/>
+      <c r="E86" s="156"/>
+      <c r="F86" s="156"/>
+      <c r="G86" s="156"/>
+      <c r="H86" s="157"/>
     </row>
     <row r="87" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A87" s="77" t="s">
         <v>47</v>
       </c>
       <c r="B87" s="125"/>
-      <c r="C87" s="147" t="s">
+      <c r="C87" s="138" t="s">
         <v>231</v>
       </c>
-      <c r="D87" s="148"/>
-      <c r="E87" s="148"/>
-      <c r="F87" s="148"/>
-      <c r="G87" s="148"/>
-      <c r="H87" s="149"/>
+      <c r="D87" s="156"/>
+      <c r="E87" s="156"/>
+      <c r="F87" s="156"/>
+      <c r="G87" s="156"/>
+      <c r="H87" s="157"/>
     </row>
     <row r="88" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A88" s="115" t="s">
         <v>56</v>
       </c>
       <c r="B88" s="125"/>
-      <c r="C88" s="147" t="s">
+      <c r="C88" s="138" t="s">
         <v>230</v>
       </c>
-      <c r="D88" s="148"/>
-      <c r="E88" s="148"/>
-      <c r="F88" s="148"/>
-      <c r="G88" s="148"/>
-      <c r="H88" s="149"/>
+      <c r="D88" s="156"/>
+      <c r="E88" s="156"/>
+      <c r="F88" s="156"/>
+      <c r="G88" s="156"/>
+      <c r="H88" s="157"/>
     </row>
     <row r="89" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A89" s="115" t="s">
         <v>124</v>
       </c>
       <c r="B89" s="125"/>
-      <c r="C89" s="147" t="s">
+      <c r="C89" s="138" t="s">
         <v>229</v>
       </c>
-      <c r="D89" s="148"/>
-      <c r="E89" s="148"/>
-      <c r="F89" s="148"/>
-      <c r="G89" s="148"/>
-      <c r="H89" s="149"/>
+      <c r="D89" s="156"/>
+      <c r="E89" s="156"/>
+      <c r="F89" s="156"/>
+      <c r="G89" s="156"/>
+      <c r="H89" s="157"/>
     </row>
     <row r="90" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A90" s="77" t="s">
@@ -6225,25 +6228,25 @@
       <c r="C90" s="20">
         <v>2.76</v>
       </c>
-      <c r="D90" s="170"/>
-      <c r="E90" s="171"/>
-      <c r="F90" s="171"/>
-      <c r="G90" s="171"/>
-      <c r="H90" s="172"/>
+      <c r="D90" s="209"/>
+      <c r="E90" s="210"/>
+      <c r="F90" s="210"/>
+      <c r="G90" s="210"/>
+      <c r="H90" s="211"/>
     </row>
     <row r="91" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A91" s="77" t="s">
         <v>18</v>
       </c>
       <c r="B91" s="125"/>
-      <c r="C91" s="147" t="s">
+      <c r="C91" s="138" t="s">
         <v>228</v>
       </c>
-      <c r="D91" s="148"/>
-      <c r="E91" s="148"/>
-      <c r="F91" s="148"/>
-      <c r="G91" s="148"/>
-      <c r="H91" s="149"/>
+      <c r="D91" s="156"/>
+      <c r="E91" s="156"/>
+      <c r="F91" s="156"/>
+      <c r="G91" s="156"/>
+      <c r="H91" s="157"/>
     </row>
     <row r="92" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A92" s="77" t="s">
@@ -6256,10 +6259,10 @@
       <c r="D92" s="46">
         <v>1709</v>
       </c>
-      <c r="E92" s="165" t="s">
+      <c r="E92" s="204" t="s">
         <v>121</v>
       </c>
-      <c r="F92" s="166"/>
+      <c r="F92" s="205"/>
       <c r="G92" s="31">
         <v>190</v>
       </c>
@@ -6270,13 +6273,13 @@
         <v>150</v>
       </c>
       <c r="B93" s="125"/>
-      <c r="C93" s="133">
-        <v>45658</v>
-      </c>
-      <c r="D93" s="173" t="s">
+      <c r="C93" s="227" t="s">
+        <v>266</v>
+      </c>
+      <c r="D93" s="212" t="s">
         <v>152</v>
       </c>
-      <c r="E93" s="174"/>
+      <c r="E93" s="213"/>
       <c r="F93" s="45">
         <v>2390</v>
       </c>
@@ -6304,78 +6307,78 @@
       <c r="F94" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="G94" s="140"/>
-      <c r="H94" s="141"/>
+      <c r="G94" s="153"/>
+      <c r="H94" s="154"/>
     </row>
     <row r="95" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A95" s="77" t="s">
         <v>46</v>
       </c>
       <c r="B95" s="125"/>
-      <c r="C95" s="147" t="s">
+      <c r="C95" s="138" t="s">
         <v>227</v>
       </c>
-      <c r="D95" s="148"/>
-      <c r="E95" s="148"/>
-      <c r="F95" s="148"/>
-      <c r="G95" s="148"/>
-      <c r="H95" s="149"/>
+      <c r="D95" s="156"/>
+      <c r="E95" s="156"/>
+      <c r="F95" s="156"/>
+      <c r="G95" s="156"/>
+      <c r="H95" s="157"/>
     </row>
     <row r="96" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A96" s="77" t="s">
         <v>16</v>
       </c>
       <c r="B96" s="125"/>
-      <c r="C96" s="147" t="s">
+      <c r="C96" s="138" t="s">
         <v>226</v>
       </c>
-      <c r="D96" s="148"/>
-      <c r="E96" s="148"/>
-      <c r="F96" s="148"/>
-      <c r="G96" s="148"/>
-      <c r="H96" s="149"/>
+      <c r="D96" s="156"/>
+      <c r="E96" s="156"/>
+      <c r="F96" s="156"/>
+      <c r="G96" s="156"/>
+      <c r="H96" s="157"/>
     </row>
     <row r="97" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A97" s="77" t="s">
         <v>40</v>
       </c>
       <c r="B97" s="125"/>
-      <c r="C97" s="147" t="s">
+      <c r="C97" s="138" t="s">
         <v>225</v>
       </c>
-      <c r="D97" s="148"/>
-      <c r="E97" s="148"/>
-      <c r="F97" s="148"/>
-      <c r="G97" s="148"/>
-      <c r="H97" s="149"/>
+      <c r="D97" s="156"/>
+      <c r="E97" s="156"/>
+      <c r="F97" s="156"/>
+      <c r="G97" s="156"/>
+      <c r="H97" s="157"/>
     </row>
     <row r="98" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A98" s="115" t="s">
         <v>194</v>
       </c>
       <c r="B98" s="125"/>
-      <c r="C98" s="147" t="s">
+      <c r="C98" s="138" t="s">
         <v>224</v>
       </c>
-      <c r="D98" s="148"/>
-      <c r="E98" s="148"/>
-      <c r="F98" s="148"/>
-      <c r="G98" s="148"/>
-      <c r="H98" s="149"/>
+      <c r="D98" s="156"/>
+      <c r="E98" s="156"/>
+      <c r="F98" s="156"/>
+      <c r="G98" s="156"/>
+      <c r="H98" s="157"/>
     </row>
     <row r="99" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A99" s="116" t="s">
         <v>15</v>
       </c>
       <c r="B99" s="82"/>
-      <c r="C99" s="167" t="s">
+      <c r="C99" s="206" t="s">
         <v>157</v>
       </c>
-      <c r="D99" s="168"/>
-      <c r="E99" s="168"/>
-      <c r="F99" s="168"/>
-      <c r="G99" s="168"/>
-      <c r="H99" s="169"/>
+      <c r="D99" s="207"/>
+      <c r="E99" s="207"/>
+      <c r="F99" s="207"/>
+      <c r="G99" s="207"/>
+      <c r="H99" s="208"/>
       <c r="I99" s="132"/>
     </row>
     <row r="100" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -6383,12 +6386,12 @@
         <v>39</v>
       </c>
       <c r="B100" s="78"/>
-      <c r="C100" s="147" t="s">
+      <c r="C100" s="138" t="s">
         <v>223</v>
       </c>
-      <c r="D100" s="148"/>
-      <c r="E100" s="148"/>
-      <c r="F100" s="164"/>
+      <c r="D100" s="156"/>
+      <c r="E100" s="156"/>
+      <c r="F100" s="203"/>
       <c r="G100" s="96" t="s">
         <v>175</v>
       </c>
@@ -6401,38 +6404,38 @@
         <v>28</v>
       </c>
       <c r="B101" s="78"/>
-      <c r="C101" s="147" t="s">
+      <c r="C101" s="138" t="s">
         <v>222</v>
       </c>
-      <c r="D101" s="148"/>
-      <c r="E101" s="148"/>
-      <c r="F101" s="148"/>
-      <c r="G101" s="148"/>
-      <c r="H101" s="149"/>
+      <c r="D101" s="156"/>
+      <c r="E101" s="156"/>
+      <c r="F101" s="156"/>
+      <c r="G101" s="156"/>
+      <c r="H101" s="157"/>
     </row>
     <row r="102" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="117" t="s">
         <v>48</v>
       </c>
       <c r="B102" s="80"/>
-      <c r="C102" s="146" t="s">
+      <c r="C102" s="165" t="s">
         <v>221</v>
       </c>
-      <c r="D102" s="143"/>
-      <c r="E102" s="143"/>
-      <c r="F102" s="143"/>
-      <c r="G102" s="143"/>
-      <c r="H102" s="144"/>
+      <c r="D102" s="166"/>
+      <c r="E102" s="166"/>
+      <c r="F102" s="166"/>
+      <c r="G102" s="166"/>
+      <c r="H102" s="167"/>
     </row>
     <row r="103" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="163"/>
-      <c r="B103" s="163"/>
-      <c r="C103" s="163"/>
-      <c r="D103" s="163"/>
-      <c r="E103" s="163"/>
-      <c r="F103" s="163"/>
-      <c r="G103" s="163"/>
-      <c r="H103" s="163"/>
+      <c r="A103" s="202"/>
+      <c r="B103" s="202"/>
+      <c r="C103" s="202"/>
+      <c r="D103" s="202"/>
+      <c r="E103" s="202"/>
+      <c r="F103" s="202"/>
+      <c r="G103" s="202"/>
+      <c r="H103" s="202"/>
     </row>
     <row r="104" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A104" s="81" t="s">
@@ -6441,40 +6444,40 @@
       <c r="B104" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="153"/>
-      <c r="D104" s="154"/>
-      <c r="E104" s="154"/>
-      <c r="F104" s="154"/>
-      <c r="G104" s="154"/>
-      <c r="H104" s="155"/>
+      <c r="C104" s="168"/>
+      <c r="D104" s="169"/>
+      <c r="E104" s="169"/>
+      <c r="F104" s="169"/>
+      <c r="G104" s="169"/>
+      <c r="H104" s="170"/>
     </row>
     <row r="105" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A105" s="77" t="s">
         <v>10</v>
       </c>
       <c r="B105" s="78"/>
-      <c r="C105" s="147" t="s">
+      <c r="C105" s="138" t="s">
         <v>220</v>
       </c>
-      <c r="D105" s="148"/>
-      <c r="E105" s="148"/>
-      <c r="F105" s="148"/>
-      <c r="G105" s="148"/>
-      <c r="H105" s="149"/>
+      <c r="D105" s="156"/>
+      <c r="E105" s="156"/>
+      <c r="F105" s="156"/>
+      <c r="G105" s="156"/>
+      <c r="H105" s="157"/>
     </row>
     <row r="106" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A106" s="77" t="s">
         <v>196</v>
       </c>
       <c r="B106" s="125"/>
-      <c r="C106" s="147" t="s">
+      <c r="C106" s="138" t="s">
         <v>219</v>
       </c>
-      <c r="D106" s="148"/>
-      <c r="E106" s="148"/>
-      <c r="F106" s="148"/>
-      <c r="G106" s="148"/>
-      <c r="H106" s="149"/>
+      <c r="D106" s="156"/>
+      <c r="E106" s="156"/>
+      <c r="F106" s="156"/>
+      <c r="G106" s="156"/>
+      <c r="H106" s="157"/>
     </row>
     <row r="107" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A107" s="77" t="s">
@@ -6486,11 +6489,11 @@
       <c r="C107" s="20">
         <v>1</v>
       </c>
-      <c r="D107" s="150"/>
-      <c r="E107" s="151"/>
-      <c r="F107" s="151"/>
-      <c r="G107" s="151"/>
-      <c r="H107" s="152"/>
+      <c r="D107" s="221"/>
+      <c r="E107" s="222"/>
+      <c r="F107" s="222"/>
+      <c r="G107" s="222"/>
+      <c r="H107" s="223"/>
     </row>
     <row r="108" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A108" s="115" t="s">
@@ -6549,12 +6552,12 @@
         <v>11</v>
       </c>
       <c r="B110" s="78"/>
-      <c r="C110" s="147"/>
-      <c r="D110" s="148"/>
-      <c r="E110" s="148"/>
-      <c r="F110" s="148"/>
-      <c r="G110" s="148"/>
-      <c r="H110" s="149"/>
+      <c r="C110" s="138"/>
+      <c r="D110" s="156"/>
+      <c r="E110" s="156"/>
+      <c r="F110" s="156"/>
+      <c r="G110" s="156"/>
+      <c r="H110" s="157"/>
       <c r="I110" s="132"/>
     </row>
     <row r="111" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -6562,24 +6565,24 @@
         <v>195</v>
       </c>
       <c r="B111" s="80"/>
-      <c r="C111" s="146" t="s">
+      <c r="C111" s="165" t="s">
         <v>218</v>
       </c>
-      <c r="D111" s="143"/>
-      <c r="E111" s="143"/>
-      <c r="F111" s="143"/>
-      <c r="G111" s="143"/>
-      <c r="H111" s="144"/>
+      <c r="D111" s="166"/>
+      <c r="E111" s="166"/>
+      <c r="F111" s="166"/>
+      <c r="G111" s="166"/>
+      <c r="H111" s="167"/>
     </row>
     <row r="112" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="145"/>
-      <c r="B112" s="145"/>
-      <c r="C112" s="145"/>
-      <c r="D112" s="145"/>
-      <c r="E112" s="145"/>
-      <c r="F112" s="145"/>
-      <c r="G112" s="145"/>
-      <c r="H112" s="145"/>
+      <c r="A112" s="158"/>
+      <c r="B112" s="158"/>
+      <c r="C112" s="158"/>
+      <c r="D112" s="158"/>
+      <c r="E112" s="158"/>
+      <c r="F112" s="158"/>
+      <c r="G112" s="158"/>
+      <c r="H112" s="158"/>
     </row>
     <row r="113" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A113" s="83" t="s">
@@ -6588,26 +6591,26 @@
       <c r="B113" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C113" s="153"/>
-      <c r="D113" s="154"/>
-      <c r="E113" s="154"/>
-      <c r="F113" s="154"/>
-      <c r="G113" s="154"/>
-      <c r="H113" s="155"/>
+      <c r="C113" s="168"/>
+      <c r="D113" s="169"/>
+      <c r="E113" s="169"/>
+      <c r="F113" s="169"/>
+      <c r="G113" s="169"/>
+      <c r="H113" s="170"/>
     </row>
     <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="84" t="s">
         <v>49</v>
       </c>
       <c r="B114" s="85"/>
-      <c r="C114" s="147" t="s">
+      <c r="C114" s="138" t="s">
         <v>214</v>
       </c>
-      <c r="D114" s="148"/>
-      <c r="E114" s="148"/>
-      <c r="F114" s="148"/>
-      <c r="G114" s="148"/>
-      <c r="H114" s="149"/>
+      <c r="D114" s="156"/>
+      <c r="E114" s="156"/>
+      <c r="F114" s="156"/>
+      <c r="G114" s="156"/>
+      <c r="H114" s="157"/>
     </row>
     <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="118" t="s">
@@ -6663,24 +6666,24 @@
         <v>50</v>
       </c>
       <c r="B117" s="88"/>
-      <c r="C117" s="146" t="s">
+      <c r="C117" s="165" t="s">
         <v>217</v>
       </c>
-      <c r="D117" s="143"/>
-      <c r="E117" s="143"/>
-      <c r="F117" s="143"/>
-      <c r="G117" s="143"/>
-      <c r="H117" s="144"/>
+      <c r="D117" s="166"/>
+      <c r="E117" s="166"/>
+      <c r="F117" s="166"/>
+      <c r="G117" s="166"/>
+      <c r="H117" s="167"/>
     </row>
     <row r="118" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="145"/>
-      <c r="B118" s="145"/>
-      <c r="C118" s="145"/>
-      <c r="D118" s="145"/>
-      <c r="E118" s="145"/>
-      <c r="F118" s="145"/>
-      <c r="G118" s="145"/>
-      <c r="H118" s="145"/>
+      <c r="A118" s="158"/>
+      <c r="B118" s="158"/>
+      <c r="C118" s="158"/>
+      <c r="D118" s="158"/>
+      <c r="E118" s="158"/>
+      <c r="F118" s="158"/>
+      <c r="G118" s="158"/>
+      <c r="H118" s="158"/>
     </row>
     <row r="119" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A119" s="81" t="s">
@@ -6689,24 +6692,24 @@
       <c r="B119" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C119" s="153"/>
-      <c r="D119" s="154"/>
-      <c r="E119" s="154"/>
-      <c r="F119" s="154"/>
-      <c r="G119" s="154"/>
-      <c r="H119" s="155"/>
+      <c r="C119" s="168"/>
+      <c r="D119" s="169"/>
+      <c r="E119" s="169"/>
+      <c r="F119" s="169"/>
+      <c r="G119" s="169"/>
+      <c r="H119" s="170"/>
     </row>
     <row r="120" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="89" t="s">
         <v>65</v>
       </c>
       <c r="B120" s="90"/>
-      <c r="C120" s="147"/>
-      <c r="D120" s="148"/>
-      <c r="E120" s="148"/>
-      <c r="F120" s="148"/>
-      <c r="G120" s="148"/>
-      <c r="H120" s="149"/>
+      <c r="C120" s="138"/>
+      <c r="D120" s="156"/>
+      <c r="E120" s="156"/>
+      <c r="F120" s="156"/>
+      <c r="G120" s="156"/>
+      <c r="H120" s="157"/>
       <c r="I120" s="132"/>
     </row>
     <row r="121" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6714,16 +6717,119 @@
         <v>45</v>
       </c>
       <c r="B121" s="91"/>
-      <c r="C121" s="146"/>
-      <c r="D121" s="143"/>
-      <c r="E121" s="143"/>
-      <c r="F121" s="143"/>
-      <c r="G121" s="143"/>
-      <c r="H121" s="144"/>
+      <c r="C121" s="165"/>
+      <c r="D121" s="166"/>
+      <c r="E121" s="166"/>
+      <c r="F121" s="166"/>
+      <c r="G121" s="166"/>
+      <c r="H121" s="167"/>
       <c r="I121" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="127">
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C105:H105"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C110:H110"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="A118:H118"/>
+    <mergeCell ref="C117:H117"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="A67:H67"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="A112:H112"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="A103:H103"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F40:H40"/>
     <mergeCell ref="C60:H60"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C17:E17"/>
@@ -6748,109 +6854,6 @@
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="F46:H46"/>
     <mergeCell ref="F47:H47"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="A112:H112"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="A103:H103"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="A67:H67"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C105:H105"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C110:H110"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="C119:H119"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="A118:H118"/>
-    <mergeCell ref="C117:H117"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C75:H75"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Competition 2025/2025_FSAE_Design_IC_Spec_Sheet_VU.xlsx
+++ b/Competition 2025/2025_FSAE_Design_IC_Spec_Sheet_VU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egroh\Documents\GitHub\vandymotorsports\Competition 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566779A6-5711-4CC9-B86B-C1F4A5E909F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF76742E-90AF-4123-8E29-CE6B89C99132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FSAE_Specs_IC" sheetId="1" r:id="rId1"/>
@@ -4114,14 +4114,233 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4132,12 +4351,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4159,23 +4372,8 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4185,204 +4383,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4759,8 +4759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99:H99"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102:H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4774,15 +4774,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
       <c r="H1" s="8">
         <v>2025</v>
       </c>
@@ -4790,60 +4790,60 @@
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="195">
+      <c r="B3" s="202"/>
+      <c r="C3" s="203">
         <v>130</v>
       </c>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
-      <c r="H3" s="197"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="205"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="159" t="s">
+      <c r="B4" s="215"/>
+      <c r="C4" s="225" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="161"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="226"/>
+      <c r="H4" s="227"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="158"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
     </row>
     <row r="6" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
@@ -4852,12 +4852,12 @@
       <c r="B6" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="182"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="184"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="192"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
@@ -4922,11 +4922,11 @@
       <c r="E9" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="147" t="s">
+      <c r="F9" s="218" t="s">
         <v>213</v>
       </c>
-      <c r="G9" s="144"/>
-      <c r="H9" s="145"/>
+      <c r="G9" s="209"/>
+      <c r="H9" s="210"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
@@ -4966,18 +4966,18 @@
       <c r="F11" s="27">
         <v>50.4</v>
       </c>
-      <c r="G11" s="198"/>
-      <c r="H11" s="199"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="207"/>
       <c r="I11" s="137"/>
     </row>
     <row r="12" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="158"/>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
@@ -4986,16 +4986,16 @@
       <c r="B13" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="185" t="s">
+      <c r="C13" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="186"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="188" t="s">
+      <c r="D13" s="194"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="186"/>
-      <c r="H13" s="187"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="195"/>
     </row>
     <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
@@ -5045,12 +5045,12 @@
         <v>202</v>
       </c>
       <c r="B16" s="119"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="150"/>
+      <c r="C16" s="219"/>
+      <c r="D16" s="220"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="219"/>
+      <c r="G16" s="220"/>
+      <c r="H16" s="221"/>
       <c r="I16" s="133"/>
     </row>
     <row r="17" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5058,12 +5058,12 @@
         <v>31</v>
       </c>
       <c r="B17" s="119"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="145"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="217"/>
+      <c r="G17" s="209"/>
+      <c r="H17" s="210"/>
       <c r="I17" s="133"/>
     </row>
     <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5093,11 +5093,11 @@
         <v>71</v>
       </c>
       <c r="C19" s="33"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="154"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="167"/>
       <c r="F19" s="34"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="154"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="167"/>
       <c r="I19" s="133"/>
     </row>
     <row r="20" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5108,11 +5108,11 @@
         <v>192</v>
       </c>
       <c r="C20" s="33"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="154"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="167"/>
       <c r="F20" s="34"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="154"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="167"/>
       <c r="I20" s="133"/>
     </row>
     <row r="21" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5123,11 +5123,11 @@
         <v>72</v>
       </c>
       <c r="C21" s="35"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="154"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="167"/>
       <c r="F21" s="36"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="154"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="167"/>
       <c r="I21" s="133"/>
     </row>
     <row r="22" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5202,11 +5202,11 @@
         <v>74</v>
       </c>
       <c r="C25" s="50"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="154"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="167"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="154"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="167"/>
       <c r="I25" s="133"/>
     </row>
     <row r="26" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5217,11 +5217,11 @@
         <v>75</v>
       </c>
       <c r="C26" s="50"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="154"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="167"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="154"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="167"/>
       <c r="I26" s="133"/>
     </row>
     <row r="27" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5234,13 +5234,13 @@
       <c r="C27" s="37">
         <v>0</v>
       </c>
-      <c r="D27" s="153"/>
-      <c r="E27" s="154"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="167"/>
       <c r="F27" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="G27" s="153"/>
-      <c r="H27" s="154"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="167"/>
     </row>
     <row r="28" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="s">
@@ -5252,25 +5252,25 @@
       <c r="C28" s="37">
         <v>-0.8</v>
       </c>
-      <c r="D28" s="153"/>
-      <c r="E28" s="154"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="167"/>
       <c r="F28" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="G28" s="153"/>
-      <c r="H28" s="154"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="167"/>
     </row>
     <row r="29" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="62" t="s">
         <v>96</v>
       </c>
       <c r="B29" s="119"/>
-      <c r="C29" s="192"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="157"/>
+      <c r="C29" s="200"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="224"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="147"/>
       <c r="I29" s="133"/>
     </row>
     <row r="30" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5281,11 +5281,11 @@
         <v>77</v>
       </c>
       <c r="C30" s="49"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="154"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="167"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="154"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="167"/>
       <c r="I30" s="133"/>
     </row>
     <row r="31" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5296,11 +5296,11 @@
         <v>69</v>
       </c>
       <c r="C31" s="50"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="154"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="167"/>
       <c r="F31" s="51"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="154"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="167"/>
       <c r="I31" s="133"/>
     </row>
     <row r="32" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5355,8 +5355,8 @@
         <v>142</v>
       </c>
       <c r="F34" s="45"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="152"/>
+      <c r="G34" s="222"/>
+      <c r="H34" s="223"/>
       <c r="I34" s="133"/>
     </row>
     <row r="35" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5371,9 +5371,9 @@
         <v>144</v>
       </c>
       <c r="E35" s="18"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="191"/>
+      <c r="F35" s="197"/>
+      <c r="G35" s="198"/>
+      <c r="H35" s="199"/>
       <c r="I35" s="133"/>
     </row>
     <row r="36" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5381,12 +5381,12 @@
         <v>172</v>
       </c>
       <c r="B36" s="120"/>
-      <c r="C36" s="174"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="145"/>
+      <c r="C36" s="208"/>
+      <c r="D36" s="209"/>
+      <c r="E36" s="209"/>
+      <c r="F36" s="209"/>
+      <c r="G36" s="209"/>
+      <c r="H36" s="210"/>
       <c r="I36" s="133"/>
     </row>
     <row r="37" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5409,14 +5409,14 @@
       <c r="I37" s="133"/>
     </row>
     <row r="38" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="158"/>
-      <c r="B38" s="158"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
+      <c r="A38" s="154"/>
+      <c r="B38" s="154"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="154"/>
     </row>
     <row r="39" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="60" t="s">
@@ -5425,80 +5425,80 @@
       <c r="B39" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="185" t="s">
+      <c r="C39" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="186"/>
-      <c r="E39" s="187"/>
-      <c r="F39" s="185" t="s">
+      <c r="D39" s="194"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="186"/>
-      <c r="H39" s="187"/>
+      <c r="G39" s="194"/>
+      <c r="H39" s="195"/>
     </row>
     <row r="40" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="68"/>
-      <c r="C40" s="138" t="s">
+      <c r="C40" s="145" t="s">
         <v>246</v>
       </c>
-      <c r="D40" s="156"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="138" t="s">
+      <c r="D40" s="146"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="145" t="s">
         <v>246</v>
       </c>
-      <c r="G40" s="156"/>
-      <c r="H40" s="157"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="147"/>
     </row>
     <row r="41" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="68"/>
-      <c r="C41" s="138" t="s">
+      <c r="C41" s="145" t="s">
         <v>247</v>
       </c>
-      <c r="D41" s="156"/>
-      <c r="E41" s="157"/>
-      <c r="F41" s="138" t="s">
+      <c r="D41" s="146"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="145" t="s">
         <v>247</v>
       </c>
-      <c r="G41" s="156"/>
-      <c r="H41" s="157"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="147"/>
     </row>
     <row r="42" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="62" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="68"/>
-      <c r="C42" s="138" t="s">
+      <c r="C42" s="145" t="s">
         <v>248</v>
       </c>
-      <c r="D42" s="156"/>
-      <c r="E42" s="157"/>
-      <c r="F42" s="138" t="s">
+      <c r="D42" s="146"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="145" t="s">
         <v>248</v>
       </c>
-      <c r="G42" s="156"/>
-      <c r="H42" s="157"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="147"/>
     </row>
     <row r="43" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="62" t="s">
         <v>181</v>
       </c>
       <c r="B43" s="68"/>
-      <c r="C43" s="138" t="s">
+      <c r="C43" s="145" t="s">
         <v>249</v>
       </c>
-      <c r="D43" s="156"/>
-      <c r="E43" s="157"/>
-      <c r="F43" s="138" t="s">
+      <c r="D43" s="146"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="145" t="s">
         <v>249</v>
       </c>
-      <c r="G43" s="156"/>
-      <c r="H43" s="157"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="147"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="114" t="s">
@@ -5529,58 +5529,58 @@
         <v>37</v>
       </c>
       <c r="B45" s="69"/>
-      <c r="C45" s="138" t="s">
+      <c r="C45" s="145" t="s">
         <v>250</v>
       </c>
-      <c r="D45" s="156"/>
-      <c r="E45" s="157"/>
-      <c r="F45" s="138" t="s">
+      <c r="D45" s="146"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="145" t="s">
         <v>251</v>
       </c>
-      <c r="G45" s="156"/>
-      <c r="H45" s="157"/>
+      <c r="G45" s="146"/>
+      <c r="H45" s="147"/>
     </row>
     <row r="46" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="62" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="68"/>
-      <c r="C46" s="138" t="s">
+      <c r="C46" s="145" t="s">
         <v>252</v>
       </c>
-      <c r="D46" s="156"/>
-      <c r="E46" s="157"/>
-      <c r="F46" s="138" t="s">
+      <c r="D46" s="146"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="145" t="s">
         <v>253</v>
       </c>
-      <c r="G46" s="156"/>
-      <c r="H46" s="157"/>
+      <c r="G46" s="146"/>
+      <c r="H46" s="147"/>
     </row>
     <row r="47" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="64" t="s">
         <v>24</v>
       </c>
       <c r="B47" s="70"/>
-      <c r="C47" s="165" t="s">
+      <c r="C47" s="142" t="s">
         <v>254</v>
       </c>
-      <c r="D47" s="166"/>
-      <c r="E47" s="167"/>
-      <c r="F47" s="165" t="s">
+      <c r="D47" s="143"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="142" t="s">
         <v>255</v>
       </c>
-      <c r="G47" s="166"/>
-      <c r="H47" s="167"/>
+      <c r="G47" s="143"/>
+      <c r="H47" s="144"/>
     </row>
     <row r="48" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="158"/>
-      <c r="B48" s="158"/>
-      <c r="C48" s="158"/>
-      <c r="D48" s="158"/>
-      <c r="E48" s="158"/>
-      <c r="F48" s="158"/>
-      <c r="G48" s="158"/>
-      <c r="H48" s="158"/>
+      <c r="A48" s="154"/>
+      <c r="B48" s="154"/>
+      <c r="C48" s="154"/>
+      <c r="D48" s="154"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="154"/>
+      <c r="G48" s="154"/>
+      <c r="H48" s="154"/>
     </row>
     <row r="49" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="60" t="s">
@@ -5589,40 +5589,40 @@
       <c r="B49" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="168"/>
-      <c r="D49" s="169"/>
-      <c r="E49" s="169"/>
-      <c r="F49" s="169"/>
-      <c r="G49" s="169"/>
-      <c r="H49" s="170"/>
+      <c r="C49" s="151"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="152"/>
+      <c r="F49" s="152"/>
+      <c r="G49" s="152"/>
+      <c r="H49" s="153"/>
     </row>
     <row r="50" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="62" t="s">
         <v>9</v>
       </c>
       <c r="B50" s="72"/>
-      <c r="C50" s="162" t="s">
+      <c r="C50" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="D50" s="163"/>
-      <c r="E50" s="163"/>
-      <c r="F50" s="163"/>
-      <c r="G50" s="163"/>
-      <c r="H50" s="164"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="140"/>
+      <c r="F50" s="140"/>
+      <c r="G50" s="140"/>
+      <c r="H50" s="141"/>
     </row>
     <row r="51" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="62" t="s">
         <v>57</v>
       </c>
       <c r="B51" s="72"/>
-      <c r="C51" s="162" t="s">
+      <c r="C51" s="139" t="s">
         <v>241</v>
       </c>
-      <c r="D51" s="163"/>
-      <c r="E51" s="163"/>
-      <c r="F51" s="163"/>
-      <c r="G51" s="163"/>
-      <c r="H51" s="164"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="140"/>
+      <c r="F51" s="140"/>
+      <c r="G51" s="140"/>
+      <c r="H51" s="141"/>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="62" t="s">
@@ -5638,87 +5638,87 @@
       <c r="E52" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="F52" s="171" t="s">
+      <c r="F52" s="211" t="s">
         <v>242</v>
       </c>
-      <c r="G52" s="172"/>
-      <c r="H52" s="173"/>
+      <c r="G52" s="212"/>
+      <c r="H52" s="213"/>
     </row>
     <row r="53" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="62" t="s">
         <v>32</v>
       </c>
       <c r="B53" s="72"/>
-      <c r="C53" s="162" t="s">
+      <c r="C53" s="139" t="s">
         <v>243</v>
       </c>
-      <c r="D53" s="163"/>
-      <c r="E53" s="163"/>
-      <c r="F53" s="163"/>
-      <c r="G53" s="163"/>
-      <c r="H53" s="164"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="140"/>
+      <c r="G53" s="140"/>
+      <c r="H53" s="141"/>
     </row>
     <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="62" t="s">
         <v>33</v>
       </c>
       <c r="B54" s="72"/>
-      <c r="C54" s="162" t="s">
+      <c r="C54" s="139" t="s">
         <v>244</v>
       </c>
-      <c r="D54" s="163"/>
-      <c r="E54" s="163"/>
-      <c r="F54" s="163"/>
-      <c r="G54" s="163"/>
-      <c r="H54" s="164"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="140"/>
+      <c r="H54" s="141"/>
     </row>
     <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="62" t="s">
         <v>34</v>
       </c>
       <c r="B55" s="72"/>
-      <c r="C55" s="162" t="s">
+      <c r="C55" s="139" t="s">
         <v>245</v>
       </c>
-      <c r="D55" s="163"/>
-      <c r="E55" s="163"/>
-      <c r="F55" s="163"/>
-      <c r="G55" s="163"/>
-      <c r="H55" s="164"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="140"/>
+      <c r="F55" s="140"/>
+      <c r="G55" s="140"/>
+      <c r="H55" s="141"/>
     </row>
     <row r="56" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="73" t="s">
         <v>180</v>
       </c>
       <c r="B56" s="74"/>
-      <c r="C56" s="179" t="s">
+      <c r="C56" s="187" t="s">
         <v>217</v>
       </c>
-      <c r="D56" s="180"/>
-      <c r="E56" s="180"/>
-      <c r="F56" s="180"/>
-      <c r="G56" s="180"/>
-      <c r="H56" s="181"/>
+      <c r="D56" s="188"/>
+      <c r="E56" s="188"/>
+      <c r="F56" s="188"/>
+      <c r="G56" s="188"/>
+      <c r="H56" s="189"/>
     </row>
     <row r="57" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="219"/>
-      <c r="B57" s="219"/>
-      <c r="C57" s="219"/>
-      <c r="D57" s="219"/>
-      <c r="E57" s="219"/>
-      <c r="F57" s="219"/>
-      <c r="G57" s="219"/>
-      <c r="H57" s="219"/>
+      <c r="A57" s="165"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
+      <c r="E57" s="165"/>
+      <c r="F57" s="165"/>
+      <c r="G57" s="165"/>
+      <c r="H57" s="165"/>
     </row>
     <row r="58" spans="1:9" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="218"/>
-      <c r="B58" s="218"/>
-      <c r="C58" s="218"/>
-      <c r="D58" s="218"/>
-      <c r="E58" s="218"/>
-      <c r="F58" s="218"/>
-      <c r="G58" s="218"/>
-      <c r="H58" s="218"/>
+      <c r="A58" s="164"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
+      <c r="E58" s="164"/>
+      <c r="F58" s="164"/>
+      <c r="G58" s="164"/>
+      <c r="H58" s="164"/>
     </row>
     <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="60" t="s">
@@ -5727,26 +5727,26 @@
       <c r="B59" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="168"/>
-      <c r="D59" s="169"/>
-      <c r="E59" s="169"/>
-      <c r="F59" s="169"/>
-      <c r="G59" s="169"/>
-      <c r="H59" s="170"/>
+      <c r="C59" s="151"/>
+      <c r="D59" s="152"/>
+      <c r="E59" s="152"/>
+      <c r="F59" s="152"/>
+      <c r="G59" s="152"/>
+      <c r="H59" s="153"/>
     </row>
     <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="62" t="s">
         <v>177</v>
       </c>
       <c r="B60" s="75"/>
-      <c r="C60" s="138" t="s">
+      <c r="C60" s="145" t="s">
         <v>260</v>
       </c>
-      <c r="D60" s="139"/>
-      <c r="E60" s="139"/>
-      <c r="F60" s="139"/>
-      <c r="G60" s="139"/>
-      <c r="H60" s="140"/>
+      <c r="D60" s="162"/>
+      <c r="E60" s="162"/>
+      <c r="F60" s="162"/>
+      <c r="G60" s="162"/>
+      <c r="H60" s="163"/>
       <c r="I60" s="134"/>
     </row>
     <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5754,14 +5754,14 @@
         <v>58</v>
       </c>
       <c r="B61" s="75"/>
-      <c r="C61" s="162" t="s">
+      <c r="C61" s="139" t="s">
         <v>259</v>
       </c>
-      <c r="D61" s="163"/>
-      <c r="E61" s="163"/>
-      <c r="F61" s="163"/>
-      <c r="G61" s="163"/>
-      <c r="H61" s="164"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="140"/>
+      <c r="F61" s="140"/>
+      <c r="G61" s="140"/>
+      <c r="H61" s="141"/>
       <c r="I61" s="134"/>
     </row>
     <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5769,14 +5769,14 @@
         <v>53</v>
       </c>
       <c r="B62" s="75"/>
-      <c r="C62" s="138" t="s">
+      <c r="C62" s="145" t="s">
         <v>258</v>
       </c>
-      <c r="D62" s="139"/>
-      <c r="E62" s="139"/>
-      <c r="F62" s="139"/>
-      <c r="G62" s="139"/>
-      <c r="H62" s="140"/>
+      <c r="D62" s="162"/>
+      <c r="E62" s="162"/>
+      <c r="F62" s="162"/>
+      <c r="G62" s="162"/>
+      <c r="H62" s="163"/>
       <c r="I62" s="134"/>
     </row>
     <row r="63" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5784,66 +5784,66 @@
         <v>54</v>
       </c>
       <c r="B63" s="72"/>
-      <c r="C63" s="162" t="s">
+      <c r="C63" s="139" t="s">
         <v>257</v>
       </c>
-      <c r="D63" s="163"/>
-      <c r="E63" s="163"/>
-      <c r="F63" s="163"/>
-      <c r="G63" s="163"/>
-      <c r="H63" s="164"/>
+      <c r="D63" s="140"/>
+      <c r="E63" s="140"/>
+      <c r="F63" s="140"/>
+      <c r="G63" s="140"/>
+      <c r="H63" s="141"/>
     </row>
     <row r="64" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="62" t="s">
         <v>51</v>
       </c>
       <c r="B64" s="75"/>
-      <c r="C64" s="162" t="s">
+      <c r="C64" s="139" t="s">
         <v>217</v>
       </c>
-      <c r="D64" s="163"/>
-      <c r="E64" s="163"/>
-      <c r="F64" s="163"/>
-      <c r="G64" s="163"/>
-      <c r="H64" s="164"/>
+      <c r="D64" s="140"/>
+      <c r="E64" s="140"/>
+      <c r="F64" s="140"/>
+      <c r="G64" s="140"/>
+      <c r="H64" s="141"/>
     </row>
     <row r="65" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="62" t="s">
         <v>55</v>
       </c>
       <c r="B65" s="75"/>
-      <c r="C65" s="162" t="s">
+      <c r="C65" s="139" t="s">
         <v>256</v>
       </c>
-      <c r="D65" s="163"/>
-      <c r="E65" s="163"/>
-      <c r="F65" s="163"/>
-      <c r="G65" s="163"/>
-      <c r="H65" s="164"/>
+      <c r="D65" s="140"/>
+      <c r="E65" s="140"/>
+      <c r="F65" s="140"/>
+      <c r="G65" s="140"/>
+      <c r="H65" s="141"/>
     </row>
     <row r="66" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="64" t="s">
         <v>52</v>
       </c>
       <c r="B66" s="76"/>
-      <c r="C66" s="224" t="s">
+      <c r="C66" s="159" t="s">
         <v>217</v>
       </c>
-      <c r="D66" s="225"/>
-      <c r="E66" s="225"/>
-      <c r="F66" s="225"/>
-      <c r="G66" s="225"/>
-      <c r="H66" s="226"/>
+      <c r="D66" s="160"/>
+      <c r="E66" s="160"/>
+      <c r="F66" s="160"/>
+      <c r="G66" s="160"/>
+      <c r="H66" s="161"/>
     </row>
     <row r="67" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="158"/>
-      <c r="B67" s="158"/>
-      <c r="C67" s="158"/>
-      <c r="D67" s="158"/>
-      <c r="E67" s="158"/>
-      <c r="F67" s="158"/>
-      <c r="G67" s="158"/>
-      <c r="H67" s="158"/>
+      <c r="A67" s="154"/>
+      <c r="B67" s="154"/>
+      <c r="C67" s="154"/>
+      <c r="D67" s="154"/>
+      <c r="E67" s="154"/>
+      <c r="F67" s="154"/>
+      <c r="G67" s="154"/>
+      <c r="H67" s="154"/>
     </row>
     <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="60" t="s">
@@ -5852,54 +5852,54 @@
       <c r="B68" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C68" s="168"/>
-      <c r="D68" s="169"/>
-      <c r="E68" s="169"/>
-      <c r="F68" s="169"/>
-      <c r="G68" s="169"/>
-      <c r="H68" s="170"/>
+      <c r="C68" s="151"/>
+      <c r="D68" s="152"/>
+      <c r="E68" s="152"/>
+      <c r="F68" s="152"/>
+      <c r="G68" s="152"/>
+      <c r="H68" s="153"/>
     </row>
     <row r="69" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="77" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="78"/>
-      <c r="C69" s="162" t="s">
+      <c r="C69" s="139" t="s">
         <v>235</v>
       </c>
-      <c r="D69" s="163"/>
-      <c r="E69" s="163"/>
-      <c r="F69" s="163"/>
-      <c r="G69" s="163"/>
-      <c r="H69" s="164"/>
+      <c r="D69" s="140"/>
+      <c r="E69" s="140"/>
+      <c r="F69" s="140"/>
+      <c r="G69" s="140"/>
+      <c r="H69" s="141"/>
     </row>
     <row r="70" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A70" s="77" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="78"/>
-      <c r="C70" s="162" t="s">
+      <c r="C70" s="139" t="s">
         <v>236</v>
       </c>
-      <c r="D70" s="163"/>
-      <c r="E70" s="163"/>
-      <c r="F70" s="163"/>
-      <c r="G70" s="163"/>
-      <c r="H70" s="164"/>
+      <c r="D70" s="140"/>
+      <c r="E70" s="140"/>
+      <c r="F70" s="140"/>
+      <c r="G70" s="140"/>
+      <c r="H70" s="141"/>
     </row>
     <row r="71" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="77" t="s">
         <v>7</v>
       </c>
       <c r="B71" s="125"/>
-      <c r="C71" s="162" t="s">
+      <c r="C71" s="139" t="s">
         <v>237</v>
       </c>
-      <c r="D71" s="163"/>
-      <c r="E71" s="163"/>
-      <c r="F71" s="163"/>
-      <c r="G71" s="163"/>
-      <c r="H71" s="164"/>
+      <c r="D71" s="140"/>
+      <c r="E71" s="140"/>
+      <c r="F71" s="140"/>
+      <c r="G71" s="140"/>
+      <c r="H71" s="141"/>
     </row>
     <row r="72" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" s="115" t="s">
@@ -5916,8 +5916,8 @@
         <v>109</v>
       </c>
       <c r="F72" s="45"/>
-      <c r="G72" s="153"/>
-      <c r="H72" s="154"/>
+      <c r="G72" s="166"/>
+      <c r="H72" s="167"/>
       <c r="I72" s="133"/>
     </row>
     <row r="73" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5946,12 +5946,12 @@
         <v>105</v>
       </c>
       <c r="B74" s="125"/>
-      <c r="C74" s="162"/>
-      <c r="D74" s="163"/>
-      <c r="E74" s="163"/>
-      <c r="F74" s="163"/>
-      <c r="G74" s="163"/>
-      <c r="H74" s="164"/>
+      <c r="C74" s="139"/>
+      <c r="D74" s="140"/>
+      <c r="E74" s="140"/>
+      <c r="F74" s="140"/>
+      <c r="G74" s="140"/>
+      <c r="H74" s="141"/>
       <c r="I74" s="133"/>
     </row>
     <row r="75" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5959,12 +5959,12 @@
         <v>169</v>
       </c>
       <c r="B75" s="125"/>
-      <c r="C75" s="162"/>
-      <c r="D75" s="163"/>
-      <c r="E75" s="163"/>
-      <c r="F75" s="163"/>
-      <c r="G75" s="163"/>
-      <c r="H75" s="164"/>
+      <c r="C75" s="139"/>
+      <c r="D75" s="140"/>
+      <c r="E75" s="140"/>
+      <c r="F75" s="140"/>
+      <c r="G75" s="140"/>
+      <c r="H75" s="141"/>
       <c r="I75" s="133"/>
     </row>
     <row r="76" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -6009,21 +6009,21 @@
       <c r="E77" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="F77" s="220" t="s">
+      <c r="F77" s="168" t="s">
         <v>239</v>
       </c>
-      <c r="G77" s="166"/>
-      <c r="H77" s="167"/>
+      <c r="G77" s="143"/>
+      <c r="H77" s="144"/>
     </row>
     <row r="78" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="202"/>
-      <c r="B78" s="202"/>
-      <c r="C78" s="202"/>
-      <c r="D78" s="202"/>
-      <c r="E78" s="202"/>
-      <c r="F78" s="202"/>
-      <c r="G78" s="202"/>
-      <c r="H78" s="202"/>
+      <c r="A78" s="169"/>
+      <c r="B78" s="169"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
+      <c r="E78" s="169"/>
+      <c r="F78" s="169"/>
+      <c r="G78" s="169"/>
+      <c r="H78" s="169"/>
     </row>
     <row r="79" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A79" s="81" t="s">
@@ -6032,43 +6032,43 @@
       <c r="B79" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="168"/>
-      <c r="D79" s="169"/>
-      <c r="E79" s="169"/>
-      <c r="F79" s="169"/>
-      <c r="G79" s="169"/>
-      <c r="H79" s="170"/>
+      <c r="C79" s="151"/>
+      <c r="D79" s="152"/>
+      <c r="E79" s="152"/>
+      <c r="F79" s="152"/>
+      <c r="G79" s="152"/>
+      <c r="H79" s="153"/>
     </row>
     <row r="80" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A80" s="77" t="s">
         <v>63</v>
       </c>
       <c r="B80" s="78"/>
-      <c r="C80" s="138" t="s">
+      <c r="C80" s="145" t="s">
         <v>233</v>
       </c>
-      <c r="D80" s="156"/>
-      <c r="E80" s="156"/>
-      <c r="F80" s="156"/>
-      <c r="G80" s="156"/>
-      <c r="H80" s="157"/>
+      <c r="D80" s="146"/>
+      <c r="E80" s="146"/>
+      <c r="F80" s="146"/>
+      <c r="G80" s="146"/>
+      <c r="H80" s="147"/>
     </row>
     <row r="81" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A81" s="77" t="s">
         <v>117</v>
       </c>
       <c r="B81" s="125"/>
-      <c r="C81" s="216" t="s">
+      <c r="C81" s="155" t="s">
         <v>112</v>
       </c>
-      <c r="D81" s="217"/>
+      <c r="D81" s="156"/>
       <c r="E81" s="28">
         <v>1</v>
       </c>
-      <c r="F81" s="200" t="s">
+      <c r="F81" s="157" t="s">
         <v>174</v>
       </c>
-      <c r="G81" s="201"/>
+      <c r="G81" s="158"/>
       <c r="H81" s="22" t="s">
         <v>234</v>
       </c>
@@ -6078,17 +6078,17 @@
         <v>116</v>
       </c>
       <c r="B82" s="125"/>
-      <c r="C82" s="216" t="s">
+      <c r="C82" s="155" t="s">
         <v>113</v>
       </c>
-      <c r="D82" s="217"/>
+      <c r="D82" s="156"/>
       <c r="E82" s="28">
         <v>501</v>
       </c>
-      <c r="F82" s="200" t="s">
+      <c r="F82" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="G82" s="201"/>
+      <c r="G82" s="158"/>
       <c r="H82" s="32">
         <v>12.5</v>
       </c>
@@ -6100,17 +6100,17 @@
       <c r="B83" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="C83" s="216" t="s">
+      <c r="C83" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="D83" s="217"/>
+      <c r="D83" s="156"/>
       <c r="E83" s="39">
         <v>98</v>
       </c>
-      <c r="F83" s="200" t="s">
+      <c r="F83" s="157" t="s">
         <v>155</v>
       </c>
-      <c r="G83" s="201"/>
+      <c r="G83" s="158"/>
       <c r="H83" s="32">
         <v>66.400000000000006</v>
       </c>
@@ -6132,8 +6132,8 @@
       <c r="F84" s="13">
         <v>29.8</v>
       </c>
-      <c r="G84" s="214"/>
-      <c r="H84" s="215"/>
+      <c r="G84" s="181"/>
+      <c r="H84" s="182"/>
     </row>
     <row r="85" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A85" s="77" t="s">
@@ -6167,56 +6167,56 @@
         <v>210</v>
       </c>
       <c r="B86" s="125"/>
-      <c r="C86" s="138" t="s">
+      <c r="C86" s="145" t="s">
         <v>232</v>
       </c>
-      <c r="D86" s="156"/>
-      <c r="E86" s="156"/>
-      <c r="F86" s="156"/>
-      <c r="G86" s="156"/>
-      <c r="H86" s="157"/>
+      <c r="D86" s="146"/>
+      <c r="E86" s="146"/>
+      <c r="F86" s="146"/>
+      <c r="G86" s="146"/>
+      <c r="H86" s="147"/>
     </row>
     <row r="87" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A87" s="77" t="s">
         <v>47</v>
       </c>
       <c r="B87" s="125"/>
-      <c r="C87" s="138" t="s">
+      <c r="C87" s="145" t="s">
         <v>231</v>
       </c>
-      <c r="D87" s="156"/>
-      <c r="E87" s="156"/>
-      <c r="F87" s="156"/>
-      <c r="G87" s="156"/>
-      <c r="H87" s="157"/>
+      <c r="D87" s="146"/>
+      <c r="E87" s="146"/>
+      <c r="F87" s="146"/>
+      <c r="G87" s="146"/>
+      <c r="H87" s="147"/>
     </row>
     <row r="88" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A88" s="115" t="s">
         <v>56</v>
       </c>
       <c r="B88" s="125"/>
-      <c r="C88" s="138" t="s">
+      <c r="C88" s="145" t="s">
         <v>230</v>
       </c>
-      <c r="D88" s="156"/>
-      <c r="E88" s="156"/>
-      <c r="F88" s="156"/>
-      <c r="G88" s="156"/>
-      <c r="H88" s="157"/>
+      <c r="D88" s="146"/>
+      <c r="E88" s="146"/>
+      <c r="F88" s="146"/>
+      <c r="G88" s="146"/>
+      <c r="H88" s="147"/>
     </row>
     <row r="89" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A89" s="115" t="s">
         <v>124</v>
       </c>
       <c r="B89" s="125"/>
-      <c r="C89" s="138" t="s">
+      <c r="C89" s="145" t="s">
         <v>229</v>
       </c>
-      <c r="D89" s="156"/>
-      <c r="E89" s="156"/>
-      <c r="F89" s="156"/>
-      <c r="G89" s="156"/>
-      <c r="H89" s="157"/>
+      <c r="D89" s="146"/>
+      <c r="E89" s="146"/>
+      <c r="F89" s="146"/>
+      <c r="G89" s="146"/>
+      <c r="H89" s="147"/>
     </row>
     <row r="90" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A90" s="77" t="s">
@@ -6228,25 +6228,25 @@
       <c r="C90" s="20">
         <v>2.76</v>
       </c>
-      <c r="D90" s="209"/>
-      <c r="E90" s="210"/>
-      <c r="F90" s="210"/>
-      <c r="G90" s="210"/>
-      <c r="H90" s="211"/>
+      <c r="D90" s="176"/>
+      <c r="E90" s="177"/>
+      <c r="F90" s="177"/>
+      <c r="G90" s="177"/>
+      <c r="H90" s="178"/>
     </row>
     <row r="91" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A91" s="77" t="s">
         <v>18</v>
       </c>
       <c r="B91" s="125"/>
-      <c r="C91" s="138" t="s">
+      <c r="C91" s="145" t="s">
         <v>228</v>
       </c>
-      <c r="D91" s="156"/>
-      <c r="E91" s="156"/>
-      <c r="F91" s="156"/>
-      <c r="G91" s="156"/>
-      <c r="H91" s="157"/>
+      <c r="D91" s="146"/>
+      <c r="E91" s="146"/>
+      <c r="F91" s="146"/>
+      <c r="G91" s="146"/>
+      <c r="H91" s="147"/>
     </row>
     <row r="92" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A92" s="77" t="s">
@@ -6259,10 +6259,10 @@
       <c r="D92" s="46">
         <v>1709</v>
       </c>
-      <c r="E92" s="204" t="s">
+      <c r="E92" s="171" t="s">
         <v>121</v>
       </c>
-      <c r="F92" s="205"/>
+      <c r="F92" s="172"/>
       <c r="G92" s="31">
         <v>190</v>
       </c>
@@ -6273,13 +6273,13 @@
         <v>150</v>
       </c>
       <c r="B93" s="125"/>
-      <c r="C93" s="227" t="s">
+      <c r="C93" s="138" t="s">
         <v>266</v>
       </c>
-      <c r="D93" s="212" t="s">
+      <c r="D93" s="179" t="s">
         <v>152</v>
       </c>
-      <c r="E93" s="213"/>
+      <c r="E93" s="180"/>
       <c r="F93" s="45">
         <v>2390</v>
       </c>
@@ -6307,78 +6307,78 @@
       <c r="F94" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="G94" s="153"/>
-      <c r="H94" s="154"/>
+      <c r="G94" s="166"/>
+      <c r="H94" s="167"/>
     </row>
     <row r="95" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A95" s="77" t="s">
         <v>46</v>
       </c>
       <c r="B95" s="125"/>
-      <c r="C95" s="138" t="s">
+      <c r="C95" s="145" t="s">
         <v>227</v>
       </c>
-      <c r="D95" s="156"/>
-      <c r="E95" s="156"/>
-      <c r="F95" s="156"/>
-      <c r="G95" s="156"/>
-      <c r="H95" s="157"/>
+      <c r="D95" s="146"/>
+      <c r="E95" s="146"/>
+      <c r="F95" s="146"/>
+      <c r="G95" s="146"/>
+      <c r="H95" s="147"/>
     </row>
     <row r="96" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A96" s="77" t="s">
         <v>16</v>
       </c>
       <c r="B96" s="125"/>
-      <c r="C96" s="138" t="s">
+      <c r="C96" s="145" t="s">
         <v>226</v>
       </c>
-      <c r="D96" s="156"/>
-      <c r="E96" s="156"/>
-      <c r="F96" s="156"/>
-      <c r="G96" s="156"/>
-      <c r="H96" s="157"/>
+      <c r="D96" s="146"/>
+      <c r="E96" s="146"/>
+      <c r="F96" s="146"/>
+      <c r="G96" s="146"/>
+      <c r="H96" s="147"/>
     </row>
     <row r="97" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A97" s="77" t="s">
         <v>40</v>
       </c>
       <c r="B97" s="125"/>
-      <c r="C97" s="138" t="s">
+      <c r="C97" s="145" t="s">
         <v>225</v>
       </c>
-      <c r="D97" s="156"/>
-      <c r="E97" s="156"/>
-      <c r="F97" s="156"/>
-      <c r="G97" s="156"/>
-      <c r="H97" s="157"/>
+      <c r="D97" s="146"/>
+      <c r="E97" s="146"/>
+      <c r="F97" s="146"/>
+      <c r="G97" s="146"/>
+      <c r="H97" s="147"/>
     </row>
     <row r="98" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A98" s="115" t="s">
         <v>194</v>
       </c>
       <c r="B98" s="125"/>
-      <c r="C98" s="138" t="s">
+      <c r="C98" s="145" t="s">
         <v>224</v>
       </c>
-      <c r="D98" s="156"/>
-      <c r="E98" s="156"/>
-      <c r="F98" s="156"/>
-      <c r="G98" s="156"/>
-      <c r="H98" s="157"/>
+      <c r="D98" s="146"/>
+      <c r="E98" s="146"/>
+      <c r="F98" s="146"/>
+      <c r="G98" s="146"/>
+      <c r="H98" s="147"/>
     </row>
     <row r="99" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A99" s="116" t="s">
         <v>15</v>
       </c>
       <c r="B99" s="82"/>
-      <c r="C99" s="206" t="s">
+      <c r="C99" s="173" t="s">
         <v>157</v>
       </c>
-      <c r="D99" s="207"/>
-      <c r="E99" s="207"/>
-      <c r="F99" s="207"/>
-      <c r="G99" s="207"/>
-      <c r="H99" s="208"/>
+      <c r="D99" s="174"/>
+      <c r="E99" s="174"/>
+      <c r="F99" s="174"/>
+      <c r="G99" s="174"/>
+      <c r="H99" s="175"/>
       <c r="I99" s="132"/>
     </row>
     <row r="100" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -6386,12 +6386,12 @@
         <v>39</v>
       </c>
       <c r="B100" s="78"/>
-      <c r="C100" s="138" t="s">
+      <c r="C100" s="145" t="s">
         <v>223</v>
       </c>
-      <c r="D100" s="156"/>
-      <c r="E100" s="156"/>
-      <c r="F100" s="203"/>
+      <c r="D100" s="146"/>
+      <c r="E100" s="146"/>
+      <c r="F100" s="170"/>
       <c r="G100" s="96" t="s">
         <v>175</v>
       </c>
@@ -6404,38 +6404,38 @@
         <v>28</v>
       </c>
       <c r="B101" s="78"/>
-      <c r="C101" s="138" t="s">
+      <c r="C101" s="145" t="s">
         <v>222</v>
       </c>
-      <c r="D101" s="156"/>
-      <c r="E101" s="156"/>
-      <c r="F101" s="156"/>
-      <c r="G101" s="156"/>
-      <c r="H101" s="157"/>
+      <c r="D101" s="146"/>
+      <c r="E101" s="146"/>
+      <c r="F101" s="146"/>
+      <c r="G101" s="146"/>
+      <c r="H101" s="147"/>
     </row>
     <row r="102" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="117" t="s">
         <v>48</v>
       </c>
       <c r="B102" s="80"/>
-      <c r="C102" s="165" t="s">
+      <c r="C102" s="142" t="s">
         <v>221</v>
       </c>
-      <c r="D102" s="166"/>
-      <c r="E102" s="166"/>
-      <c r="F102" s="166"/>
-      <c r="G102" s="166"/>
-      <c r="H102" s="167"/>
+      <c r="D102" s="143"/>
+      <c r="E102" s="143"/>
+      <c r="F102" s="143"/>
+      <c r="G102" s="143"/>
+      <c r="H102" s="144"/>
     </row>
     <row r="103" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="202"/>
-      <c r="B103" s="202"/>
-      <c r="C103" s="202"/>
-      <c r="D103" s="202"/>
-      <c r="E103" s="202"/>
-      <c r="F103" s="202"/>
-      <c r="G103" s="202"/>
-      <c r="H103" s="202"/>
+      <c r="A103" s="169"/>
+      <c r="B103" s="169"/>
+      <c r="C103" s="169"/>
+      <c r="D103" s="169"/>
+      <c r="E103" s="169"/>
+      <c r="F103" s="169"/>
+      <c r="G103" s="169"/>
+      <c r="H103" s="169"/>
     </row>
     <row r="104" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A104" s="81" t="s">
@@ -6444,40 +6444,40 @@
       <c r="B104" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="168"/>
-      <c r="D104" s="169"/>
-      <c r="E104" s="169"/>
-      <c r="F104" s="169"/>
-      <c r="G104" s="169"/>
-      <c r="H104" s="170"/>
+      <c r="C104" s="151"/>
+      <c r="D104" s="152"/>
+      <c r="E104" s="152"/>
+      <c r="F104" s="152"/>
+      <c r="G104" s="152"/>
+      <c r="H104" s="153"/>
     </row>
     <row r="105" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A105" s="77" t="s">
         <v>10</v>
       </c>
       <c r="B105" s="78"/>
-      <c r="C105" s="138" t="s">
+      <c r="C105" s="145" t="s">
         <v>220</v>
       </c>
-      <c r="D105" s="156"/>
-      <c r="E105" s="156"/>
-      <c r="F105" s="156"/>
-      <c r="G105" s="156"/>
-      <c r="H105" s="157"/>
+      <c r="D105" s="146"/>
+      <c r="E105" s="146"/>
+      <c r="F105" s="146"/>
+      <c r="G105" s="146"/>
+      <c r="H105" s="147"/>
     </row>
     <row r="106" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A106" s="77" t="s">
         <v>196</v>
       </c>
       <c r="B106" s="125"/>
-      <c r="C106" s="138" t="s">
+      <c r="C106" s="145" t="s">
         <v>219</v>
       </c>
-      <c r="D106" s="156"/>
-      <c r="E106" s="156"/>
-      <c r="F106" s="156"/>
-      <c r="G106" s="156"/>
-      <c r="H106" s="157"/>
+      <c r="D106" s="146"/>
+      <c r="E106" s="146"/>
+      <c r="F106" s="146"/>
+      <c r="G106" s="146"/>
+      <c r="H106" s="147"/>
     </row>
     <row r="107" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A107" s="77" t="s">
@@ -6489,11 +6489,11 @@
       <c r="C107" s="20">
         <v>1</v>
       </c>
-      <c r="D107" s="221"/>
-      <c r="E107" s="222"/>
-      <c r="F107" s="222"/>
-      <c r="G107" s="222"/>
-      <c r="H107" s="223"/>
+      <c r="D107" s="148"/>
+      <c r="E107" s="149"/>
+      <c r="F107" s="149"/>
+      <c r="G107" s="149"/>
+      <c r="H107" s="150"/>
     </row>
     <row r="108" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A108" s="115" t="s">
@@ -6552,12 +6552,12 @@
         <v>11</v>
       </c>
       <c r="B110" s="78"/>
-      <c r="C110" s="138"/>
-      <c r="D110" s="156"/>
-      <c r="E110" s="156"/>
-      <c r="F110" s="156"/>
-      <c r="G110" s="156"/>
-      <c r="H110" s="157"/>
+      <c r="C110" s="145"/>
+      <c r="D110" s="146"/>
+      <c r="E110" s="146"/>
+      <c r="F110" s="146"/>
+      <c r="G110" s="146"/>
+      <c r="H110" s="147"/>
       <c r="I110" s="132"/>
     </row>
     <row r="111" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -6565,24 +6565,24 @@
         <v>195</v>
       </c>
       <c r="B111" s="80"/>
-      <c r="C111" s="165" t="s">
+      <c r="C111" s="142" t="s">
         <v>218</v>
       </c>
-      <c r="D111" s="166"/>
-      <c r="E111" s="166"/>
-      <c r="F111" s="166"/>
-      <c r="G111" s="166"/>
-      <c r="H111" s="167"/>
+      <c r="D111" s="143"/>
+      <c r="E111" s="143"/>
+      <c r="F111" s="143"/>
+      <c r="G111" s="143"/>
+      <c r="H111" s="144"/>
     </row>
     <row r="112" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="158"/>
-      <c r="B112" s="158"/>
-      <c r="C112" s="158"/>
-      <c r="D112" s="158"/>
-      <c r="E112" s="158"/>
-      <c r="F112" s="158"/>
-      <c r="G112" s="158"/>
-      <c r="H112" s="158"/>
+      <c r="A112" s="154"/>
+      <c r="B112" s="154"/>
+      <c r="C112" s="154"/>
+      <c r="D112" s="154"/>
+      <c r="E112" s="154"/>
+      <c r="F112" s="154"/>
+      <c r="G112" s="154"/>
+      <c r="H112" s="154"/>
     </row>
     <row r="113" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A113" s="83" t="s">
@@ -6591,26 +6591,26 @@
       <c r="B113" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C113" s="168"/>
-      <c r="D113" s="169"/>
-      <c r="E113" s="169"/>
-      <c r="F113" s="169"/>
-      <c r="G113" s="169"/>
-      <c r="H113" s="170"/>
+      <c r="C113" s="151"/>
+      <c r="D113" s="152"/>
+      <c r="E113" s="152"/>
+      <c r="F113" s="152"/>
+      <c r="G113" s="152"/>
+      <c r="H113" s="153"/>
     </row>
     <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="84" t="s">
         <v>49</v>
       </c>
       <c r="B114" s="85"/>
-      <c r="C114" s="138" t="s">
+      <c r="C114" s="145" t="s">
         <v>214</v>
       </c>
-      <c r="D114" s="156"/>
-      <c r="E114" s="156"/>
-      <c r="F114" s="156"/>
-      <c r="G114" s="156"/>
-      <c r="H114" s="157"/>
+      <c r="D114" s="146"/>
+      <c r="E114" s="146"/>
+      <c r="F114" s="146"/>
+      <c r="G114" s="146"/>
+      <c r="H114" s="147"/>
     </row>
     <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="118" t="s">
@@ -6666,24 +6666,24 @@
         <v>50</v>
       </c>
       <c r="B117" s="88"/>
-      <c r="C117" s="165" t="s">
+      <c r="C117" s="142" t="s">
         <v>217</v>
       </c>
-      <c r="D117" s="166"/>
-      <c r="E117" s="166"/>
-      <c r="F117" s="166"/>
-      <c r="G117" s="166"/>
-      <c r="H117" s="167"/>
+      <c r="D117" s="143"/>
+      <c r="E117" s="143"/>
+      <c r="F117" s="143"/>
+      <c r="G117" s="143"/>
+      <c r="H117" s="144"/>
     </row>
     <row r="118" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="158"/>
-      <c r="B118" s="158"/>
-      <c r="C118" s="158"/>
-      <c r="D118" s="158"/>
-      <c r="E118" s="158"/>
-      <c r="F118" s="158"/>
-      <c r="G118" s="158"/>
-      <c r="H118" s="158"/>
+      <c r="A118" s="154"/>
+      <c r="B118" s="154"/>
+      <c r="C118" s="154"/>
+      <c r="D118" s="154"/>
+      <c r="E118" s="154"/>
+      <c r="F118" s="154"/>
+      <c r="G118" s="154"/>
+      <c r="H118" s="154"/>
     </row>
     <row r="119" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A119" s="81" t="s">
@@ -6692,24 +6692,24 @@
       <c r="B119" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C119" s="168"/>
-      <c r="D119" s="169"/>
-      <c r="E119" s="169"/>
-      <c r="F119" s="169"/>
-      <c r="G119" s="169"/>
-      <c r="H119" s="170"/>
+      <c r="C119" s="151"/>
+      <c r="D119" s="152"/>
+      <c r="E119" s="152"/>
+      <c r="F119" s="152"/>
+      <c r="G119" s="152"/>
+      <c r="H119" s="153"/>
     </row>
     <row r="120" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="89" t="s">
         <v>65</v>
       </c>
       <c r="B120" s="90"/>
-      <c r="C120" s="138"/>
-      <c r="D120" s="156"/>
-      <c r="E120" s="156"/>
-      <c r="F120" s="156"/>
-      <c r="G120" s="156"/>
-      <c r="H120" s="157"/>
+      <c r="C120" s="145"/>
+      <c r="D120" s="146"/>
+      <c r="E120" s="146"/>
+      <c r="F120" s="146"/>
+      <c r="G120" s="146"/>
+      <c r="H120" s="147"/>
       <c r="I120" s="132"/>
     </row>
     <row r="121" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6717,16 +6717,119 @@
         <v>45</v>
       </c>
       <c r="B121" s="91"/>
-      <c r="C121" s="165"/>
-      <c r="D121" s="166"/>
-      <c r="E121" s="166"/>
-      <c r="F121" s="166"/>
-      <c r="G121" s="166"/>
-      <c r="H121" s="167"/>
+      <c r="C121" s="142"/>
+      <c r="D121" s="143"/>
+      <c r="E121" s="143"/>
+      <c r="F121" s="143"/>
+      <c r="G121" s="143"/>
+      <c r="H121" s="144"/>
       <c r="I121" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="127">
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="A112:H112"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="A103:H103"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="A67:H67"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C60:H60"/>
     <mergeCell ref="C54:H54"/>
     <mergeCell ref="C121:H121"/>
     <mergeCell ref="C105:H105"/>
@@ -6751,109 +6854,6 @@
     <mergeCell ref="C64:H64"/>
     <mergeCell ref="A58:H58"/>
     <mergeCell ref="C65:H65"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="A67:H67"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="A112:H112"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="A103:H103"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F47:H47"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Competition 2025/2025_FSAE_Design_IC_Spec_Sheet_VU.xlsx
+++ b/Competition 2025/2025_FSAE_Design_IC_Spec_Sheet_VU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egroh\Documents\GitHub\vandymotorsports\Competition 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF76742E-90AF-4123-8E29-CE6B89C99132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA5B90D-986C-4E4B-A88F-DD200C246A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1852,7 +1852,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="278">
   <si>
     <t>Car No.</t>
   </si>
@@ -2888,6 +2888,39 @@
   </si>
   <si>
     <t>1-1</t>
+  </si>
+  <si>
+    <t>Keiser aluminum wheels, outer wheel half 2.5", inner wheel half 5"</t>
+  </si>
+  <si>
+    <t>Pull rod, double a arm, 185 lb/in springs</t>
+  </si>
+  <si>
+    <t>upper upright pickup point can be shimmed</t>
+  </si>
+  <si>
+    <t>upright tophat can be shimmed</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>variable steering arm length for adjusting toe and ackermann, variable caster by shimming upper control arms and swapping clevises, variable cambe by shimming uprights</t>
+  </si>
+  <si>
+    <t>not yet conducted</t>
+  </si>
+  <si>
+    <t>30.24 (CAD)</t>
+  </si>
+  <si>
+    <t>ANSYS FEA</t>
+  </si>
+  <si>
+    <t>standard honeycombs IA</t>
+  </si>
+  <si>
+    <t>20mm OD, 12mm ID, 4130 42-47 HRC Chromoly Steel</t>
   </si>
 </sst>
 </file>
@@ -3701,7 +3734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4099,9 +4132,6 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4126,6 +4156,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4135,48 +4174,234 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4184,205 +4409,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4759,8 +4798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102:H102"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4774,15 +4813,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="182" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
       <c r="H1" s="8">
         <v>2025</v>
       </c>
@@ -4790,60 +4829,60 @@
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="184" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="201" t="s">
+      <c r="A3" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="202"/>
-      <c r="C3" s="203">
+      <c r="B3" s="201"/>
+      <c r="C3" s="172">
         <v>130</v>
       </c>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="205"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="174"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="214" t="s">
+      <c r="A4" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="215"/>
-      <c r="C4" s="225" t="s">
+      <c r="B4" s="148"/>
+      <c r="C4" s="163" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="226"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
-      <c r="H4" s="227"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="165"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="154"/>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
     </row>
     <row r="6" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
@@ -4852,12 +4891,12 @@
       <c r="B6" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="190"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="192"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="191"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
@@ -4869,16 +4908,22 @@
       <c r="C7" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="28"/>
+      <c r="D7" s="28">
+        <v>2292.09</v>
+      </c>
       <c r="E7" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="28">
+        <v>1187</v>
+      </c>
       <c r="G7" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="133"/>
+      <c r="H7" s="29">
+        <v>1152.652</v>
+      </c>
+      <c r="I7" s="228"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
@@ -4922,11 +4967,11 @@
       <c r="E9" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="218" t="s">
+      <c r="F9" s="153" t="s">
         <v>213</v>
       </c>
-      <c r="G9" s="209"/>
-      <c r="H9" s="210"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="151"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
@@ -4938,16 +4983,22 @@
       <c r="C10" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="25">
+        <v>82.23</v>
+      </c>
       <c r="E10" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="25">
+        <v>80.66</v>
+      </c>
       <c r="G10" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="132"/>
+      <c r="H10" s="26">
+        <v>162.9</v>
+      </c>
+      <c r="I10" s="227"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="113" t="s">
@@ -4966,18 +5017,18 @@
       <c r="F11" s="27">
         <v>50.4</v>
       </c>
-      <c r="G11" s="206"/>
-      <c r="H11" s="207"/>
-      <c r="I11" s="137"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="136"/>
     </row>
     <row r="12" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
@@ -4986,16 +5037,16 @@
       <c r="B13" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="193" t="s">
+      <c r="C13" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="194"/>
-      <c r="E13" s="195"/>
-      <c r="F13" s="196" t="s">
+      <c r="D13" s="193"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="194"/>
-      <c r="H13" s="195"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="194"/>
     </row>
     <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
@@ -5005,19 +5056,19 @@
       <c r="C14" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D14" s="135" t="s">
+      <c r="D14" s="134" t="s">
         <v>262</v>
       </c>
-      <c r="E14" s="136" t="s">
+      <c r="E14" s="135" t="s">
         <v>263</v>
       </c>
       <c r="F14" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="G14" s="135" t="s">
+      <c r="G14" s="134" t="s">
         <v>262</v>
       </c>
-      <c r="H14" s="136" t="s">
+      <c r="H14" s="135" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5031,26 +5082,38 @@
       <c r="C15" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="32"/>
+      <c r="D15" s="39">
+        <v>16</v>
+      </c>
+      <c r="E15" s="32">
+        <v>7.5</v>
+      </c>
       <c r="F15" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="133"/>
+      <c r="G15" s="31">
+        <v>16</v>
+      </c>
+      <c r="H15" s="32">
+        <v>7.5</v>
+      </c>
+      <c r="I15" s="228"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="62" t="s">
         <v>202</v>
       </c>
       <c r="B16" s="119"/>
-      <c r="C16" s="219"/>
-      <c r="D16" s="220"/>
-      <c r="E16" s="221"/>
-      <c r="F16" s="219"/>
-      <c r="G16" s="220"/>
-      <c r="H16" s="221"/>
+      <c r="C16" s="154" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" s="155"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="154" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" s="155"/>
+      <c r="H16" s="156"/>
       <c r="I16" s="133"/>
     </row>
     <row r="17" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5058,12 +5121,16 @@
         <v>31</v>
       </c>
       <c r="B17" s="119"/>
-      <c r="C17" s="216"/>
-      <c r="D17" s="209"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="217"/>
-      <c r="G17" s="209"/>
-      <c r="H17" s="210"/>
+      <c r="C17" s="149" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" s="150"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="152" t="s">
+        <v>267</v>
+      </c>
+      <c r="G17" s="150"/>
+      <c r="H17" s="151"/>
       <c r="I17" s="133"/>
     </row>
     <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5076,13 +5143,21 @@
       <c r="C18" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="32"/>
+      <c r="D18" s="39">
+        <v>42</v>
+      </c>
+      <c r="E18" s="32">
+        <v>8</v>
+      </c>
       <c r="F18" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
+      <c r="G18" s="31">
+        <v>43</v>
+      </c>
+      <c r="H18" s="32">
+        <v>7</v>
+      </c>
       <c r="I18" s="133"/>
     </row>
     <row r="19" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5092,12 +5167,16 @@
       <c r="B19" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="167"/>
+      <c r="C19" s="33">
+        <v>29</v>
+      </c>
+      <c r="D19" s="159"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="34">
+        <v>41</v>
+      </c>
+      <c r="G19" s="159"/>
+      <c r="H19" s="160"/>
       <c r="I19" s="133"/>
     </row>
     <row r="20" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5107,12 +5186,16 @@
       <c r="B20" s="119" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="167"/>
+      <c r="C20" s="33">
+        <v>299</v>
+      </c>
+      <c r="D20" s="159"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="34">
+        <v>465</v>
+      </c>
+      <c r="G20" s="159"/>
+      <c r="H20" s="160"/>
       <c r="I20" s="133"/>
     </row>
     <row r="21" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5122,12 +5205,16 @@
       <c r="B21" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="167"/>
+      <c r="C21" s="35">
+        <v>2.44</v>
+      </c>
+      <c r="D21" s="159"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="36">
+        <v>3.2</v>
+      </c>
+      <c r="G21" s="159"/>
+      <c r="H21" s="160"/>
       <c r="I21" s="133"/>
     </row>
     <row r="22" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5137,16 +5224,24 @@
       <c r="B22" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="49">
+        <v>105.5</v>
+      </c>
       <c r="D22" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="38"/>
+      <c r="E22" s="14">
+        <v>76.2</v>
+      </c>
+      <c r="F22" s="38">
+        <v>76.5</v>
+      </c>
       <c r="G22" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="14">
+        <v>76.2</v>
+      </c>
       <c r="I22" s="133"/>
     </row>
     <row r="23" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5156,16 +5251,22 @@
       <c r="B23" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="49"/>
+      <c r="C23" s="49">
+        <v>105.5</v>
+      </c>
       <c r="D23" s="97" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="14"/>
-      <c r="F23" s="38"/>
+      <c r="F23" s="38">
+        <v>76.5</v>
+      </c>
       <c r="G23" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="H23" s="14"/>
+      <c r="H23" s="14">
+        <v>76.2</v>
+      </c>
       <c r="I23" s="133"/>
     </row>
     <row r="24" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5201,12 +5302,16 @@
       <c r="B25" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="166"/>
-      <c r="H25" s="167"/>
+      <c r="C25" s="50">
+        <v>35.5</v>
+      </c>
+      <c r="D25" s="159"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="17">
+        <v>31</v>
+      </c>
+      <c r="G25" s="159"/>
+      <c r="H25" s="160"/>
       <c r="I25" s="133"/>
     </row>
     <row r="26" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5216,12 +5321,16 @@
       <c r="B26" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="166"/>
-      <c r="H26" s="167"/>
+      <c r="C26" s="50">
+        <v>0.7</v>
+      </c>
+      <c r="D26" s="159"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="G26" s="159"/>
+      <c r="H26" s="160"/>
       <c r="I26" s="133"/>
     </row>
     <row r="27" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5234,13 +5343,13 @@
       <c r="C27" s="37">
         <v>0</v>
       </c>
-      <c r="D27" s="166"/>
-      <c r="E27" s="167"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="160"/>
       <c r="F27" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="G27" s="166"/>
-      <c r="H27" s="167"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="160"/>
     </row>
     <row r="28" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="s">
@@ -5252,25 +5361,29 @@
       <c r="C28" s="37">
         <v>-0.8</v>
       </c>
-      <c r="D28" s="166"/>
-      <c r="E28" s="167"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="160"/>
       <c r="F28" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="G28" s="166"/>
-      <c r="H28" s="167"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="160"/>
     </row>
     <row r="29" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="62" t="s">
         <v>96</v>
       </c>
       <c r="B29" s="119"/>
-      <c r="C29" s="200"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="224"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="147"/>
+      <c r="C29" s="199" t="s">
+        <v>269</v>
+      </c>
+      <c r="D29" s="142"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="161" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" s="142"/>
+      <c r="H29" s="143"/>
       <c r="I29" s="133"/>
     </row>
     <row r="30" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5280,13 +5393,17 @@
       <c r="B30" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="133"/>
+      <c r="C30" s="49">
+        <v>0</v>
+      </c>
+      <c r="D30" s="159"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" s="159"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="228"/>
     </row>
     <row r="31" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="114" t="s">
@@ -5295,13 +5412,17 @@
       <c r="B31" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="166"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="133"/>
+      <c r="C31" s="50">
+        <v>48.26</v>
+      </c>
+      <c r="D31" s="159"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="51">
+        <v>93.944999999999993</v>
+      </c>
+      <c r="G31" s="159"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="228"/>
     </row>
     <row r="32" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="62" t="s">
@@ -5313,13 +5434,21 @@
       <c r="C32" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="32"/>
+      <c r="D32" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="32">
+        <v>24.5</v>
+      </c>
       <c r="F32" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="32"/>
+      <c r="G32" s="31">
+        <v>1</v>
+      </c>
+      <c r="H32" s="32">
+        <v>17</v>
+      </c>
       <c r="I32" s="133"/>
     </row>
     <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5336,11 +5465,16 @@
       <c r="E33" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="F33" s="53"/>
+      <c r="F33" s="53">
+        <v>19.2</v>
+      </c>
       <c r="G33" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="H33" s="54"/>
+      <c r="H33" s="54">
+        <v>15.9</v>
+      </c>
+      <c r="I33" s="133"/>
     </row>
     <row r="34" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="62" t="s">
@@ -5350,13 +5484,17 @@
       <c r="C34" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="D34" s="45"/>
+      <c r="D34" s="45">
+        <v>6.6</v>
+      </c>
       <c r="E34" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="222"/>
-      <c r="H34" s="223"/>
+      <c r="F34" s="45">
+        <v>42.2</v>
+      </c>
+      <c r="G34" s="157"/>
+      <c r="H34" s="158"/>
       <c r="I34" s="133"/>
     </row>
     <row r="35" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5366,14 +5504,18 @@
       <c r="B35" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="55"/>
+      <c r="C35" s="55">
+        <v>69</v>
+      </c>
       <c r="D35" s="102" t="s">
         <v>144</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="197"/>
-      <c r="G35" s="198"/>
-      <c r="H35" s="199"/>
+      <c r="E35" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F35" s="196"/>
+      <c r="G35" s="197"/>
+      <c r="H35" s="198"/>
       <c r="I35" s="133"/>
     </row>
     <row r="36" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -5381,13 +5523,15 @@
         <v>172</v>
       </c>
       <c r="B36" s="120"/>
-      <c r="C36" s="208"/>
-      <c r="D36" s="209"/>
-      <c r="E36" s="209"/>
-      <c r="F36" s="209"/>
-      <c r="G36" s="209"/>
-      <c r="H36" s="210"/>
-      <c r="I36" s="133"/>
+      <c r="C36" s="177" t="s">
+        <v>272</v>
+      </c>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="228"/>
     </row>
     <row r="37" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="113" t="s">
@@ -5397,26 +5541,32 @@
       <c r="C37" s="101" t="s">
         <v>187</v>
       </c>
-      <c r="D37" s="56"/>
+      <c r="D37" s="56">
+        <v>4.7</v>
+      </c>
       <c r="E37" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="F37" s="56"/>
+      <c r="F37" s="56">
+        <v>119.8</v>
+      </c>
       <c r="G37" s="106" t="s">
         <v>162</v>
       </c>
-      <c r="H37" s="57"/>
+      <c r="H37" s="57">
+        <v>42.2</v>
+      </c>
       <c r="I37" s="133"/>
     </row>
     <row r="38" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="154"/>
-      <c r="B38" s="154"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
+      <c r="A38" s="162"/>
+      <c r="B38" s="162"/>
+      <c r="C38" s="162"/>
+      <c r="D38" s="162"/>
+      <c r="E38" s="162"/>
+      <c r="F38" s="162"/>
+      <c r="G38" s="162"/>
+      <c r="H38" s="162"/>
     </row>
     <row r="39" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="60" t="s">
@@ -5425,80 +5575,80 @@
       <c r="B39" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="193" t="s">
+      <c r="C39" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="194"/>
-      <c r="E39" s="195"/>
-      <c r="F39" s="193" t="s">
+      <c r="D39" s="193"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="194"/>
-      <c r="H39" s="195"/>
+      <c r="G39" s="193"/>
+      <c r="H39" s="194"/>
     </row>
     <row r="40" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="68"/>
-      <c r="C40" s="145" t="s">
+      <c r="C40" s="141" t="s">
         <v>246</v>
       </c>
-      <c r="D40" s="146"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="145" t="s">
+      <c r="D40" s="142"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="141" t="s">
         <v>246</v>
       </c>
-      <c r="G40" s="146"/>
-      <c r="H40" s="147"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="143"/>
     </row>
     <row r="41" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="68"/>
-      <c r="C41" s="145" t="s">
+      <c r="C41" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="D41" s="146"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="145" t="s">
+      <c r="D41" s="142"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="G41" s="146"/>
-      <c r="H41" s="147"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="143"/>
     </row>
     <row r="42" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="62" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="68"/>
-      <c r="C42" s="145" t="s">
+      <c r="C42" s="141" t="s">
         <v>248</v>
       </c>
-      <c r="D42" s="146"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="145" t="s">
+      <c r="D42" s="142"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="141" t="s">
         <v>248</v>
       </c>
-      <c r="G42" s="146"/>
-      <c r="H42" s="147"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="143"/>
     </row>
     <row r="43" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="62" t="s">
         <v>181</v>
       </c>
       <c r="B43" s="68"/>
-      <c r="C43" s="145" t="s">
+      <c r="C43" s="141" t="s">
         <v>249</v>
       </c>
-      <c r="D43" s="146"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="145" t="s">
+      <c r="D43" s="142"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="141" t="s">
         <v>249</v>
       </c>
-      <c r="G43" s="146"/>
-      <c r="H43" s="147"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="143"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="114" t="s">
@@ -5529,58 +5679,58 @@
         <v>37</v>
       </c>
       <c r="B45" s="69"/>
-      <c r="C45" s="145" t="s">
+      <c r="C45" s="141" t="s">
         <v>250</v>
       </c>
-      <c r="D45" s="146"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="145" t="s">
+      <c r="D45" s="142"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="141" t="s">
         <v>251</v>
       </c>
-      <c r="G45" s="146"/>
-      <c r="H45" s="147"/>
+      <c r="G45" s="142"/>
+      <c r="H45" s="143"/>
     </row>
     <row r="46" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="62" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="68"/>
-      <c r="C46" s="145" t="s">
+      <c r="C46" s="141" t="s">
         <v>252</v>
       </c>
-      <c r="D46" s="146"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="145" t="s">
+      <c r="D46" s="142"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="141" t="s">
         <v>253</v>
       </c>
-      <c r="G46" s="146"/>
-      <c r="H46" s="147"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="143"/>
     </row>
     <row r="47" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="64" t="s">
         <v>24</v>
       </c>
       <c r="B47" s="70"/>
-      <c r="C47" s="142" t="s">
+      <c r="C47" s="144" t="s">
         <v>254</v>
       </c>
-      <c r="D47" s="143"/>
-      <c r="E47" s="144"/>
-      <c r="F47" s="142" t="s">
+      <c r="D47" s="145"/>
+      <c r="E47" s="146"/>
+      <c r="F47" s="144" t="s">
         <v>255</v>
       </c>
-      <c r="G47" s="143"/>
-      <c r="H47" s="144"/>
+      <c r="G47" s="145"/>
+      <c r="H47" s="146"/>
     </row>
     <row r="48" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="154"/>
-      <c r="B48" s="154"/>
-      <c r="C48" s="154"/>
-      <c r="D48" s="154"/>
-      <c r="E48" s="154"/>
-      <c r="F48" s="154"/>
-      <c r="G48" s="154"/>
-      <c r="H48" s="154"/>
+      <c r="A48" s="162"/>
+      <c r="B48" s="162"/>
+      <c r="C48" s="162"/>
+      <c r="D48" s="162"/>
+      <c r="E48" s="162"/>
+      <c r="F48" s="162"/>
+      <c r="G48" s="162"/>
+      <c r="H48" s="162"/>
     </row>
     <row r="49" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="60" t="s">
@@ -5589,40 +5739,40 @@
       <c r="B49" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="151"/>
-      <c r="D49" s="152"/>
-      <c r="E49" s="152"/>
-      <c r="F49" s="152"/>
-      <c r="G49" s="152"/>
-      <c r="H49" s="153"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="167"/>
+      <c r="E49" s="167"/>
+      <c r="F49" s="167"/>
+      <c r="G49" s="167"/>
+      <c r="H49" s="168"/>
     </row>
     <row r="50" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="62" t="s">
         <v>9</v>
       </c>
       <c r="B50" s="72"/>
-      <c r="C50" s="139" t="s">
+      <c r="C50" s="138" t="s">
         <v>240</v>
       </c>
-      <c r="D50" s="140"/>
-      <c r="E50" s="140"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="141"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="139"/>
+      <c r="H50" s="140"/>
     </row>
     <row r="51" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="62" t="s">
         <v>57</v>
       </c>
       <c r="B51" s="72"/>
-      <c r="C51" s="139" t="s">
+      <c r="C51" s="138" t="s">
         <v>241</v>
       </c>
-      <c r="D51" s="140"/>
-      <c r="E51" s="140"/>
-      <c r="F51" s="140"/>
-      <c r="G51" s="140"/>
-      <c r="H51" s="141"/>
+      <c r="D51" s="139"/>
+      <c r="E51" s="139"/>
+      <c r="F51" s="139"/>
+      <c r="G51" s="139"/>
+      <c r="H51" s="140"/>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="62" t="s">
@@ -5638,87 +5788,87 @@
       <c r="E52" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="F52" s="211" t="s">
+      <c r="F52" s="169" t="s">
         <v>242</v>
       </c>
-      <c r="G52" s="212"/>
-      <c r="H52" s="213"/>
+      <c r="G52" s="170"/>
+      <c r="H52" s="171"/>
     </row>
     <row r="53" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="62" t="s">
         <v>32</v>
       </c>
       <c r="B53" s="72"/>
-      <c r="C53" s="139" t="s">
+      <c r="C53" s="138" t="s">
         <v>243</v>
       </c>
-      <c r="D53" s="140"/>
-      <c r="E53" s="140"/>
-      <c r="F53" s="140"/>
-      <c r="G53" s="140"/>
-      <c r="H53" s="141"/>
+      <c r="D53" s="139"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="139"/>
+      <c r="G53" s="139"/>
+      <c r="H53" s="140"/>
     </row>
     <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="62" t="s">
         <v>33</v>
       </c>
       <c r="B54" s="72"/>
-      <c r="C54" s="139" t="s">
+      <c r="C54" s="138" t="s">
         <v>244</v>
       </c>
-      <c r="D54" s="140"/>
-      <c r="E54" s="140"/>
-      <c r="F54" s="140"/>
-      <c r="G54" s="140"/>
-      <c r="H54" s="141"/>
+      <c r="D54" s="139"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="139"/>
+      <c r="G54" s="139"/>
+      <c r="H54" s="140"/>
     </row>
     <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="62" t="s">
         <v>34</v>
       </c>
       <c r="B55" s="72"/>
-      <c r="C55" s="139" t="s">
+      <c r="C55" s="138" t="s">
         <v>245</v>
       </c>
-      <c r="D55" s="140"/>
-      <c r="E55" s="140"/>
-      <c r="F55" s="140"/>
-      <c r="G55" s="140"/>
-      <c r="H55" s="141"/>
+      <c r="D55" s="139"/>
+      <c r="E55" s="139"/>
+      <c r="F55" s="139"/>
+      <c r="G55" s="139"/>
+      <c r="H55" s="140"/>
     </row>
     <row r="56" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="73" t="s">
         <v>180</v>
       </c>
       <c r="B56" s="74"/>
-      <c r="C56" s="187" t="s">
+      <c r="C56" s="186" t="s">
         <v>217</v>
       </c>
-      <c r="D56" s="188"/>
-      <c r="E56" s="188"/>
-      <c r="F56" s="188"/>
-      <c r="G56" s="188"/>
-      <c r="H56" s="189"/>
+      <c r="D56" s="187"/>
+      <c r="E56" s="187"/>
+      <c r="F56" s="187"/>
+      <c r="G56" s="187"/>
+      <c r="H56" s="188"/>
     </row>
     <row r="57" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="165"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
-      <c r="E57" s="165"/>
-      <c r="F57" s="165"/>
-      <c r="G57" s="165"/>
-      <c r="H57" s="165"/>
+      <c r="A57" s="216"/>
+      <c r="B57" s="216"/>
+      <c r="C57" s="216"/>
+      <c r="D57" s="216"/>
+      <c r="E57" s="216"/>
+      <c r="F57" s="216"/>
+      <c r="G57" s="216"/>
+      <c r="H57" s="216"/>
     </row>
     <row r="58" spans="1:9" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="164"/>
-      <c r="B58" s="164"/>
-      <c r="C58" s="164"/>
-      <c r="D58" s="164"/>
-      <c r="E58" s="164"/>
-      <c r="F58" s="164"/>
-      <c r="G58" s="164"/>
-      <c r="H58" s="164"/>
+      <c r="A58" s="226"/>
+      <c r="B58" s="226"/>
+      <c r="C58" s="226"/>
+      <c r="D58" s="226"/>
+      <c r="E58" s="226"/>
+      <c r="F58" s="226"/>
+      <c r="G58" s="226"/>
+      <c r="H58" s="226"/>
     </row>
     <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="60" t="s">
@@ -5727,123 +5877,123 @@
       <c r="B59" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="151"/>
-      <c r="D59" s="152"/>
-      <c r="E59" s="152"/>
-      <c r="F59" s="152"/>
-      <c r="G59" s="152"/>
-      <c r="H59" s="153"/>
+      <c r="C59" s="166"/>
+      <c r="D59" s="167"/>
+      <c r="E59" s="167"/>
+      <c r="F59" s="167"/>
+      <c r="G59" s="167"/>
+      <c r="H59" s="168"/>
     </row>
     <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="62" t="s">
         <v>177</v>
       </c>
       <c r="B60" s="75"/>
-      <c r="C60" s="145" t="s">
+      <c r="C60" s="141" t="s">
         <v>260</v>
       </c>
-      <c r="D60" s="162"/>
-      <c r="E60" s="162"/>
-      <c r="F60" s="162"/>
-      <c r="G60" s="162"/>
-      <c r="H60" s="163"/>
-      <c r="I60" s="134"/>
+      <c r="D60" s="218"/>
+      <c r="E60" s="218"/>
+      <c r="F60" s="218"/>
+      <c r="G60" s="218"/>
+      <c r="H60" s="219"/>
+      <c r="I60" s="133"/>
     </row>
     <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="62" t="s">
         <v>58</v>
       </c>
       <c r="B61" s="75"/>
-      <c r="C61" s="139" t="s">
+      <c r="C61" s="138" t="s">
         <v>259</v>
       </c>
-      <c r="D61" s="140"/>
-      <c r="E61" s="140"/>
-      <c r="F61" s="140"/>
-      <c r="G61" s="140"/>
-      <c r="H61" s="141"/>
-      <c r="I61" s="134"/>
+      <c r="D61" s="139"/>
+      <c r="E61" s="139"/>
+      <c r="F61" s="139"/>
+      <c r="G61" s="139"/>
+      <c r="H61" s="140"/>
+      <c r="I61" s="133"/>
     </row>
     <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="62" t="s">
         <v>53</v>
       </c>
       <c r="B62" s="75"/>
-      <c r="C62" s="145" t="s">
+      <c r="C62" s="141" t="s">
         <v>258</v>
       </c>
-      <c r="D62" s="162"/>
-      <c r="E62" s="162"/>
-      <c r="F62" s="162"/>
-      <c r="G62" s="162"/>
-      <c r="H62" s="163"/>
-      <c r="I62" s="134"/>
+      <c r="D62" s="218"/>
+      <c r="E62" s="218"/>
+      <c r="F62" s="218"/>
+      <c r="G62" s="218"/>
+      <c r="H62" s="219"/>
+      <c r="I62" s="133"/>
     </row>
     <row r="63" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="62" t="s">
         <v>54</v>
       </c>
       <c r="B63" s="72"/>
-      <c r="C63" s="139" t="s">
+      <c r="C63" s="138" t="s">
         <v>257</v>
       </c>
-      <c r="D63" s="140"/>
-      <c r="E63" s="140"/>
-      <c r="F63" s="140"/>
-      <c r="G63" s="140"/>
-      <c r="H63" s="141"/>
+      <c r="D63" s="139"/>
+      <c r="E63" s="139"/>
+      <c r="F63" s="139"/>
+      <c r="G63" s="139"/>
+      <c r="H63" s="140"/>
     </row>
     <row r="64" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="62" t="s">
         <v>51</v>
       </c>
       <c r="B64" s="75"/>
-      <c r="C64" s="139" t="s">
+      <c r="C64" s="138" t="s">
         <v>217</v>
       </c>
-      <c r="D64" s="140"/>
-      <c r="E64" s="140"/>
-      <c r="F64" s="140"/>
-      <c r="G64" s="140"/>
-      <c r="H64" s="141"/>
+      <c r="D64" s="139"/>
+      <c r="E64" s="139"/>
+      <c r="F64" s="139"/>
+      <c r="G64" s="139"/>
+      <c r="H64" s="140"/>
     </row>
     <row r="65" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="62" t="s">
         <v>55</v>
       </c>
       <c r="B65" s="75"/>
-      <c r="C65" s="139" t="s">
+      <c r="C65" s="138" t="s">
         <v>256</v>
       </c>
-      <c r="D65" s="140"/>
-      <c r="E65" s="140"/>
-      <c r="F65" s="140"/>
-      <c r="G65" s="140"/>
-      <c r="H65" s="141"/>
+      <c r="D65" s="139"/>
+      <c r="E65" s="139"/>
+      <c r="F65" s="139"/>
+      <c r="G65" s="139"/>
+      <c r="H65" s="140"/>
     </row>
     <row r="66" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="64" t="s">
         <v>52</v>
       </c>
       <c r="B66" s="76"/>
-      <c r="C66" s="159" t="s">
+      <c r="C66" s="223" t="s">
         <v>217</v>
       </c>
-      <c r="D66" s="160"/>
-      <c r="E66" s="160"/>
-      <c r="F66" s="160"/>
-      <c r="G66" s="160"/>
-      <c r="H66" s="161"/>
+      <c r="D66" s="224"/>
+      <c r="E66" s="224"/>
+      <c r="F66" s="224"/>
+      <c r="G66" s="224"/>
+      <c r="H66" s="225"/>
     </row>
     <row r="67" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="154"/>
-      <c r="B67" s="154"/>
-      <c r="C67" s="154"/>
-      <c r="D67" s="154"/>
-      <c r="E67" s="154"/>
-      <c r="F67" s="154"/>
-      <c r="G67" s="154"/>
-      <c r="H67" s="154"/>
+      <c r="A67" s="162"/>
+      <c r="B67" s="162"/>
+      <c r="C67" s="162"/>
+      <c r="D67" s="162"/>
+      <c r="E67" s="162"/>
+      <c r="F67" s="162"/>
+      <c r="G67" s="162"/>
+      <c r="H67" s="162"/>
     </row>
     <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="60" t="s">
@@ -5852,54 +6002,54 @@
       <c r="B68" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C68" s="151"/>
-      <c r="D68" s="152"/>
-      <c r="E68" s="152"/>
-      <c r="F68" s="152"/>
-      <c r="G68" s="152"/>
-      <c r="H68" s="153"/>
+      <c r="C68" s="166"/>
+      <c r="D68" s="167"/>
+      <c r="E68" s="167"/>
+      <c r="F68" s="167"/>
+      <c r="G68" s="167"/>
+      <c r="H68" s="168"/>
     </row>
     <row r="69" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="77" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="78"/>
-      <c r="C69" s="139" t="s">
+      <c r="C69" s="138" t="s">
         <v>235</v>
       </c>
-      <c r="D69" s="140"/>
-      <c r="E69" s="140"/>
-      <c r="F69" s="140"/>
-      <c r="G69" s="140"/>
-      <c r="H69" s="141"/>
+      <c r="D69" s="139"/>
+      <c r="E69" s="139"/>
+      <c r="F69" s="139"/>
+      <c r="G69" s="139"/>
+      <c r="H69" s="140"/>
     </row>
     <row r="70" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A70" s="77" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="78"/>
-      <c r="C70" s="139" t="s">
+      <c r="C70" s="138" t="s">
         <v>236</v>
       </c>
-      <c r="D70" s="140"/>
-      <c r="E70" s="140"/>
-      <c r="F70" s="140"/>
-      <c r="G70" s="140"/>
-      <c r="H70" s="141"/>
+      <c r="D70" s="139"/>
+      <c r="E70" s="139"/>
+      <c r="F70" s="139"/>
+      <c r="G70" s="139"/>
+      <c r="H70" s="140"/>
     </row>
     <row r="71" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="77" t="s">
         <v>7</v>
       </c>
       <c r="B71" s="125"/>
-      <c r="C71" s="139" t="s">
+      <c r="C71" s="138" t="s">
         <v>237</v>
       </c>
-      <c r="D71" s="140"/>
-      <c r="E71" s="140"/>
-      <c r="F71" s="140"/>
-      <c r="G71" s="140"/>
-      <c r="H71" s="141"/>
+      <c r="D71" s="139"/>
+      <c r="E71" s="139"/>
+      <c r="F71" s="139"/>
+      <c r="G71" s="139"/>
+      <c r="H71" s="140"/>
     </row>
     <row r="72" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" s="115" t="s">
@@ -5911,16 +6061,20 @@
       <c r="C72" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="D72" s="45"/>
+      <c r="D72" s="45">
+        <v>34</v>
+      </c>
       <c r="E72" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="F72" s="45"/>
-      <c r="G72" s="166"/>
-      <c r="H72" s="167"/>
-      <c r="I72" s="133"/>
-    </row>
-    <row r="73" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="F72" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="G72" s="159"/>
+      <c r="H72" s="160"/>
+      <c r="I72" s="228"/>
+    </row>
+    <row r="73" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A73" s="77" t="s">
         <v>106</v>
       </c>
@@ -5930,42 +6084,52 @@
       <c r="C73" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="D73" s="46"/>
+      <c r="D73" s="46">
+        <v>1200</v>
+      </c>
       <c r="E73" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="F73" s="46"/>
+      <c r="F73" s="46">
+        <v>1243</v>
+      </c>
       <c r="G73" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="H73" s="41"/>
-      <c r="I73" s="133"/>
+      <c r="H73" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="I73" s="228"/>
     </row>
     <row r="74" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="115" t="s">
         <v>105</v>
       </c>
       <c r="B74" s="125"/>
-      <c r="C74" s="139"/>
-      <c r="D74" s="140"/>
-      <c r="E74" s="140"/>
-      <c r="F74" s="140"/>
-      <c r="G74" s="140"/>
-      <c r="H74" s="141"/>
-      <c r="I74" s="133"/>
+      <c r="C74" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="D74" s="139"/>
+      <c r="E74" s="139"/>
+      <c r="F74" s="139"/>
+      <c r="G74" s="139"/>
+      <c r="H74" s="140"/>
+      <c r="I74" s="228"/>
     </row>
     <row r="75" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A75" s="77" t="s">
         <v>169</v>
       </c>
       <c r="B75" s="125"/>
-      <c r="C75" s="139"/>
-      <c r="D75" s="140"/>
-      <c r="E75" s="140"/>
-      <c r="F75" s="140"/>
-      <c r="G75" s="140"/>
-      <c r="H75" s="141"/>
-      <c r="I75" s="133"/>
+      <c r="C75" s="138" t="s">
+        <v>276</v>
+      </c>
+      <c r="D75" s="139"/>
+      <c r="E75" s="139"/>
+      <c r="F75" s="139"/>
+      <c r="G75" s="139"/>
+      <c r="H75" s="140"/>
+      <c r="I75" s="228"/>
     </row>
     <row r="76" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A76" s="77" t="s">
@@ -6009,21 +6173,21 @@
       <c r="E77" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="F77" s="168" t="s">
+      <c r="F77" s="217" t="s">
         <v>239</v>
       </c>
-      <c r="G77" s="143"/>
-      <c r="H77" s="144"/>
+      <c r="G77" s="145"/>
+      <c r="H77" s="146"/>
     </row>
     <row r="78" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="169"/>
-      <c r="B78" s="169"/>
-      <c r="C78" s="169"/>
-      <c r="D78" s="169"/>
-      <c r="E78" s="169"/>
-      <c r="F78" s="169"/>
-      <c r="G78" s="169"/>
-      <c r="H78" s="169"/>
+      <c r="A78" s="204"/>
+      <c r="B78" s="204"/>
+      <c r="C78" s="204"/>
+      <c r="D78" s="204"/>
+      <c r="E78" s="204"/>
+      <c r="F78" s="204"/>
+      <c r="G78" s="204"/>
+      <c r="H78" s="204"/>
     </row>
     <row r="79" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A79" s="81" t="s">
@@ -6032,43 +6196,43 @@
       <c r="B79" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="151"/>
-      <c r="D79" s="152"/>
-      <c r="E79" s="152"/>
-      <c r="F79" s="152"/>
-      <c r="G79" s="152"/>
-      <c r="H79" s="153"/>
+      <c r="C79" s="166"/>
+      <c r="D79" s="167"/>
+      <c r="E79" s="167"/>
+      <c r="F79" s="167"/>
+      <c r="G79" s="167"/>
+      <c r="H79" s="168"/>
     </row>
     <row r="80" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A80" s="77" t="s">
         <v>63</v>
       </c>
       <c r="B80" s="78"/>
-      <c r="C80" s="145" t="s">
+      <c r="C80" s="141" t="s">
         <v>233</v>
       </c>
-      <c r="D80" s="146"/>
-      <c r="E80" s="146"/>
-      <c r="F80" s="146"/>
-      <c r="G80" s="146"/>
-      <c r="H80" s="147"/>
+      <c r="D80" s="142"/>
+      <c r="E80" s="142"/>
+      <c r="F80" s="142"/>
+      <c r="G80" s="142"/>
+      <c r="H80" s="143"/>
     </row>
     <row r="81" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A81" s="77" t="s">
         <v>117</v>
       </c>
       <c r="B81" s="125"/>
-      <c r="C81" s="155" t="s">
+      <c r="C81" s="180" t="s">
         <v>112</v>
       </c>
-      <c r="D81" s="156"/>
+      <c r="D81" s="181"/>
       <c r="E81" s="28">
         <v>1</v>
       </c>
-      <c r="F81" s="157" t="s">
+      <c r="F81" s="202" t="s">
         <v>174</v>
       </c>
-      <c r="G81" s="158"/>
+      <c r="G81" s="203"/>
       <c r="H81" s="22" t="s">
         <v>234</v>
       </c>
@@ -6078,17 +6242,17 @@
         <v>116</v>
       </c>
       <c r="B82" s="125"/>
-      <c r="C82" s="155" t="s">
+      <c r="C82" s="180" t="s">
         <v>113</v>
       </c>
-      <c r="D82" s="156"/>
+      <c r="D82" s="181"/>
       <c r="E82" s="28">
         <v>501</v>
       </c>
-      <c r="F82" s="157" t="s">
+      <c r="F82" s="202" t="s">
         <v>114</v>
       </c>
-      <c r="G82" s="158"/>
+      <c r="G82" s="203"/>
       <c r="H82" s="32">
         <v>12.5</v>
       </c>
@@ -6100,17 +6264,17 @@
       <c r="B83" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="C83" s="155" t="s">
+      <c r="C83" s="180" t="s">
         <v>154</v>
       </c>
-      <c r="D83" s="156"/>
+      <c r="D83" s="181"/>
       <c r="E83" s="39">
         <v>98</v>
       </c>
-      <c r="F83" s="157" t="s">
+      <c r="F83" s="202" t="s">
         <v>155</v>
       </c>
-      <c r="G83" s="158"/>
+      <c r="G83" s="203"/>
       <c r="H83" s="32">
         <v>66.400000000000006</v>
       </c>
@@ -6132,8 +6296,8 @@
       <c r="F84" s="13">
         <v>29.8</v>
       </c>
-      <c r="G84" s="181"/>
-      <c r="H84" s="182"/>
+      <c r="G84" s="178"/>
+      <c r="H84" s="179"/>
     </row>
     <row r="85" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A85" s="77" t="s">
@@ -6167,56 +6331,56 @@
         <v>210</v>
       </c>
       <c r="B86" s="125"/>
-      <c r="C86" s="145" t="s">
+      <c r="C86" s="141" t="s">
         <v>232</v>
       </c>
-      <c r="D86" s="146"/>
-      <c r="E86" s="146"/>
-      <c r="F86" s="146"/>
-      <c r="G86" s="146"/>
-      <c r="H86" s="147"/>
+      <c r="D86" s="142"/>
+      <c r="E86" s="142"/>
+      <c r="F86" s="142"/>
+      <c r="G86" s="142"/>
+      <c r="H86" s="143"/>
     </row>
     <row r="87" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A87" s="77" t="s">
         <v>47</v>
       </c>
       <c r="B87" s="125"/>
-      <c r="C87" s="145" t="s">
+      <c r="C87" s="141" t="s">
         <v>231</v>
       </c>
-      <c r="D87" s="146"/>
-      <c r="E87" s="146"/>
-      <c r="F87" s="146"/>
-      <c r="G87" s="146"/>
-      <c r="H87" s="147"/>
+      <c r="D87" s="142"/>
+      <c r="E87" s="142"/>
+      <c r="F87" s="142"/>
+      <c r="G87" s="142"/>
+      <c r="H87" s="143"/>
     </row>
     <row r="88" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A88" s="115" t="s">
         <v>56</v>
       </c>
       <c r="B88" s="125"/>
-      <c r="C88" s="145" t="s">
+      <c r="C88" s="141" t="s">
         <v>230</v>
       </c>
-      <c r="D88" s="146"/>
-      <c r="E88" s="146"/>
-      <c r="F88" s="146"/>
-      <c r="G88" s="146"/>
-      <c r="H88" s="147"/>
+      <c r="D88" s="142"/>
+      <c r="E88" s="142"/>
+      <c r="F88" s="142"/>
+      <c r="G88" s="142"/>
+      <c r="H88" s="143"/>
     </row>
     <row r="89" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A89" s="115" t="s">
         <v>124</v>
       </c>
       <c r="B89" s="125"/>
-      <c r="C89" s="145" t="s">
+      <c r="C89" s="141" t="s">
         <v>229</v>
       </c>
-      <c r="D89" s="146"/>
-      <c r="E89" s="146"/>
-      <c r="F89" s="146"/>
-      <c r="G89" s="146"/>
-      <c r="H89" s="147"/>
+      <c r="D89" s="142"/>
+      <c r="E89" s="142"/>
+      <c r="F89" s="142"/>
+      <c r="G89" s="142"/>
+      <c r="H89" s="143"/>
     </row>
     <row r="90" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A90" s="77" t="s">
@@ -6228,25 +6392,25 @@
       <c r="C90" s="20">
         <v>2.76</v>
       </c>
-      <c r="D90" s="176"/>
-      <c r="E90" s="177"/>
-      <c r="F90" s="177"/>
-      <c r="G90" s="177"/>
-      <c r="H90" s="178"/>
+      <c r="D90" s="211"/>
+      <c r="E90" s="212"/>
+      <c r="F90" s="212"/>
+      <c r="G90" s="212"/>
+      <c r="H90" s="213"/>
     </row>
     <row r="91" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A91" s="77" t="s">
         <v>18</v>
       </c>
       <c r="B91" s="125"/>
-      <c r="C91" s="145" t="s">
+      <c r="C91" s="141" t="s">
         <v>228</v>
       </c>
-      <c r="D91" s="146"/>
-      <c r="E91" s="146"/>
-      <c r="F91" s="146"/>
-      <c r="G91" s="146"/>
-      <c r="H91" s="147"/>
+      <c r="D91" s="142"/>
+      <c r="E91" s="142"/>
+      <c r="F91" s="142"/>
+      <c r="G91" s="142"/>
+      <c r="H91" s="143"/>
     </row>
     <row r="92" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A92" s="77" t="s">
@@ -6259,10 +6423,10 @@
       <c r="D92" s="46">
         <v>1709</v>
       </c>
-      <c r="E92" s="171" t="s">
+      <c r="E92" s="206" t="s">
         <v>121</v>
       </c>
-      <c r="F92" s="172"/>
+      <c r="F92" s="207"/>
       <c r="G92" s="31">
         <v>190</v>
       </c>
@@ -6273,13 +6437,13 @@
         <v>150</v>
       </c>
       <c r="B93" s="125"/>
-      <c r="C93" s="138" t="s">
+      <c r="C93" s="137" t="s">
         <v>266</v>
       </c>
-      <c r="D93" s="179" t="s">
+      <c r="D93" s="214" t="s">
         <v>152</v>
       </c>
-      <c r="E93" s="180"/>
+      <c r="E93" s="215"/>
       <c r="F93" s="45">
         <v>2390</v>
       </c>
@@ -6307,78 +6471,78 @@
       <c r="F94" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="G94" s="166"/>
-      <c r="H94" s="167"/>
+      <c r="G94" s="159"/>
+      <c r="H94" s="160"/>
     </row>
     <row r="95" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A95" s="77" t="s">
         <v>46</v>
       </c>
       <c r="B95" s="125"/>
-      <c r="C95" s="145" t="s">
+      <c r="C95" s="141" t="s">
         <v>227</v>
       </c>
-      <c r="D95" s="146"/>
-      <c r="E95" s="146"/>
-      <c r="F95" s="146"/>
-      <c r="G95" s="146"/>
-      <c r="H95" s="147"/>
+      <c r="D95" s="142"/>
+      <c r="E95" s="142"/>
+      <c r="F95" s="142"/>
+      <c r="G95" s="142"/>
+      <c r="H95" s="143"/>
     </row>
     <row r="96" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A96" s="77" t="s">
         <v>16</v>
       </c>
       <c r="B96" s="125"/>
-      <c r="C96" s="145" t="s">
+      <c r="C96" s="141" t="s">
         <v>226</v>
       </c>
-      <c r="D96" s="146"/>
-      <c r="E96" s="146"/>
-      <c r="F96" s="146"/>
-      <c r="G96" s="146"/>
-      <c r="H96" s="147"/>
+      <c r="D96" s="142"/>
+      <c r="E96" s="142"/>
+      <c r="F96" s="142"/>
+      <c r="G96" s="142"/>
+      <c r="H96" s="143"/>
     </row>
     <row r="97" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A97" s="77" t="s">
         <v>40</v>
       </c>
       <c r="B97" s="125"/>
-      <c r="C97" s="145" t="s">
+      <c r="C97" s="141" t="s">
         <v>225</v>
       </c>
-      <c r="D97" s="146"/>
-      <c r="E97" s="146"/>
-      <c r="F97" s="146"/>
-      <c r="G97" s="146"/>
-      <c r="H97" s="147"/>
+      <c r="D97" s="142"/>
+      <c r="E97" s="142"/>
+      <c r="F97" s="142"/>
+      <c r="G97" s="142"/>
+      <c r="H97" s="143"/>
     </row>
     <row r="98" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A98" s="115" t="s">
         <v>194</v>
       </c>
       <c r="B98" s="125"/>
-      <c r="C98" s="145" t="s">
+      <c r="C98" s="141" t="s">
         <v>224</v>
       </c>
-      <c r="D98" s="146"/>
-      <c r="E98" s="146"/>
-      <c r="F98" s="146"/>
-      <c r="G98" s="146"/>
-      <c r="H98" s="147"/>
+      <c r="D98" s="142"/>
+      <c r="E98" s="142"/>
+      <c r="F98" s="142"/>
+      <c r="G98" s="142"/>
+      <c r="H98" s="143"/>
     </row>
     <row r="99" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A99" s="116" t="s">
         <v>15</v>
       </c>
       <c r="B99" s="82"/>
-      <c r="C99" s="173" t="s">
+      <c r="C99" s="208" t="s">
         <v>157</v>
       </c>
-      <c r="D99" s="174"/>
-      <c r="E99" s="174"/>
-      <c r="F99" s="174"/>
-      <c r="G99" s="174"/>
-      <c r="H99" s="175"/>
+      <c r="D99" s="209"/>
+      <c r="E99" s="209"/>
+      <c r="F99" s="209"/>
+      <c r="G99" s="209"/>
+      <c r="H99" s="210"/>
       <c r="I99" s="132"/>
     </row>
     <row r="100" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -6386,12 +6550,12 @@
         <v>39</v>
       </c>
       <c r="B100" s="78"/>
-      <c r="C100" s="145" t="s">
+      <c r="C100" s="141" t="s">
         <v>223</v>
       </c>
-      <c r="D100" s="146"/>
-      <c r="E100" s="146"/>
-      <c r="F100" s="170"/>
+      <c r="D100" s="142"/>
+      <c r="E100" s="142"/>
+      <c r="F100" s="205"/>
       <c r="G100" s="96" t="s">
         <v>175</v>
       </c>
@@ -6404,38 +6568,38 @@
         <v>28</v>
       </c>
       <c r="B101" s="78"/>
-      <c r="C101" s="145" t="s">
+      <c r="C101" s="141" t="s">
         <v>222</v>
       </c>
-      <c r="D101" s="146"/>
-      <c r="E101" s="146"/>
-      <c r="F101" s="146"/>
-      <c r="G101" s="146"/>
-      <c r="H101" s="147"/>
+      <c r="D101" s="142"/>
+      <c r="E101" s="142"/>
+      <c r="F101" s="142"/>
+      <c r="G101" s="142"/>
+      <c r="H101" s="143"/>
     </row>
     <row r="102" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="117" t="s">
         <v>48</v>
       </c>
       <c r="B102" s="80"/>
-      <c r="C102" s="142" t="s">
+      <c r="C102" s="144" t="s">
         <v>221</v>
       </c>
-      <c r="D102" s="143"/>
-      <c r="E102" s="143"/>
-      <c r="F102" s="143"/>
-      <c r="G102" s="143"/>
-      <c r="H102" s="144"/>
+      <c r="D102" s="145"/>
+      <c r="E102" s="145"/>
+      <c r="F102" s="145"/>
+      <c r="G102" s="145"/>
+      <c r="H102" s="146"/>
     </row>
     <row r="103" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="169"/>
-      <c r="B103" s="169"/>
-      <c r="C103" s="169"/>
-      <c r="D103" s="169"/>
-      <c r="E103" s="169"/>
-      <c r="F103" s="169"/>
-      <c r="G103" s="169"/>
-      <c r="H103" s="169"/>
+      <c r="A103" s="204"/>
+      <c r="B103" s="204"/>
+      <c r="C103" s="204"/>
+      <c r="D103" s="204"/>
+      <c r="E103" s="204"/>
+      <c r="F103" s="204"/>
+      <c r="G103" s="204"/>
+      <c r="H103" s="204"/>
     </row>
     <row r="104" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A104" s="81" t="s">
@@ -6444,40 +6608,40 @@
       <c r="B104" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="151"/>
-      <c r="D104" s="152"/>
-      <c r="E104" s="152"/>
-      <c r="F104" s="152"/>
-      <c r="G104" s="152"/>
-      <c r="H104" s="153"/>
+      <c r="C104" s="166"/>
+      <c r="D104" s="167"/>
+      <c r="E104" s="167"/>
+      <c r="F104" s="167"/>
+      <c r="G104" s="167"/>
+      <c r="H104" s="168"/>
     </row>
     <row r="105" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A105" s="77" t="s">
         <v>10</v>
       </c>
       <c r="B105" s="78"/>
-      <c r="C105" s="145" t="s">
+      <c r="C105" s="141" t="s">
         <v>220</v>
       </c>
-      <c r="D105" s="146"/>
-      <c r="E105" s="146"/>
-      <c r="F105" s="146"/>
-      <c r="G105" s="146"/>
-      <c r="H105" s="147"/>
+      <c r="D105" s="142"/>
+      <c r="E105" s="142"/>
+      <c r="F105" s="142"/>
+      <c r="G105" s="142"/>
+      <c r="H105" s="143"/>
     </row>
     <row r="106" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A106" s="77" t="s">
         <v>196</v>
       </c>
       <c r="B106" s="125"/>
-      <c r="C106" s="145" t="s">
+      <c r="C106" s="141" t="s">
         <v>219</v>
       </c>
-      <c r="D106" s="146"/>
-      <c r="E106" s="146"/>
-      <c r="F106" s="146"/>
-      <c r="G106" s="146"/>
-      <c r="H106" s="147"/>
+      <c r="D106" s="142"/>
+      <c r="E106" s="142"/>
+      <c r="F106" s="142"/>
+      <c r="G106" s="142"/>
+      <c r="H106" s="143"/>
     </row>
     <row r="107" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A107" s="77" t="s">
@@ -6489,11 +6653,11 @@
       <c r="C107" s="20">
         <v>1</v>
       </c>
-      <c r="D107" s="148"/>
-      <c r="E107" s="149"/>
-      <c r="F107" s="149"/>
-      <c r="G107" s="149"/>
-      <c r="H107" s="150"/>
+      <c r="D107" s="220"/>
+      <c r="E107" s="221"/>
+      <c r="F107" s="221"/>
+      <c r="G107" s="221"/>
+      <c r="H107" s="222"/>
     </row>
     <row r="108" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A108" s="115" t="s">
@@ -6552,37 +6716,39 @@
         <v>11</v>
       </c>
       <c r="B110" s="78"/>
-      <c r="C110" s="145"/>
-      <c r="D110" s="146"/>
-      <c r="E110" s="146"/>
-      <c r="F110" s="146"/>
-      <c r="G110" s="146"/>
-      <c r="H110" s="147"/>
-      <c r="I110" s="132"/>
+      <c r="C110" s="141" t="s">
+        <v>277</v>
+      </c>
+      <c r="D110" s="142"/>
+      <c r="E110" s="142"/>
+      <c r="F110" s="142"/>
+      <c r="G110" s="142"/>
+      <c r="H110" s="143"/>
+      <c r="I110" s="229"/>
     </row>
     <row r="111" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="79" t="s">
         <v>195</v>
       </c>
       <c r="B111" s="80"/>
-      <c r="C111" s="142" t="s">
+      <c r="C111" s="144" t="s">
         <v>218</v>
       </c>
-      <c r="D111" s="143"/>
-      <c r="E111" s="143"/>
-      <c r="F111" s="143"/>
-      <c r="G111" s="143"/>
-      <c r="H111" s="144"/>
+      <c r="D111" s="145"/>
+      <c r="E111" s="145"/>
+      <c r="F111" s="145"/>
+      <c r="G111" s="145"/>
+      <c r="H111" s="146"/>
     </row>
     <row r="112" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="154"/>
-      <c r="B112" s="154"/>
-      <c r="C112" s="154"/>
-      <c r="D112" s="154"/>
-      <c r="E112" s="154"/>
-      <c r="F112" s="154"/>
-      <c r="G112" s="154"/>
-      <c r="H112" s="154"/>
+      <c r="A112" s="162"/>
+      <c r="B112" s="162"/>
+      <c r="C112" s="162"/>
+      <c r="D112" s="162"/>
+      <c r="E112" s="162"/>
+      <c r="F112" s="162"/>
+      <c r="G112" s="162"/>
+      <c r="H112" s="162"/>
     </row>
     <row r="113" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A113" s="83" t="s">
@@ -6591,26 +6757,26 @@
       <c r="B113" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C113" s="151"/>
-      <c r="D113" s="152"/>
-      <c r="E113" s="152"/>
-      <c r="F113" s="152"/>
-      <c r="G113" s="152"/>
-      <c r="H113" s="153"/>
+      <c r="C113" s="166"/>
+      <c r="D113" s="167"/>
+      <c r="E113" s="167"/>
+      <c r="F113" s="167"/>
+      <c r="G113" s="167"/>
+      <c r="H113" s="168"/>
     </row>
     <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="84" t="s">
         <v>49</v>
       </c>
       <c r="B114" s="85"/>
-      <c r="C114" s="145" t="s">
+      <c r="C114" s="141" t="s">
         <v>214</v>
       </c>
-      <c r="D114" s="146"/>
-      <c r="E114" s="146"/>
-      <c r="F114" s="146"/>
-      <c r="G114" s="146"/>
-      <c r="H114" s="147"/>
+      <c r="D114" s="142"/>
+      <c r="E114" s="142"/>
+      <c r="F114" s="142"/>
+      <c r="G114" s="142"/>
+      <c r="H114" s="143"/>
     </row>
     <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="118" t="s">
@@ -6652,38 +6818,40 @@
       <c r="E116" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="F116" s="42"/>
+      <c r="F116" s="42">
+        <v>0.84</v>
+      </c>
       <c r="G116" s="96" t="s">
         <v>138</v>
       </c>
       <c r="H116" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="I116" s="132"/>
+      <c r="I116" s="229"/>
     </row>
     <row r="117" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="87" t="s">
         <v>50</v>
       </c>
       <c r="B117" s="88"/>
-      <c r="C117" s="142" t="s">
+      <c r="C117" s="144" t="s">
         <v>217</v>
       </c>
-      <c r="D117" s="143"/>
-      <c r="E117" s="143"/>
-      <c r="F117" s="143"/>
-      <c r="G117" s="143"/>
-      <c r="H117" s="144"/>
+      <c r="D117" s="145"/>
+      <c r="E117" s="145"/>
+      <c r="F117" s="145"/>
+      <c r="G117" s="145"/>
+      <c r="H117" s="146"/>
     </row>
     <row r="118" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="154"/>
-      <c r="B118" s="154"/>
-      <c r="C118" s="154"/>
-      <c r="D118" s="154"/>
-      <c r="E118" s="154"/>
-      <c r="F118" s="154"/>
-      <c r="G118" s="154"/>
-      <c r="H118" s="154"/>
+      <c r="A118" s="162"/>
+      <c r="B118" s="162"/>
+      <c r="C118" s="162"/>
+      <c r="D118" s="162"/>
+      <c r="E118" s="162"/>
+      <c r="F118" s="162"/>
+      <c r="G118" s="162"/>
+      <c r="H118" s="162"/>
     </row>
     <row r="119" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A119" s="81" t="s">
@@ -6692,24 +6860,24 @@
       <c r="B119" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C119" s="151"/>
-      <c r="D119" s="152"/>
-      <c r="E119" s="152"/>
-      <c r="F119" s="152"/>
-      <c r="G119" s="152"/>
-      <c r="H119" s="153"/>
+      <c r="C119" s="166"/>
+      <c r="D119" s="167"/>
+      <c r="E119" s="167"/>
+      <c r="F119" s="167"/>
+      <c r="G119" s="167"/>
+      <c r="H119" s="168"/>
     </row>
     <row r="120" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="89" t="s">
         <v>65</v>
       </c>
       <c r="B120" s="90"/>
-      <c r="C120" s="145"/>
-      <c r="D120" s="146"/>
-      <c r="E120" s="146"/>
-      <c r="F120" s="146"/>
-      <c r="G120" s="146"/>
-      <c r="H120" s="147"/>
+      <c r="C120" s="141"/>
+      <c r="D120" s="142"/>
+      <c r="E120" s="142"/>
+      <c r="F120" s="142"/>
+      <c r="G120" s="142"/>
+      <c r="H120" s="143"/>
       <c r="I120" s="132"/>
     </row>
     <row r="121" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6717,16 +6885,119 @@
         <v>45</v>
       </c>
       <c r="B121" s="91"/>
-      <c r="C121" s="142"/>
-      <c r="D121" s="143"/>
-      <c r="E121" s="143"/>
-      <c r="F121" s="143"/>
-      <c r="G121" s="143"/>
-      <c r="H121" s="144"/>
-      <c r="I121" s="132"/>
+      <c r="C121" s="144"/>
+      <c r="D121" s="145"/>
+      <c r="E121" s="145"/>
+      <c r="F121" s="145"/>
+      <c r="G121" s="145"/>
+      <c r="H121" s="146"/>
+      <c r="I121" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="127">
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C105:H105"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C110:H110"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="A118:H118"/>
+    <mergeCell ref="C117:H117"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="A67:H67"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="A112:H112"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="A103:H103"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="C53:H53"/>
     <mergeCell ref="C46:E46"/>
     <mergeCell ref="C47:E47"/>
@@ -6751,109 +7022,6 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C49:H49"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="A112:H112"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="A103:H103"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="A67:H67"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C105:H105"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C110:H110"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="C119:H119"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="A118:H118"/>
-    <mergeCell ref="C117:H117"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="C65:H65"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Competition 2025/2025_FSAE_Design_IC_Spec_Sheet_VU.xlsx
+++ b/Competition 2025/2025_FSAE_Design_IC_Spec_Sheet_VU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egroh\Documents\GitHub\vandymotorsports\Competition 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA5B90D-986C-4E4B-A88F-DD200C246A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2704FBA2-FAE4-49DC-8E15-A22B28E904FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1852,7 +1852,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="280">
   <si>
     <t>Car No.</t>
   </si>
@@ -2372,9 +2372,6 @@
   </si>
   <si>
     <t>Design Speeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">______ mounted xx core ______ radiator ,  xxxx cfm fan mounted to ______ </t>
   </si>
   <si>
     <t>% Left:</t>
@@ -2878,9 +2875,6 @@
     <t>R20</t>
   </si>
   <si>
-    <t>16.0X6.0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -2921,6 +2915,18 @@
   </si>
   <si>
     <t>20mm OD, 12mm ID, 4130 42-47 HRC Chromoly Steel</t>
+  </si>
+  <si>
+    <t>vertically mounted single core 11 row crossflow radiators, one radiator on each side of the car</t>
+  </si>
+  <si>
+    <t>carbon fiber panels between spaceframe tubes, fastened to car with camloc fasteners</t>
+  </si>
+  <si>
+    <t>pull rod, double a arm, 185 lb/in springs</t>
+  </si>
+  <si>
+    <t>16.0X7.5</t>
   </si>
 </sst>
 </file>
@@ -3118,7 +3124,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3143,18 +3149,6 @@
         <bgColor indexed="27"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="46">
     <border>
@@ -3734,14 +3728,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3751,9 +3742,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4129,50 +4117,239 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4183,12 +4360,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4210,17 +4381,8 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4231,197 +4393,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4798,2103 +4786,2179 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120:H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="10" customWidth="1"/>
-    <col min="3" max="8" width="12.88671875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="12"/>
-    <col min="10" max="10" width="37.44140625" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="12"/>
+    <col min="1" max="1" width="28.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="8" customWidth="1"/>
+    <col min="3" max="8" width="12.88671875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="223"/>
+    <col min="10" max="10" width="37.44140625" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="182" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="8">
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="6">
         <v>2025</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="184" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="200" t="s">
+      <c r="I1" s="224"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="179" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="201"/>
-      <c r="C3" s="172">
+      <c r="B3" s="196"/>
+      <c r="C3" s="200">
         <v>130</v>
       </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="147" t="s">
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="226"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" s="7" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="163" t="s">
+      <c r="B4" s="209"/>
+      <c r="C4" s="219" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="227"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="148"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+    </row>
+    <row r="6" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="184"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="186"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="120" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="26">
+        <v>2292.09</v>
+      </c>
+      <c r="E7" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="26">
+        <v>1187</v>
+      </c>
+      <c r="G7" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="27">
+        <v>1152.652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="120" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="28">
+        <v>1562.1</v>
+      </c>
+      <c r="E8" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="28">
+        <v>1187.45</v>
+      </c>
+      <c r="G8" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="27">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="23">
+        <v>8.69</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="212" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="162"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
-    </row>
-    <row r="6" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="61" t="s">
+      <c r="G9" s="206"/>
+      <c r="H9" s="207"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="23">
+        <v>82.23</v>
+      </c>
+      <c r="E10" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="23">
+        <v>80.66</v>
+      </c>
+      <c r="G10" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="24">
+        <v>162.9</v>
+      </c>
+      <c r="I10" s="222"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="122"/>
+      <c r="C11" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="25">
+        <v>50.5</v>
+      </c>
+      <c r="E11" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="25">
+        <v>50.4</v>
+      </c>
+      <c r="G11" s="203"/>
+      <c r="H11" s="204"/>
+      <c r="I11" s="222"/>
+    </row>
+    <row r="12" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="148"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="189"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="191"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="122" t="s">
+      <c r="C13" s="187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="188"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="190" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="188"/>
+      <c r="H13" s="189"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="63"/>
+      <c r="C14" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="130" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" s="131" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" s="130" t="s">
+        <v>261</v>
+      </c>
+      <c r="H14" s="131" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="117" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="37">
+        <v>16</v>
+      </c>
+      <c r="E15" s="30">
+        <v>7.5</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" s="29">
+        <v>16</v>
+      </c>
+      <c r="H15" s="30">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="117"/>
+      <c r="C16" s="213" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="214"/>
+      <c r="E16" s="215"/>
+      <c r="F16" s="213" t="s">
+        <v>265</v>
+      </c>
+      <c r="G16" s="214"/>
+      <c r="H16" s="215"/>
+    </row>
+    <row r="17" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="117"/>
+      <c r="C17" s="210" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" s="206"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="211" t="s">
+        <v>278</v>
+      </c>
+      <c r="G17" s="206"/>
+      <c r="H17" s="207"/>
+    </row>
+    <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="28">
-        <v>2292.09</v>
-      </c>
-      <c r="E7" s="96" t="s">
+      <c r="C18" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="37">
+        <v>42</v>
+      </c>
+      <c r="E18" s="30">
+        <v>8</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="29">
+        <v>43</v>
+      </c>
+      <c r="H18" s="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="31">
+        <v>148.4</v>
+      </c>
+      <c r="D19" s="160"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="32">
+        <v>148.4</v>
+      </c>
+      <c r="G19" s="160"/>
+      <c r="H19" s="161"/>
+    </row>
+    <row r="20" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="117" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="31">
+        <v>299</v>
+      </c>
+      <c r="D20" s="160"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="32">
+        <v>465</v>
+      </c>
+      <c r="G20" s="160"/>
+      <c r="H20" s="161"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="33">
+        <v>2.44</v>
+      </c>
+      <c r="D21" s="160"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="34">
+        <v>3.2</v>
+      </c>
+      <c r="G21" s="160"/>
+      <c r="H21" s="161"/>
+    </row>
+    <row r="22" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="47">
+        <v>105.5</v>
+      </c>
+      <c r="D22" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="12">
+        <v>76.2</v>
+      </c>
+      <c r="F22" s="36">
+        <v>76.5</v>
+      </c>
+      <c r="G22" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="12">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="47">
+        <v>105.5</v>
+      </c>
+      <c r="D23" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="36">
+        <v>76.5</v>
+      </c>
+      <c r="G23" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="12">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="35">
+        <v>2.14</v>
+      </c>
+      <c r="D24" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F24" s="36">
+        <v>2.14</v>
+      </c>
+      <c r="G24" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="117" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="48">
+        <v>35.5</v>
+      </c>
+      <c r="D25" s="160"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="15">
+        <v>31</v>
+      </c>
+      <c r="G25" s="160"/>
+      <c r="H25" s="161"/>
+    </row>
+    <row r="26" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="48">
+        <v>0.7</v>
+      </c>
+      <c r="D26" s="160"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="G26" s="160"/>
+      <c r="H26" s="161"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="117" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="35">
+        <v>0</v>
+      </c>
+      <c r="D27" s="160"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" s="160"/>
+      <c r="H27" s="161"/>
+    </row>
+    <row r="28" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="117" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="35">
+        <v>-0.8</v>
+      </c>
+      <c r="D28" s="160"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" s="160"/>
+      <c r="H28" s="161"/>
+    </row>
+    <row r="29" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="117"/>
+      <c r="C29" s="194" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="140"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="218" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" s="140"/>
+      <c r="H29" s="141"/>
+    </row>
+    <row r="30" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="47">
+        <v>0</v>
+      </c>
+      <c r="D30" s="160"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" s="160"/>
+      <c r="H30" s="161"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="117" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="48">
+        <v>48.26</v>
+      </c>
+      <c r="D31" s="160"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="49">
+        <v>93.944999999999993</v>
+      </c>
+      <c r="G31" s="160"/>
+      <c r="H31" s="161"/>
+    </row>
+    <row r="32" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="117" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" s="37">
+        <v>30</v>
+      </c>
+      <c r="E32" s="30">
+        <v>24.5</v>
+      </c>
+      <c r="F32" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" s="29">
+        <v>45</v>
+      </c>
+      <c r="H32" s="30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="117"/>
+      <c r="C33" s="97" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="50">
+        <v>9.85</v>
+      </c>
+      <c r="E33" s="101" t="s">
+        <v>183</v>
+      </c>
+      <c r="F33" s="51">
+        <v>19.2</v>
+      </c>
+      <c r="G33" s="105" t="s">
+        <v>181</v>
+      </c>
+      <c r="H33" s="52">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="117"/>
+      <c r="C34" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="43">
+        <v>6.6</v>
+      </c>
+      <c r="E34" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="43">
+        <v>42.2</v>
+      </c>
+      <c r="G34" s="216"/>
+      <c r="H34" s="217"/>
+    </row>
+    <row r="35" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="53">
+        <v>79</v>
+      </c>
+      <c r="D35" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="F35" s="191"/>
+      <c r="G35" s="192"/>
+      <c r="H35" s="193"/>
+    </row>
+    <row r="36" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="118"/>
+      <c r="C36" s="205" t="s">
+        <v>270</v>
+      </c>
+      <c r="D36" s="206"/>
+      <c r="E36" s="206"/>
+      <c r="F36" s="206"/>
+      <c r="G36" s="206"/>
+      <c r="H36" s="207"/>
+    </row>
+    <row r="37" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="111" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37" s="119"/>
+      <c r="C37" s="99" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="54">
+        <v>4.7</v>
+      </c>
+      <c r="E37" s="103" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" s="54">
+        <v>119.8</v>
+      </c>
+      <c r="G37" s="104" t="s">
+        <v>161</v>
+      </c>
+      <c r="H37" s="55">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="148"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+    </row>
+    <row r="39" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="188"/>
+      <c r="E39" s="189"/>
+      <c r="F39" s="187" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="188"/>
+      <c r="H39" s="189"/>
+    </row>
+    <row r="40" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="66"/>
+      <c r="C40" s="139" t="s">
+        <v>245</v>
+      </c>
+      <c r="D40" s="140"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="139" t="s">
+        <v>245</v>
+      </c>
+      <c r="G40" s="140"/>
+      <c r="H40" s="141"/>
+    </row>
+    <row r="41" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="66"/>
+      <c r="C41" s="139" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="140"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="139" t="s">
+        <v>246</v>
+      </c>
+      <c r="G41" s="140"/>
+      <c r="H41" s="141"/>
+    </row>
+    <row r="42" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="66"/>
+      <c r="C42" s="139" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42" s="140"/>
+      <c r="E42" s="141"/>
+      <c r="F42" s="139" t="s">
+        <v>247</v>
+      </c>
+      <c r="G42" s="140"/>
+      <c r="H42" s="141"/>
+    </row>
+    <row r="43" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="66"/>
+      <c r="C43" s="139" t="s">
+        <v>248</v>
+      </c>
+      <c r="D43" s="140"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="139" t="s">
+        <v>248</v>
+      </c>
+      <c r="G43" s="140"/>
+      <c r="H43" s="141"/>
+    </row>
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="112" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="66"/>
+      <c r="C44" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="56">
+        <v>34.4</v>
+      </c>
+      <c r="E44" s="95" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" s="43">
+        <v>45.4</v>
+      </c>
+      <c r="G44" s="95" t="s">
+        <v>147</v>
+      </c>
+      <c r="H44" s="39">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="67"/>
+      <c r="C45" s="139" t="s">
+        <v>249</v>
+      </c>
+      <c r="D45" s="140"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="139" t="s">
+        <v>250</v>
+      </c>
+      <c r="G45" s="140"/>
+      <c r="H45" s="141"/>
+    </row>
+    <row r="46" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="66"/>
+      <c r="C46" s="139" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="140"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="139" t="s">
+        <v>252</v>
+      </c>
+      <c r="G46" s="140"/>
+      <c r="H46" s="141"/>
+    </row>
+    <row r="47" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="68"/>
+      <c r="C47" s="136" t="s">
+        <v>253</v>
+      </c>
+      <c r="D47" s="137"/>
+      <c r="E47" s="138"/>
+      <c r="F47" s="136" t="s">
+        <v>254</v>
+      </c>
+      <c r="G47" s="137"/>
+      <c r="H47" s="138"/>
+    </row>
+    <row r="48" spans="1:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="148"/>
+      <c r="B48" s="148"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+    </row>
+    <row r="49" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="145"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="146"/>
+      <c r="F49" s="146"/>
+      <c r="G49" s="146"/>
+      <c r="H49" s="147"/>
+    </row>
+    <row r="50" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="70"/>
+      <c r="C50" s="133" t="s">
+        <v>239</v>
+      </c>
+      <c r="D50" s="134"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="135"/>
+    </row>
+    <row r="51" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="70"/>
+      <c r="C51" s="133" t="s">
+        <v>240</v>
+      </c>
+      <c r="D51" s="134"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="134"/>
+      <c r="H51" s="135"/>
+    </row>
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="B52" s="70"/>
+      <c r="C52" s="98" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="22">
+        <v>297</v>
+      </c>
+      <c r="E52" s="102" t="s">
+        <v>189</v>
+      </c>
+      <c r="F52" s="197" t="s">
+        <v>241</v>
+      </c>
+      <c r="G52" s="198"/>
+      <c r="H52" s="199"/>
+    </row>
+    <row r="53" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="70"/>
+      <c r="C53" s="133" t="s">
+        <v>242</v>
+      </c>
+      <c r="D53" s="134"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="134"/>
+      <c r="H53" s="135"/>
+    </row>
+    <row r="54" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="70"/>
+      <c r="C54" s="133" t="s">
+        <v>243</v>
+      </c>
+      <c r="D54" s="134"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="134"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="135"/>
+    </row>
+    <row r="55" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="70"/>
+      <c r="C55" s="133" t="s">
+        <v>244</v>
+      </c>
+      <c r="D55" s="134"/>
+      <c r="E55" s="134"/>
+      <c r="F55" s="134"/>
+      <c r="G55" s="134"/>
+      <c r="H55" s="135"/>
+    </row>
+    <row r="56" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" s="72"/>
+      <c r="C56" s="181" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" s="182"/>
+      <c r="E56" s="182"/>
+      <c r="F56" s="182"/>
+      <c r="G56" s="182"/>
+      <c r="H56" s="183"/>
+    </row>
+    <row r="57" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="159"/>
+      <c r="B57" s="159"/>
+      <c r="C57" s="159"/>
+      <c r="D57" s="159"/>
+      <c r="E57" s="159"/>
+      <c r="F57" s="159"/>
+      <c r="G57" s="159"/>
+      <c r="H57" s="159"/>
+    </row>
+    <row r="58" spans="1:8" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="158"/>
+      <c r="B58" s="158"/>
+      <c r="C58" s="158"/>
+      <c r="D58" s="158"/>
+      <c r="E58" s="158"/>
+      <c r="F58" s="158"/>
+      <c r="G58" s="158"/>
+      <c r="H58" s="158"/>
+    </row>
+    <row r="59" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="145"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="146"/>
+      <c r="F59" s="146"/>
+      <c r="G59" s="146"/>
+      <c r="H59" s="147"/>
+    </row>
+    <row r="60" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="73"/>
+      <c r="C60" s="139" t="s">
+        <v>259</v>
+      </c>
+      <c r="D60" s="156"/>
+      <c r="E60" s="156"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="156"/>
+      <c r="H60" s="157"/>
+    </row>
+    <row r="61" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="73"/>
+      <c r="C61" s="133" t="s">
+        <v>258</v>
+      </c>
+      <c r="D61" s="134"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="134"/>
+      <c r="G61" s="134"/>
+      <c r="H61" s="135"/>
+    </row>
+    <row r="62" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="73"/>
+      <c r="C62" s="139" t="s">
+        <v>257</v>
+      </c>
+      <c r="D62" s="156"/>
+      <c r="E62" s="156"/>
+      <c r="F62" s="156"/>
+      <c r="G62" s="156"/>
+      <c r="H62" s="157"/>
+    </row>
+    <row r="63" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="70"/>
+      <c r="C63" s="133" t="s">
+        <v>256</v>
+      </c>
+      <c r="D63" s="134"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="134"/>
+      <c r="G63" s="134"/>
+      <c r="H63" s="135"/>
+    </row>
+    <row r="64" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="73"/>
+      <c r="C64" s="133" t="s">
+        <v>216</v>
+      </c>
+      <c r="D64" s="134"/>
+      <c r="E64" s="134"/>
+      <c r="F64" s="134"/>
+      <c r="G64" s="134"/>
+      <c r="H64" s="135"/>
+    </row>
+    <row r="65" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="73"/>
+      <c r="C65" s="133" t="s">
+        <v>255</v>
+      </c>
+      <c r="D65" s="134"/>
+      <c r="E65" s="134"/>
+      <c r="F65" s="134"/>
+      <c r="G65" s="134"/>
+      <c r="H65" s="135"/>
+    </row>
+    <row r="66" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="74"/>
+      <c r="C66" s="153" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" s="154"/>
+      <c r="E66" s="154"/>
+      <c r="F66" s="154"/>
+      <c r="G66" s="154"/>
+      <c r="H66" s="155"/>
+    </row>
+    <row r="67" spans="1:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="148"/>
+      <c r="B67" s="148"/>
+      <c r="C67" s="148"/>
+      <c r="D67" s="148"/>
+      <c r="E67" s="148"/>
+      <c r="F67" s="148"/>
+      <c r="G67" s="148"/>
+      <c r="H67" s="148"/>
+    </row>
+    <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="145"/>
+      <c r="D68" s="146"/>
+      <c r="E68" s="146"/>
+      <c r="F68" s="146"/>
+      <c r="G68" s="146"/>
+      <c r="H68" s="147"/>
+    </row>
+    <row r="69" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A69" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="76"/>
+      <c r="C69" s="133" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="134"/>
+      <c r="E69" s="134"/>
+      <c r="F69" s="134"/>
+      <c r="G69" s="134"/>
+      <c r="H69" s="135"/>
+    </row>
+    <row r="70" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A70" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="76"/>
+      <c r="C70" s="133" t="s">
+        <v>235</v>
+      </c>
+      <c r="D70" s="134"/>
+      <c r="E70" s="134"/>
+      <c r="F70" s="134"/>
+      <c r="G70" s="134"/>
+      <c r="H70" s="135"/>
+    </row>
+    <row r="71" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A71" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="123"/>
+      <c r="C71" s="133" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="134"/>
+      <c r="E71" s="134"/>
+      <c r="F71" s="134"/>
+      <c r="G71" s="134"/>
+      <c r="H71" s="135"/>
+    </row>
+    <row r="72" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A72" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" s="123" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" s="43">
+        <v>34</v>
+      </c>
+      <c r="E72" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="F72" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="G72" s="160"/>
+      <c r="H72" s="161"/>
+    </row>
+    <row r="73" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A73" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="123" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="106" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" s="44">
+        <v>1200</v>
+      </c>
+      <c r="E73" s="95" t="s">
+        <v>108</v>
+      </c>
+      <c r="F73" s="44">
+        <v>1243</v>
+      </c>
+      <c r="G73" s="95" t="s">
+        <v>109</v>
+      </c>
+      <c r="H73" s="39" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A74" s="113" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="123"/>
+      <c r="C74" s="133" t="s">
+        <v>273</v>
+      </c>
+      <c r="D74" s="134"/>
+      <c r="E74" s="134"/>
+      <c r="F74" s="134"/>
+      <c r="G74" s="134"/>
+      <c r="H74" s="135"/>
+    </row>
+    <row r="75" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" s="123"/>
+      <c r="C75" s="133" t="s">
+        <v>274</v>
+      </c>
+      <c r="D75" s="134"/>
+      <c r="E75" s="134"/>
+      <c r="F75" s="134"/>
+      <c r="G75" s="134"/>
+      <c r="H75" s="135"/>
+    </row>
+    <row r="76" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A76" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="123" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="28">
-        <v>1187</v>
-      </c>
-      <c r="G7" s="96" t="s">
+      <c r="D76" s="38">
+        <v>201</v>
+      </c>
+      <c r="E76" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="29">
-        <v>1152.652</v>
-      </c>
-      <c r="I7" s="228"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="122" t="s">
+      <c r="F76" s="38">
+        <v>100</v>
+      </c>
+      <c r="G76" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="H76" s="45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="E77" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="F77" s="162" t="s">
+        <v>238</v>
+      </c>
+      <c r="G77" s="137"/>
+      <c r="H77" s="138"/>
+    </row>
+    <row r="78" spans="1:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="163"/>
+      <c r="B78" s="163"/>
+      <c r="C78" s="163"/>
+      <c r="D78" s="163"/>
+      <c r="E78" s="163"/>
+      <c r="F78" s="163"/>
+      <c r="G78" s="163"/>
+      <c r="H78" s="163"/>
+    </row>
+    <row r="79" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A79" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="145"/>
+      <c r="D79" s="146"/>
+      <c r="E79" s="146"/>
+      <c r="F79" s="146"/>
+      <c r="G79" s="146"/>
+      <c r="H79" s="147"/>
+    </row>
+    <row r="80" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A80" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" s="76"/>
+      <c r="C80" s="139" t="s">
+        <v>232</v>
+      </c>
+      <c r="D80" s="140"/>
+      <c r="E80" s="140"/>
+      <c r="F80" s="140"/>
+      <c r="G80" s="140"/>
+      <c r="H80" s="141"/>
+    </row>
+    <row r="81" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A81" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="123"/>
+      <c r="C81" s="149" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" s="150"/>
+      <c r="E81" s="26">
+        <v>1</v>
+      </c>
+      <c r="F81" s="151" t="s">
+        <v>173</v>
+      </c>
+      <c r="G81" s="152"/>
+      <c r="H81" s="20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A82" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" s="123"/>
+      <c r="C82" s="149" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="150"/>
+      <c r="E82" s="26">
+        <v>501</v>
+      </c>
+      <c r="F82" s="151" t="s">
+        <v>114</v>
+      </c>
+      <c r="G82" s="152"/>
+      <c r="H82" s="30">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A83" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="30">
-        <v>1562.1</v>
-      </c>
-      <c r="E8" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="30">
-        <v>1187.45</v>
-      </c>
-      <c r="G8" s="96" t="s">
-        <v>161</v>
-      </c>
-      <c r="H8" s="29">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="123" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="25">
-        <v>8.69</v>
-      </c>
-      <c r="E9" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="153" t="s">
+      <c r="C83" s="149" t="s">
+        <v>154</v>
+      </c>
+      <c r="D83" s="150"/>
+      <c r="E83" s="37">
+        <v>98</v>
+      </c>
+      <c r="F83" s="151" t="s">
+        <v>155</v>
+      </c>
+      <c r="G83" s="152"/>
+      <c r="H83" s="30">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A84" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" s="123"/>
+      <c r="C84" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="D84" s="15">
+        <v>23.87</v>
+      </c>
+      <c r="E84" s="110" t="s">
+        <v>165</v>
+      </c>
+      <c r="F84" s="11">
+        <v>29.8</v>
+      </c>
+      <c r="G84" s="175"/>
+      <c r="H84" s="176"/>
+    </row>
+    <row r="85" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A85" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="123" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" s="106" t="s">
+        <v>118</v>
+      </c>
+      <c r="D85" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E85" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="F85" s="14">
+        <v>7500</v>
+      </c>
+      <c r="G85" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="H85" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A86" s="113" t="s">
+        <v>209</v>
+      </c>
+      <c r="B86" s="123"/>
+      <c r="C86" s="139" t="s">
+        <v>231</v>
+      </c>
+      <c r="D86" s="140"/>
+      <c r="E86" s="140"/>
+      <c r="F86" s="140"/>
+      <c r="G86" s="140"/>
+      <c r="H86" s="141"/>
+    </row>
+    <row r="87" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A87" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" s="123"/>
+      <c r="C87" s="139" t="s">
+        <v>230</v>
+      </c>
+      <c r="D87" s="140"/>
+      <c r="E87" s="140"/>
+      <c r="F87" s="140"/>
+      <c r="G87" s="140"/>
+      <c r="H87" s="141"/>
+    </row>
+    <row r="88" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A88" s="113" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" s="123"/>
+      <c r="C88" s="139" t="s">
+        <v>229</v>
+      </c>
+      <c r="D88" s="140"/>
+      <c r="E88" s="140"/>
+      <c r="F88" s="140"/>
+      <c r="G88" s="140"/>
+      <c r="H88" s="141"/>
+    </row>
+    <row r="89" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A89" s="113" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" s="123"/>
+      <c r="C89" s="139" t="s">
+        <v>228</v>
+      </c>
+      <c r="D89" s="140"/>
+      <c r="E89" s="140"/>
+      <c r="F89" s="140"/>
+      <c r="G89" s="140"/>
+      <c r="H89" s="141"/>
+    </row>
+    <row r="90" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A90" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" s="123" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="18">
+        <v>2.76</v>
+      </c>
+      <c r="D90" s="170"/>
+      <c r="E90" s="171"/>
+      <c r="F90" s="171"/>
+      <c r="G90" s="171"/>
+      <c r="H90" s="172"/>
+    </row>
+    <row r="91" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A91" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" s="123"/>
+      <c r="C91" s="139" t="s">
+        <v>227</v>
+      </c>
+      <c r="D91" s="140"/>
+      <c r="E91" s="140"/>
+      <c r="F91" s="140"/>
+      <c r="G91" s="140"/>
+      <c r="H91" s="141"/>
+    </row>
+    <row r="92" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A92" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" s="123"/>
+      <c r="C92" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="D92" s="44">
+        <v>1709</v>
+      </c>
+      <c r="E92" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="F92" s="166"/>
+      <c r="G92" s="29">
+        <v>190</v>
+      </c>
+      <c r="H92" s="21"/>
+    </row>
+    <row r="93" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A93" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B93" s="123"/>
+      <c r="C93" s="132" t="s">
+        <v>264</v>
+      </c>
+      <c r="D93" s="173" t="s">
+        <v>152</v>
+      </c>
+      <c r="E93" s="174"/>
+      <c r="F93" s="43">
+        <v>2390</v>
+      </c>
+      <c r="G93" s="94" t="s">
+        <v>153</v>
+      </c>
+      <c r="H93" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A94" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B94" s="123"/>
+      <c r="C94" s="106" t="s">
+        <v>166</v>
+      </c>
+      <c r="D94" s="43">
+        <v>42</v>
+      </c>
+      <c r="E94" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="F94" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="G94" s="160"/>
+      <c r="H94" s="161"/>
+    </row>
+    <row r="95" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A95" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="123"/>
+      <c r="C95" s="139" t="s">
+        <v>226</v>
+      </c>
+      <c r="D95" s="140"/>
+      <c r="E95" s="140"/>
+      <c r="F95" s="140"/>
+      <c r="G95" s="140"/>
+      <c r="H95" s="141"/>
+    </row>
+    <row r="96" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A96" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" s="123"/>
+      <c r="C96" s="139" t="s">
+        <v>225</v>
+      </c>
+      <c r="D96" s="140"/>
+      <c r="E96" s="140"/>
+      <c r="F96" s="140"/>
+      <c r="G96" s="140"/>
+      <c r="H96" s="141"/>
+    </row>
+    <row r="97" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A97" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" s="123"/>
+      <c r="C97" s="139" t="s">
+        <v>224</v>
+      </c>
+      <c r="D97" s="140"/>
+      <c r="E97" s="140"/>
+      <c r="F97" s="140"/>
+      <c r="G97" s="140"/>
+      <c r="H97" s="141"/>
+    </row>
+    <row r="98" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A98" s="113" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" s="123"/>
+      <c r="C98" s="139" t="s">
+        <v>223</v>
+      </c>
+      <c r="D98" s="140"/>
+      <c r="E98" s="140"/>
+      <c r="F98" s="140"/>
+      <c r="G98" s="140"/>
+      <c r="H98" s="141"/>
+    </row>
+    <row r="99" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A99" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="80"/>
+      <c r="C99" s="167" t="s">
+        <v>276</v>
+      </c>
+      <c r="D99" s="168"/>
+      <c r="E99" s="168"/>
+      <c r="F99" s="168"/>
+      <c r="G99" s="168"/>
+      <c r="H99" s="169"/>
+      <c r="I99" s="222"/>
+    </row>
+    <row r="100" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A100" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" s="76"/>
+      <c r="C100" s="139" t="s">
+        <v>222</v>
+      </c>
+      <c r="D100" s="140"/>
+      <c r="E100" s="140"/>
+      <c r="F100" s="164"/>
+      <c r="G100" s="94" t="s">
+        <v>174</v>
+      </c>
+      <c r="H100" s="42">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A101" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" s="76"/>
+      <c r="C101" s="139" t="s">
+        <v>221</v>
+      </c>
+      <c r="D101" s="140"/>
+      <c r="E101" s="140"/>
+      <c r="F101" s="140"/>
+      <c r="G101" s="140"/>
+      <c r="H101" s="141"/>
+    </row>
+    <row r="102" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="115" t="s">
+        <v>48</v>
+      </c>
+      <c r="B102" s="78"/>
+      <c r="C102" s="136" t="s">
+        <v>220</v>
+      </c>
+      <c r="D102" s="137"/>
+      <c r="E102" s="137"/>
+      <c r="F102" s="137"/>
+      <c r="G102" s="137"/>
+      <c r="H102" s="138"/>
+    </row>
+    <row r="103" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="163"/>
+      <c r="B103" s="163"/>
+      <c r="C103" s="163"/>
+      <c r="D103" s="163"/>
+      <c r="E103" s="163"/>
+      <c r="F103" s="163"/>
+      <c r="G103" s="163"/>
+      <c r="H103" s="163"/>
+    </row>
+    <row r="104" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A104" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C104" s="145"/>
+      <c r="D104" s="146"/>
+      <c r="E104" s="146"/>
+      <c r="F104" s="146"/>
+      <c r="G104" s="146"/>
+      <c r="H104" s="147"/>
+    </row>
+    <row r="105" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A105" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="76"/>
+      <c r="C105" s="139" t="s">
+        <v>219</v>
+      </c>
+      <c r="D105" s="140"/>
+      <c r="E105" s="140"/>
+      <c r="F105" s="140"/>
+      <c r="G105" s="140"/>
+      <c r="H105" s="141"/>
+    </row>
+    <row r="106" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A106" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="B106" s="123"/>
+      <c r="C106" s="139" t="s">
+        <v>218</v>
+      </c>
+      <c r="D106" s="140"/>
+      <c r="E106" s="140"/>
+      <c r="F106" s="140"/>
+      <c r="G106" s="140"/>
+      <c r="H106" s="141"/>
+    </row>
+    <row r="107" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A107" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="B107" s="123" t="s">
+        <v>101</v>
+      </c>
+      <c r="C107" s="18">
+        <v>1</v>
+      </c>
+      <c r="D107" s="142"/>
+      <c r="E107" s="143"/>
+      <c r="F107" s="143"/>
+      <c r="G107" s="143"/>
+      <c r="H107" s="144"/>
+    </row>
+    <row r="108" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A108" s="113" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" s="123" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="D108" s="37">
+        <v>32.6</v>
+      </c>
+      <c r="E108" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="F108" s="37">
+        <v>40.9</v>
+      </c>
+      <c r="G108" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="H108" s="30">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A109" s="113" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" s="123" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109" s="106" t="s">
+        <v>127</v>
+      </c>
+      <c r="D109" s="37">
+        <v>61.7</v>
+      </c>
+      <c r="E109" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="F109" s="37">
+        <v>75</v>
+      </c>
+      <c r="G109" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="H109" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A110" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" s="76"/>
+      <c r="C110" s="139" t="s">
+        <v>275</v>
+      </c>
+      <c r="D110" s="140"/>
+      <c r="E110" s="140"/>
+      <c r="F110" s="140"/>
+      <c r="G110" s="140"/>
+      <c r="H110" s="141"/>
+      <c r="I110" s="222"/>
+    </row>
+    <row r="111" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="B111" s="78"/>
+      <c r="C111" s="136" t="s">
+        <v>217</v>
+      </c>
+      <c r="D111" s="137"/>
+      <c r="E111" s="137"/>
+      <c r="F111" s="137"/>
+      <c r="G111" s="137"/>
+      <c r="H111" s="138"/>
+    </row>
+    <row r="112" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="148"/>
+      <c r="B112" s="148"/>
+      <c r="C112" s="148"/>
+      <c r="D112" s="148"/>
+      <c r="E112" s="148"/>
+      <c r="F112" s="148"/>
+      <c r="G112" s="148"/>
+      <c r="H112" s="148"/>
+    </row>
+    <row r="113" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A113" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="B113" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C113" s="145"/>
+      <c r="D113" s="146"/>
+      <c r="E113" s="146"/>
+      <c r="F113" s="146"/>
+      <c r="G113" s="146"/>
+      <c r="H113" s="147"/>
+    </row>
+    <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" s="83"/>
+      <c r="C114" s="139" t="s">
         <v>213</v>
       </c>
-      <c r="G9" s="150"/>
-      <c r="H9" s="151"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="123" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="25">
-        <v>82.23</v>
-      </c>
-      <c r="E10" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="25">
-        <v>80.66</v>
-      </c>
-      <c r="G10" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="26">
-        <v>162.9</v>
-      </c>
-      <c r="I10" s="227"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="113" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="95" t="s">
+      <c r="D114" s="140"/>
+      <c r="E114" s="140"/>
+      <c r="F114" s="140"/>
+      <c r="G114" s="140"/>
+      <c r="H114" s="141"/>
+    </row>
+    <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="116" t="s">
+        <v>134</v>
+      </c>
+      <c r="B115" s="83"/>
+      <c r="C115" s="106" t="s">
+        <v>135</v>
+      </c>
+      <c r="D115" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="E115" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="27">
-        <v>50.5</v>
-      </c>
-      <c r="E11" s="98" t="s">
-        <v>158</v>
-      </c>
-      <c r="F11" s="27">
-        <v>50.4</v>
-      </c>
-      <c r="G11" s="175"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="136"/>
-    </row>
-    <row r="12" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="162"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="61" t="s">
+      <c r="F115" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="G115" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="H115" s="39" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="B116" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="C116" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="D116" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="E116" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="F116" s="40">
+        <v>0.84</v>
+      </c>
+      <c r="G116" s="94" t="s">
+        <v>138</v>
+      </c>
+      <c r="H116" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="I116" s="222"/>
+    </row>
+    <row r="117" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="B117" s="86"/>
+      <c r="C117" s="136" t="s">
+        <v>216</v>
+      </c>
+      <c r="D117" s="137"/>
+      <c r="E117" s="137"/>
+      <c r="F117" s="137"/>
+      <c r="G117" s="137"/>
+      <c r="H117" s="138"/>
+    </row>
+    <row r="118" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="148"/>
+      <c r="B118" s="148"/>
+      <c r="C118" s="148"/>
+      <c r="D118" s="148"/>
+      <c r="E118" s="148"/>
+      <c r="F118" s="148"/>
+      <c r="G118" s="148"/>
+      <c r="H118" s="148"/>
+    </row>
+    <row r="119" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A119" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="B119" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="192" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="193"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="195" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="193"/>
-      <c r="H13" s="194"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="D14" s="134" t="s">
-        <v>262</v>
-      </c>
-      <c r="E14" s="135" t="s">
-        <v>263</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="G14" s="134" t="s">
-        <v>262</v>
-      </c>
-      <c r="H14" s="135" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15" s="119" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="D15" s="39">
-        <v>16</v>
-      </c>
-      <c r="E15" s="32">
-        <v>7.5</v>
-      </c>
-      <c r="F15" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="G15" s="31">
-        <v>16</v>
-      </c>
-      <c r="H15" s="32">
-        <v>7.5</v>
-      </c>
-      <c r="I15" s="228"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="154" t="s">
-        <v>267</v>
-      </c>
-      <c r="D16" s="155"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="154" t="s">
-        <v>267</v>
-      </c>
-      <c r="G16" s="155"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="133"/>
-    </row>
-    <row r="17" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="119"/>
-      <c r="C17" s="149" t="s">
-        <v>268</v>
-      </c>
-      <c r="D17" s="150"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="152" t="s">
-        <v>267</v>
-      </c>
-      <c r="G17" s="150"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="133"/>
-    </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="119" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="39">
-        <v>42</v>
-      </c>
-      <c r="E18" s="32">
-        <v>8</v>
-      </c>
-      <c r="F18" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" s="31">
-        <v>43</v>
-      </c>
-      <c r="H18" s="32">
-        <v>7</v>
-      </c>
-      <c r="I18" s="133"/>
-    </row>
-    <row r="19" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="119" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="33">
-        <v>29</v>
-      </c>
-      <c r="D19" s="159"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="34">
-        <v>41</v>
-      </c>
-      <c r="G19" s="159"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="133"/>
-    </row>
-    <row r="20" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="119" t="s">
-        <v>192</v>
-      </c>
-      <c r="C20" s="33">
-        <v>299</v>
-      </c>
-      <c r="D20" s="159"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="34">
-        <v>465</v>
-      </c>
-      <c r="G20" s="159"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="133"/>
-    </row>
-    <row r="21" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="119" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="35">
-        <v>2.44</v>
-      </c>
-      <c r="D21" s="159"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="36">
-        <v>3.2</v>
-      </c>
-      <c r="G21" s="159"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="133"/>
-    </row>
-    <row r="22" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="49">
-        <v>105.5</v>
-      </c>
-      <c r="D22" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="14">
-        <v>76.2</v>
-      </c>
-      <c r="F22" s="38">
-        <v>76.5</v>
-      </c>
-      <c r="G22" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="14">
-        <v>76.2</v>
-      </c>
-      <c r="I22" s="133"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="49">
-        <v>105.5</v>
-      </c>
-      <c r="D23" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="38">
-        <v>76.5</v>
-      </c>
-      <c r="G23" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" s="14">
-        <v>76.2</v>
-      </c>
-      <c r="I23" s="133"/>
-    </row>
-    <row r="24" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="119" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="37">
-        <v>2.14</v>
-      </c>
-      <c r="D24" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="F24" s="38">
-        <v>2.14</v>
-      </c>
-      <c r="G24" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="B25" s="119" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="50">
-        <v>35.5</v>
-      </c>
-      <c r="D25" s="159"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="17">
-        <v>31</v>
-      </c>
-      <c r="G25" s="159"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="133"/>
-    </row>
-    <row r="26" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="119" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="50">
-        <v>0.7</v>
-      </c>
-      <c r="D26" s="159"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="G26" s="159"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="133"/>
-    </row>
-    <row r="27" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="37">
-        <v>0</v>
-      </c>
-      <c r="D27" s="159"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="G27" s="159"/>
-      <c r="H27" s="160"/>
-    </row>
-    <row r="28" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="37">
-        <v>-0.8</v>
-      </c>
-      <c r="D28" s="159"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="G28" s="159"/>
-      <c r="H28" s="160"/>
-    </row>
-    <row r="29" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="119"/>
-      <c r="C29" s="199" t="s">
-        <v>269</v>
-      </c>
-      <c r="D29" s="142"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="161" t="s">
-        <v>270</v>
-      </c>
-      <c r="G29" s="142"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="133"/>
-    </row>
-    <row r="30" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="119" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="49">
-        <v>0</v>
-      </c>
-      <c r="D30" s="159"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="G30" s="159"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="228"/>
-    </row>
-    <row r="31" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="114" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="119" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="50">
-        <v>48.26</v>
-      </c>
-      <c r="D31" s="159"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="51">
-        <v>93.944999999999993</v>
-      </c>
-      <c r="G31" s="159"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="228"/>
-    </row>
-    <row r="32" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="119" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="66" t="s">
-        <v>200</v>
-      </c>
-      <c r="D32" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="E32" s="32">
-        <v>24.5</v>
-      </c>
-      <c r="F32" s="67" t="s">
-        <v>201</v>
-      </c>
-      <c r="G32" s="31">
-        <v>1</v>
-      </c>
-      <c r="H32" s="32">
-        <v>17</v>
-      </c>
-      <c r="I32" s="133"/>
-    </row>
-    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="62" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="119"/>
-      <c r="C33" s="99" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="52">
-        <v>9.85</v>
-      </c>
-      <c r="E33" s="103" t="s">
-        <v>184</v>
-      </c>
-      <c r="F33" s="53">
-        <v>19.2</v>
-      </c>
-      <c r="G33" s="107" t="s">
-        <v>182</v>
-      </c>
-      <c r="H33" s="54">
-        <v>15.9</v>
-      </c>
-      <c r="I33" s="133"/>
-    </row>
-    <row r="34" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="100" t="s">
-        <v>185</v>
-      </c>
-      <c r="D34" s="45">
-        <v>6.6</v>
-      </c>
-      <c r="E34" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="F34" s="45">
-        <v>42.2</v>
-      </c>
-      <c r="G34" s="157"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="133"/>
-    </row>
-    <row r="35" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" s="119" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="55">
-        <v>69</v>
-      </c>
-      <c r="D35" s="102" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="F35" s="196"/>
-      <c r="G35" s="197"/>
-      <c r="H35" s="198"/>
-      <c r="I35" s="133"/>
-    </row>
-    <row r="36" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="B36" s="120"/>
-      <c r="C36" s="177" t="s">
-        <v>272</v>
-      </c>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="228"/>
-    </row>
-    <row r="37" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="113" t="s">
-        <v>186</v>
-      </c>
-      <c r="B37" s="121"/>
-      <c r="C37" s="101" t="s">
-        <v>187</v>
-      </c>
-      <c r="D37" s="56">
-        <v>4.7</v>
-      </c>
-      <c r="E37" s="105" t="s">
-        <v>188</v>
-      </c>
-      <c r="F37" s="56">
-        <v>119.8</v>
-      </c>
-      <c r="G37" s="106" t="s">
-        <v>162</v>
-      </c>
-      <c r="H37" s="57">
-        <v>42.2</v>
-      </c>
-      <c r="I37" s="133"/>
-    </row>
-    <row r="38" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="162"/>
-      <c r="B38" s="162"/>
-      <c r="C38" s="162"/>
-      <c r="D38" s="162"/>
-      <c r="E38" s="162"/>
-      <c r="F38" s="162"/>
-      <c r="G38" s="162"/>
-      <c r="H38" s="162"/>
-    </row>
-    <row r="39" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="192" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="193"/>
-      <c r="E39" s="194"/>
-      <c r="F39" s="192" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" s="193"/>
-      <c r="H39" s="194"/>
-    </row>
-    <row r="40" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="68"/>
-      <c r="C40" s="141" t="s">
-        <v>246</v>
-      </c>
-      <c r="D40" s="142"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="141" t="s">
-        <v>246</v>
-      </c>
-      <c r="G40" s="142"/>
-      <c r="H40" s="143"/>
-    </row>
-    <row r="41" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="141" t="s">
-        <v>247</v>
-      </c>
-      <c r="D41" s="142"/>
-      <c r="E41" s="143"/>
-      <c r="F41" s="141" t="s">
-        <v>247</v>
-      </c>
-      <c r="G41" s="142"/>
-      <c r="H41" s="143"/>
-    </row>
-    <row r="42" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="68"/>
-      <c r="C42" s="141" t="s">
-        <v>248</v>
-      </c>
-      <c r="D42" s="142"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="141" t="s">
-        <v>248</v>
-      </c>
-      <c r="G42" s="142"/>
-      <c r="H42" s="143"/>
-    </row>
-    <row r="43" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="141" t="s">
-        <v>249</v>
-      </c>
-      <c r="D43" s="142"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="141" t="s">
-        <v>249</v>
-      </c>
-      <c r="G43" s="142"/>
-      <c r="H43" s="143"/>
-    </row>
-    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="114" t="s">
-        <v>163</v>
-      </c>
-      <c r="B44" s="68"/>
-      <c r="C44" s="108" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44" s="58">
-        <v>34.4</v>
-      </c>
-      <c r="E44" s="97" t="s">
-        <v>170</v>
-      </c>
-      <c r="F44" s="45">
-        <v>45.4</v>
-      </c>
-      <c r="G44" s="97" t="s">
-        <v>147</v>
-      </c>
-      <c r="H44" s="41">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="141" t="s">
-        <v>250</v>
-      </c>
-      <c r="D45" s="142"/>
-      <c r="E45" s="143"/>
-      <c r="F45" s="141" t="s">
-        <v>251</v>
-      </c>
-      <c r="G45" s="142"/>
-      <c r="H45" s="143"/>
-    </row>
-    <row r="46" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="68"/>
-      <c r="C46" s="141" t="s">
-        <v>252</v>
-      </c>
-      <c r="D46" s="142"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="141" t="s">
-        <v>253</v>
-      </c>
-      <c r="G46" s="142"/>
-      <c r="H46" s="143"/>
-    </row>
-    <row r="47" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="144" t="s">
-        <v>254</v>
-      </c>
-      <c r="D47" s="145"/>
-      <c r="E47" s="146"/>
-      <c r="F47" s="144" t="s">
-        <v>255</v>
-      </c>
-      <c r="G47" s="145"/>
-      <c r="H47" s="146"/>
-    </row>
-    <row r="48" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="162"/>
-      <c r="B48" s="162"/>
-      <c r="C48" s="162"/>
-      <c r="D48" s="162"/>
-      <c r="E48" s="162"/>
-      <c r="F48" s="162"/>
-      <c r="G48" s="162"/>
-      <c r="H48" s="162"/>
-    </row>
-    <row r="49" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="166"/>
-      <c r="D49" s="167"/>
-      <c r="E49" s="167"/>
-      <c r="F49" s="167"/>
-      <c r="G49" s="167"/>
-      <c r="H49" s="168"/>
-    </row>
-    <row r="50" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="72"/>
-      <c r="C50" s="138" t="s">
-        <v>240</v>
-      </c>
-      <c r="D50" s="139"/>
-      <c r="E50" s="139"/>
-      <c r="F50" s="139"/>
-      <c r="G50" s="139"/>
-      <c r="H50" s="140"/>
-    </row>
-    <row r="51" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="138" t="s">
-        <v>241</v>
-      </c>
-      <c r="D51" s="139"/>
-      <c r="E51" s="139"/>
-      <c r="F51" s="139"/>
-      <c r="G51" s="139"/>
-      <c r="H51" s="140"/>
-    </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="B52" s="72"/>
-      <c r="C52" s="100" t="s">
-        <v>189</v>
-      </c>
-      <c r="D52" s="24">
-        <v>297</v>
-      </c>
-      <c r="E52" s="104" t="s">
-        <v>190</v>
-      </c>
-      <c r="F52" s="169" t="s">
-        <v>242</v>
-      </c>
-      <c r="G52" s="170"/>
-      <c r="H52" s="171"/>
-    </row>
-    <row r="53" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53" s="72"/>
-      <c r="C53" s="138" t="s">
-        <v>243</v>
-      </c>
-      <c r="D53" s="139"/>
-      <c r="E53" s="139"/>
-      <c r="F53" s="139"/>
-      <c r="G53" s="139"/>
-      <c r="H53" s="140"/>
-    </row>
-    <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" s="72"/>
-      <c r="C54" s="138" t="s">
-        <v>244</v>
-      </c>
-      <c r="D54" s="139"/>
-      <c r="E54" s="139"/>
-      <c r="F54" s="139"/>
-      <c r="G54" s="139"/>
-      <c r="H54" s="140"/>
-    </row>
-    <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="72"/>
-      <c r="C55" s="138" t="s">
-        <v>245</v>
-      </c>
-      <c r="D55" s="139"/>
-      <c r="E55" s="139"/>
-      <c r="F55" s="139"/>
-      <c r="G55" s="139"/>
-      <c r="H55" s="140"/>
-    </row>
-    <row r="56" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="73" t="s">
-        <v>180</v>
-      </c>
-      <c r="B56" s="74"/>
-      <c r="C56" s="186" t="s">
-        <v>217</v>
-      </c>
-      <c r="D56" s="187"/>
-      <c r="E56" s="187"/>
-      <c r="F56" s="187"/>
-      <c r="G56" s="187"/>
-      <c r="H56" s="188"/>
-    </row>
-    <row r="57" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="216"/>
-      <c r="B57" s="216"/>
-      <c r="C57" s="216"/>
-      <c r="D57" s="216"/>
-      <c r="E57" s="216"/>
-      <c r="F57" s="216"/>
-      <c r="G57" s="216"/>
-      <c r="H57" s="216"/>
-    </row>
-    <row r="58" spans="1:9" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="226"/>
-      <c r="B58" s="226"/>
-      <c r="C58" s="226"/>
-      <c r="D58" s="226"/>
-      <c r="E58" s="226"/>
-      <c r="F58" s="226"/>
-      <c r="G58" s="226"/>
-      <c r="H58" s="226"/>
-    </row>
-    <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="B59" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="166"/>
-      <c r="D59" s="167"/>
-      <c r="E59" s="167"/>
-      <c r="F59" s="167"/>
-      <c r="G59" s="167"/>
-      <c r="H59" s="168"/>
-    </row>
-    <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="B60" s="75"/>
-      <c r="C60" s="141" t="s">
-        <v>260</v>
-      </c>
-      <c r="D60" s="218"/>
-      <c r="E60" s="218"/>
-      <c r="F60" s="218"/>
-      <c r="G60" s="218"/>
-      <c r="H60" s="219"/>
-      <c r="I60" s="133"/>
-    </row>
-    <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="75"/>
-      <c r="C61" s="138" t="s">
-        <v>259</v>
-      </c>
-      <c r="D61" s="139"/>
-      <c r="E61" s="139"/>
-      <c r="F61" s="139"/>
-      <c r="G61" s="139"/>
-      <c r="H61" s="140"/>
-      <c r="I61" s="133"/>
-    </row>
-    <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="B62" s="75"/>
-      <c r="C62" s="141" t="s">
-        <v>258</v>
-      </c>
-      <c r="D62" s="218"/>
-      <c r="E62" s="218"/>
-      <c r="F62" s="218"/>
-      <c r="G62" s="218"/>
-      <c r="H62" s="219"/>
-      <c r="I62" s="133"/>
-    </row>
-    <row r="63" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" s="72"/>
-      <c r="C63" s="138" t="s">
-        <v>257</v>
-      </c>
-      <c r="D63" s="139"/>
-      <c r="E63" s="139"/>
-      <c r="F63" s="139"/>
-      <c r="G63" s="139"/>
-      <c r="H63" s="140"/>
-    </row>
-    <row r="64" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="75"/>
-      <c r="C64" s="138" t="s">
-        <v>217</v>
-      </c>
-      <c r="D64" s="139"/>
-      <c r="E64" s="139"/>
-      <c r="F64" s="139"/>
-      <c r="G64" s="139"/>
-      <c r="H64" s="140"/>
-    </row>
-    <row r="65" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" s="75"/>
-      <c r="C65" s="138" t="s">
-        <v>256</v>
-      </c>
-      <c r="D65" s="139"/>
-      <c r="E65" s="139"/>
-      <c r="F65" s="139"/>
-      <c r="G65" s="139"/>
-      <c r="H65" s="140"/>
-    </row>
-    <row r="66" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="B66" s="76"/>
-      <c r="C66" s="223" t="s">
-        <v>217</v>
-      </c>
-      <c r="D66" s="224"/>
-      <c r="E66" s="224"/>
-      <c r="F66" s="224"/>
-      <c r="G66" s="224"/>
-      <c r="H66" s="225"/>
-    </row>
-    <row r="67" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="162"/>
-      <c r="B67" s="162"/>
-      <c r="C67" s="162"/>
-      <c r="D67" s="162"/>
-      <c r="E67" s="162"/>
-      <c r="F67" s="162"/>
-      <c r="G67" s="162"/>
-      <c r="H67" s="162"/>
-    </row>
-    <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="B68" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="166"/>
-      <c r="D68" s="167"/>
-      <c r="E68" s="167"/>
-      <c r="F68" s="167"/>
-      <c r="G68" s="167"/>
-      <c r="H68" s="168"/>
-    </row>
-    <row r="69" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A69" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="78"/>
-      <c r="C69" s="138" t="s">
-        <v>235</v>
-      </c>
-      <c r="D69" s="139"/>
-      <c r="E69" s="139"/>
-      <c r="F69" s="139"/>
-      <c r="G69" s="139"/>
-      <c r="H69" s="140"/>
-    </row>
-    <row r="70" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A70" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="78"/>
-      <c r="C70" s="138" t="s">
-        <v>236</v>
-      </c>
-      <c r="D70" s="139"/>
-      <c r="E70" s="139"/>
-      <c r="F70" s="139"/>
-      <c r="G70" s="139"/>
-      <c r="H70" s="140"/>
-    </row>
-    <row r="71" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="125"/>
-      <c r="C71" s="138" t="s">
-        <v>237</v>
-      </c>
-      <c r="D71" s="139"/>
-      <c r="E71" s="139"/>
-      <c r="F71" s="139"/>
-      <c r="G71" s="139"/>
-      <c r="H71" s="140"/>
-    </row>
-    <row r="72" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="115" t="s">
-        <v>178</v>
-      </c>
-      <c r="B72" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" s="109" t="s">
-        <v>107</v>
-      </c>
-      <c r="D72" s="45">
-        <v>34</v>
-      </c>
-      <c r="E72" s="96" t="s">
-        <v>109</v>
-      </c>
-      <c r="F72" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="G72" s="159"/>
-      <c r="H72" s="160"/>
-      <c r="I72" s="228"/>
-    </row>
-    <row r="73" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="B73" s="125" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="108" t="s">
-        <v>107</v>
-      </c>
-      <c r="D73" s="46">
-        <v>1200</v>
-      </c>
-      <c r="E73" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="F73" s="46">
-        <v>1243</v>
-      </c>
-      <c r="G73" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="H73" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="I73" s="228"/>
-    </row>
-    <row r="74" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="115" t="s">
-        <v>105</v>
-      </c>
-      <c r="B74" s="125"/>
-      <c r="C74" s="138" t="s">
-        <v>275</v>
-      </c>
-      <c r="D74" s="139"/>
-      <c r="E74" s="139"/>
-      <c r="F74" s="139"/>
-      <c r="G74" s="139"/>
-      <c r="H74" s="140"/>
-      <c r="I74" s="228"/>
-    </row>
-    <row r="75" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="77" t="s">
-        <v>169</v>
-      </c>
-      <c r="B75" s="125"/>
-      <c r="C75" s="138" t="s">
-        <v>276</v>
-      </c>
-      <c r="D75" s="139"/>
-      <c r="E75" s="139"/>
-      <c r="F75" s="139"/>
-      <c r="G75" s="139"/>
-      <c r="H75" s="140"/>
-      <c r="I75" s="228"/>
-    </row>
-    <row r="76" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A76" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="B76" s="125" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" s="108" t="s">
-        <v>85</v>
-      </c>
-      <c r="D76" s="40">
-        <v>201</v>
-      </c>
-      <c r="E76" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="F76" s="40">
-        <v>100</v>
-      </c>
-      <c r="G76" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="H76" s="47">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="B77" s="126" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" s="111" t="s">
-        <v>111</v>
-      </c>
-      <c r="D77" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="E77" s="110" t="s">
-        <v>110</v>
-      </c>
-      <c r="F77" s="217" t="s">
-        <v>239</v>
-      </c>
-      <c r="G77" s="145"/>
-      <c r="H77" s="146"/>
-    </row>
-    <row r="78" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="204"/>
-      <c r="B78" s="204"/>
-      <c r="C78" s="204"/>
-      <c r="D78" s="204"/>
-      <c r="E78" s="204"/>
-      <c r="F78" s="204"/>
-      <c r="G78" s="204"/>
-      <c r="H78" s="204"/>
-    </row>
-    <row r="79" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A79" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="B79" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C79" s="166"/>
-      <c r="D79" s="167"/>
-      <c r="E79" s="167"/>
-      <c r="F79" s="167"/>
-      <c r="G79" s="167"/>
-      <c r="H79" s="168"/>
-    </row>
-    <row r="80" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="B80" s="78"/>
-      <c r="C80" s="141" t="s">
-        <v>233</v>
-      </c>
-      <c r="D80" s="142"/>
-      <c r="E80" s="142"/>
-      <c r="F80" s="142"/>
-      <c r="G80" s="142"/>
-      <c r="H80" s="143"/>
-    </row>
-    <row r="81" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A81" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="B81" s="125"/>
-      <c r="C81" s="180" t="s">
-        <v>112</v>
-      </c>
-      <c r="D81" s="181"/>
-      <c r="E81" s="28">
-        <v>1</v>
-      </c>
-      <c r="F81" s="202" t="s">
-        <v>174</v>
-      </c>
-      <c r="G81" s="203"/>
-      <c r="H81" s="22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="B82" s="125"/>
-      <c r="C82" s="180" t="s">
-        <v>113</v>
-      </c>
-      <c r="D82" s="181"/>
-      <c r="E82" s="28">
-        <v>501</v>
-      </c>
-      <c r="F82" s="202" t="s">
-        <v>114</v>
-      </c>
-      <c r="G82" s="203"/>
-      <c r="H82" s="32">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A83" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="B83" s="125" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" s="180" t="s">
-        <v>154</v>
-      </c>
-      <c r="D83" s="181"/>
-      <c r="E83" s="39">
-        <v>98</v>
-      </c>
-      <c r="F83" s="202" t="s">
-        <v>155</v>
-      </c>
-      <c r="G83" s="203"/>
-      <c r="H83" s="32">
-        <v>66.400000000000006</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="B84" s="125"/>
-      <c r="C84" s="108" t="s">
-        <v>165</v>
-      </c>
-      <c r="D84" s="17">
-        <v>23.87</v>
-      </c>
-      <c r="E84" s="112" t="s">
-        <v>166</v>
-      </c>
-      <c r="F84" s="13">
-        <v>29.8</v>
-      </c>
-      <c r="G84" s="178"/>
-      <c r="H84" s="179"/>
-    </row>
-    <row r="85" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A85" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="B85" s="125" t="s">
-        <v>80</v>
-      </c>
-      <c r="C85" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="D85" s="16">
-        <v>10000</v>
-      </c>
-      <c r="E85" s="97" t="s">
-        <v>119</v>
-      </c>
-      <c r="F85" s="16">
-        <v>7500</v>
-      </c>
-      <c r="G85" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="H85" s="14">
-        <v>5000</v>
-      </c>
-      <c r="I85" s="133"/>
-    </row>
-    <row r="86" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A86" s="115" t="s">
-        <v>210</v>
-      </c>
-      <c r="B86" s="125"/>
-      <c r="C86" s="141" t="s">
-        <v>232</v>
-      </c>
-      <c r="D86" s="142"/>
-      <c r="E86" s="142"/>
-      <c r="F86" s="142"/>
-      <c r="G86" s="142"/>
-      <c r="H86" s="143"/>
-    </row>
-    <row r="87" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A87" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="B87" s="125"/>
-      <c r="C87" s="141" t="s">
-        <v>231</v>
-      </c>
-      <c r="D87" s="142"/>
-      <c r="E87" s="142"/>
-      <c r="F87" s="142"/>
-      <c r="G87" s="142"/>
-      <c r="H87" s="143"/>
-    </row>
-    <row r="88" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A88" s="115" t="s">
-        <v>56</v>
-      </c>
-      <c r="B88" s="125"/>
-      <c r="C88" s="141" t="s">
-        <v>230</v>
-      </c>
-      <c r="D88" s="142"/>
-      <c r="E88" s="142"/>
-      <c r="F88" s="142"/>
-      <c r="G88" s="142"/>
-      <c r="H88" s="143"/>
-    </row>
-    <row r="89" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A89" s="115" t="s">
-        <v>124</v>
-      </c>
-      <c r="B89" s="125"/>
-      <c r="C89" s="141" t="s">
-        <v>229</v>
-      </c>
-      <c r="D89" s="142"/>
-      <c r="E89" s="142"/>
-      <c r="F89" s="142"/>
-      <c r="G89" s="142"/>
-      <c r="H89" s="143"/>
-    </row>
-    <row r="90" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A90" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="B90" s="125" t="s">
-        <v>81</v>
-      </c>
-      <c r="C90" s="20">
-        <v>2.76</v>
-      </c>
-      <c r="D90" s="211"/>
-      <c r="E90" s="212"/>
-      <c r="F90" s="212"/>
-      <c r="G90" s="212"/>
-      <c r="H90" s="213"/>
-    </row>
-    <row r="91" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="B91" s="125"/>
-      <c r="C91" s="141" t="s">
-        <v>228</v>
-      </c>
-      <c r="D91" s="142"/>
-      <c r="E91" s="142"/>
-      <c r="F91" s="142"/>
-      <c r="G91" s="142"/>
-      <c r="H91" s="143"/>
-    </row>
-    <row r="92" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A92" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="B92" s="125"/>
-      <c r="C92" s="108" t="s">
-        <v>122</v>
-      </c>
-      <c r="D92" s="46">
-        <v>1709</v>
-      </c>
-      <c r="E92" s="206" t="s">
-        <v>121</v>
-      </c>
-      <c r="F92" s="207"/>
-      <c r="G92" s="31">
-        <v>190</v>
-      </c>
-      <c r="H92" s="23"/>
-    </row>
-    <row r="93" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A93" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="B93" s="125"/>
-      <c r="C93" s="137" t="s">
-        <v>266</v>
-      </c>
-      <c r="D93" s="214" t="s">
-        <v>152</v>
-      </c>
-      <c r="E93" s="215"/>
-      <c r="F93" s="45">
-        <v>2390</v>
-      </c>
-      <c r="G93" s="96" t="s">
-        <v>153</v>
-      </c>
-      <c r="H93" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A94" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="B94" s="125"/>
-      <c r="C94" s="108" t="s">
-        <v>167</v>
-      </c>
-      <c r="D94" s="45">
-        <v>42</v>
-      </c>
-      <c r="E94" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="F94" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="G94" s="159"/>
-      <c r="H94" s="160"/>
-    </row>
-    <row r="95" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A95" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="B95" s="125"/>
-      <c r="C95" s="141" t="s">
-        <v>227</v>
-      </c>
-      <c r="D95" s="142"/>
-      <c r="E95" s="142"/>
-      <c r="F95" s="142"/>
-      <c r="G95" s="142"/>
-      <c r="H95" s="143"/>
-    </row>
-    <row r="96" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A96" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="B96" s="125"/>
-      <c r="C96" s="141" t="s">
-        <v>226</v>
-      </c>
-      <c r="D96" s="142"/>
-      <c r="E96" s="142"/>
-      <c r="F96" s="142"/>
-      <c r="G96" s="142"/>
-      <c r="H96" s="143"/>
-    </row>
-    <row r="97" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A97" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="B97" s="125"/>
-      <c r="C97" s="141" t="s">
-        <v>225</v>
-      </c>
-      <c r="D97" s="142"/>
-      <c r="E97" s="142"/>
-      <c r="F97" s="142"/>
-      <c r="G97" s="142"/>
-      <c r="H97" s="143"/>
-    </row>
-    <row r="98" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A98" s="115" t="s">
-        <v>194</v>
-      </c>
-      <c r="B98" s="125"/>
-      <c r="C98" s="141" t="s">
-        <v>224</v>
-      </c>
-      <c r="D98" s="142"/>
-      <c r="E98" s="142"/>
-      <c r="F98" s="142"/>
-      <c r="G98" s="142"/>
-      <c r="H98" s="143"/>
-    </row>
-    <row r="99" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A99" s="116" t="s">
-        <v>15</v>
-      </c>
-      <c r="B99" s="82"/>
-      <c r="C99" s="208" t="s">
-        <v>157</v>
-      </c>
-      <c r="D99" s="209"/>
-      <c r="E99" s="209"/>
-      <c r="F99" s="209"/>
-      <c r="G99" s="209"/>
-      <c r="H99" s="210"/>
-      <c r="I99" s="132"/>
-    </row>
-    <row r="100" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A100" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="B100" s="78"/>
-      <c r="C100" s="141" t="s">
-        <v>223</v>
-      </c>
-      <c r="D100" s="142"/>
-      <c r="E100" s="142"/>
-      <c r="F100" s="205"/>
-      <c r="G100" s="96" t="s">
-        <v>175</v>
-      </c>
-      <c r="H100" s="44">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A101" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="B101" s="78"/>
-      <c r="C101" s="141" t="s">
-        <v>222</v>
-      </c>
-      <c r="D101" s="142"/>
-      <c r="E101" s="142"/>
-      <c r="F101" s="142"/>
-      <c r="G101" s="142"/>
-      <c r="H101" s="143"/>
-    </row>
-    <row r="102" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="117" t="s">
-        <v>48</v>
-      </c>
-      <c r="B102" s="80"/>
-      <c r="C102" s="144" t="s">
-        <v>221</v>
-      </c>
-      <c r="D102" s="145"/>
-      <c r="E102" s="145"/>
-      <c r="F102" s="145"/>
-      <c r="G102" s="145"/>
-      <c r="H102" s="146"/>
-    </row>
-    <row r="103" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="204"/>
-      <c r="B103" s="204"/>
-      <c r="C103" s="204"/>
-      <c r="D103" s="204"/>
-      <c r="E103" s="204"/>
-      <c r="F103" s="204"/>
-      <c r="G103" s="204"/>
-      <c r="H103" s="204"/>
-    </row>
-    <row r="104" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A104" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C104" s="166"/>
-      <c r="D104" s="167"/>
-      <c r="E104" s="167"/>
-      <c r="F104" s="167"/>
-      <c r="G104" s="167"/>
-      <c r="H104" s="168"/>
-    </row>
-    <row r="105" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A105" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="B105" s="78"/>
-      <c r="C105" s="141" t="s">
-        <v>220</v>
-      </c>
-      <c r="D105" s="142"/>
-      <c r="E105" s="142"/>
-      <c r="F105" s="142"/>
-      <c r="G105" s="142"/>
-      <c r="H105" s="143"/>
-    </row>
-    <row r="106" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A106" s="77" t="s">
-        <v>196</v>
-      </c>
-      <c r="B106" s="125"/>
-      <c r="C106" s="141" t="s">
-        <v>219</v>
-      </c>
-      <c r="D106" s="142"/>
-      <c r="E106" s="142"/>
-      <c r="F106" s="142"/>
-      <c r="G106" s="142"/>
-      <c r="H106" s="143"/>
-    </row>
-    <row r="107" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A107" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="B107" s="125" t="s">
-        <v>101</v>
-      </c>
-      <c r="C107" s="20">
-        <v>1</v>
-      </c>
-      <c r="D107" s="220"/>
-      <c r="E107" s="221"/>
-      <c r="F107" s="221"/>
-      <c r="G107" s="221"/>
-      <c r="H107" s="222"/>
-    </row>
-    <row r="108" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A108" s="115" t="s">
-        <v>21</v>
-      </c>
-      <c r="B108" s="125" t="s">
-        <v>125</v>
-      </c>
-      <c r="C108" s="108" t="s">
-        <v>126</v>
-      </c>
-      <c r="D108" s="39">
-        <v>32.6</v>
-      </c>
-      <c r="E108" s="96" t="s">
-        <v>129</v>
-      </c>
-      <c r="F108" s="39">
-        <v>40.9</v>
-      </c>
-      <c r="G108" s="96" t="s">
-        <v>130</v>
-      </c>
-      <c r="H108" s="32">
-        <v>50.4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A109" s="115" t="s">
-        <v>21</v>
-      </c>
-      <c r="B109" s="125" t="s">
-        <v>125</v>
-      </c>
-      <c r="C109" s="108" t="s">
-        <v>127</v>
-      </c>
-      <c r="D109" s="39">
-        <v>61.7</v>
-      </c>
-      <c r="E109" s="96" t="s">
-        <v>128</v>
-      </c>
-      <c r="F109" s="39">
-        <v>75</v>
-      </c>
-      <c r="G109" s="96" t="s">
-        <v>131</v>
-      </c>
-      <c r="H109" s="32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A110" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="B110" s="78"/>
-      <c r="C110" s="141" t="s">
+      <c r="C119" s="145"/>
+      <c r="D119" s="146"/>
+      <c r="E119" s="146"/>
+      <c r="F119" s="146"/>
+      <c r="G119" s="146"/>
+      <c r="H119" s="147"/>
+    </row>
+    <row r="120" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="B120" s="88"/>
+      <c r="C120" s="139" t="s">
         <v>277</v>
       </c>
-      <c r="D110" s="142"/>
-      <c r="E110" s="142"/>
-      <c r="F110" s="142"/>
-      <c r="G110" s="142"/>
-      <c r="H110" s="143"/>
-      <c r="I110" s="229"/>
-    </row>
-    <row r="111" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="B111" s="80"/>
-      <c r="C111" s="144" t="s">
-        <v>218</v>
-      </c>
-      <c r="D111" s="145"/>
-      <c r="E111" s="145"/>
-      <c r="F111" s="145"/>
-      <c r="G111" s="145"/>
-      <c r="H111" s="146"/>
-    </row>
-    <row r="112" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="162"/>
-      <c r="B112" s="162"/>
-      <c r="C112" s="162"/>
-      <c r="D112" s="162"/>
-      <c r="E112" s="162"/>
-      <c r="F112" s="162"/>
-      <c r="G112" s="162"/>
-      <c r="H112" s="162"/>
-    </row>
-    <row r="113" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A113" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="B113" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C113" s="166"/>
-      <c r="D113" s="167"/>
-      <c r="E113" s="167"/>
-      <c r="F113" s="167"/>
-      <c r="G113" s="167"/>
-      <c r="H113" s="168"/>
-    </row>
-    <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="B114" s="85"/>
-      <c r="C114" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="D114" s="142"/>
-      <c r="E114" s="142"/>
-      <c r="F114" s="142"/>
-      <c r="G114" s="142"/>
-      <c r="H114" s="143"/>
-    </row>
-    <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="118" t="s">
-        <v>134</v>
-      </c>
-      <c r="B115" s="85"/>
-      <c r="C115" s="108" t="s">
-        <v>135</v>
-      </c>
-      <c r="D115" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="E115" s="96" t="s">
-        <v>133</v>
-      </c>
-      <c r="F115" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="G115" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="H115" s="41" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="B116" s="85" t="s">
-        <v>140</v>
-      </c>
-      <c r="C116" s="108" t="s">
-        <v>139</v>
-      </c>
-      <c r="D116" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="E116" s="96" t="s">
-        <v>137</v>
-      </c>
-      <c r="F116" s="42">
-        <v>0.84</v>
-      </c>
-      <c r="G116" s="96" t="s">
-        <v>138</v>
-      </c>
-      <c r="H116" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="I116" s="229"/>
-    </row>
-    <row r="117" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="B117" s="88"/>
-      <c r="C117" s="144" t="s">
-        <v>217</v>
-      </c>
-      <c r="D117" s="145"/>
-      <c r="E117" s="145"/>
-      <c r="F117" s="145"/>
-      <c r="G117" s="145"/>
-      <c r="H117" s="146"/>
-    </row>
-    <row r="118" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="162"/>
-      <c r="B118" s="162"/>
-      <c r="C118" s="162"/>
-      <c r="D118" s="162"/>
-      <c r="E118" s="162"/>
-      <c r="F118" s="162"/>
-      <c r="G118" s="162"/>
-      <c r="H118" s="162"/>
-    </row>
-    <row r="119" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A119" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="B119" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C119" s="166"/>
-      <c r="D119" s="167"/>
-      <c r="E119" s="167"/>
-      <c r="F119" s="167"/>
-      <c r="G119" s="167"/>
-      <c r="H119" s="168"/>
-    </row>
-    <row r="120" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="B120" s="90"/>
-      <c r="C120" s="141"/>
-      <c r="D120" s="142"/>
-      <c r="E120" s="142"/>
-      <c r="F120" s="142"/>
-      <c r="G120" s="142"/>
-      <c r="H120" s="143"/>
-      <c r="I120" s="132"/>
+      <c r="D120" s="140"/>
+      <c r="E120" s="140"/>
+      <c r="F120" s="140"/>
+      <c r="G120" s="140"/>
+      <c r="H120" s="141"/>
+      <c r="I120" s="222"/>
     </row>
     <row r="121" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="79" t="s">
+      <c r="A121" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="B121" s="91"/>
-      <c r="C121" s="144"/>
-      <c r="D121" s="145"/>
-      <c r="E121" s="145"/>
-      <c r="F121" s="145"/>
-      <c r="G121" s="145"/>
-      <c r="H121" s="146"/>
-      <c r="I121" s="227"/>
+      <c r="B121" s="89"/>
+      <c r="C121" s="136"/>
+      <c r="D121" s="137"/>
+      <c r="E121" s="137"/>
+      <c r="F121" s="137"/>
+      <c r="G121" s="137"/>
+      <c r="H121" s="138"/>
+      <c r="I121" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="127">
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="A112:H112"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="A103:H103"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="A67:H67"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C60:H60"/>
     <mergeCell ref="C54:H54"/>
     <mergeCell ref="C121:H121"/>
     <mergeCell ref="C105:H105"/>
@@ -6919,109 +6983,6 @@
     <mergeCell ref="C64:H64"/>
     <mergeCell ref="A58:H58"/>
     <mergeCell ref="C65:H65"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="A67:H67"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="A112:H112"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="A103:H103"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C49:H49"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7050,112 +7011,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1" style="127" customWidth="1"/>
-    <col min="2" max="2" width="113.5546875" style="127" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="127"/>
+    <col min="1" max="1" width="1" style="125" customWidth="1"/>
+    <col min="2" max="2" width="113.5546875" style="125" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="125"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="126" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="129" t="s">
-        <v>209</v>
+      <c r="B4" s="127" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="127" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="127" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="127" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="127" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="127" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="127" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="128" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="129" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="129" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="129" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="129" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="129" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="130" t="s">
-        <v>208</v>
-      </c>
-    </row>
     <row r="12" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="129" t="s">
-        <v>193</v>
+      <c r="B12" s="127" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="131"/>
+      <c r="B13" s="129"/>
     </row>
     <row r="14" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="129"/>
+      <c r="B14" s="127"/>
     </row>
     <row r="15" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="129"/>
+      <c r="B15" s="127"/>
     </row>
     <row r="16" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="129"/>
+      <c r="B16" s="127"/>
     </row>
     <row r="17" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="129"/>
+      <c r="B17" s="127"/>
     </row>
     <row r="18" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="129"/>
+      <c r="B18" s="127"/>
     </row>
     <row r="19" spans="2:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="129"/>
+      <c r="B19" s="127"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="129"/>
+      <c r="B20" s="127"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="129"/>
+      <c r="B21" s="127"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="129"/>
+      <c r="B22" s="127"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="129"/>
+      <c r="B23" s="127"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="129"/>
+      <c r="B24" s="127"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="129"/>
+      <c r="B25" s="127"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="129"/>
+      <c r="B26" s="127"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="129"/>
+      <c r="B27" s="127"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="129"/>
+      <c r="B28" s="127"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="129"/>
+      <c r="B29" s="127"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Competition 2025/2025_FSAE_Design_IC_Spec_Sheet_VU.xlsx
+++ b/Competition 2025/2025_FSAE_Design_IC_Spec_Sheet_VU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egroh\Documents\GitHub\vandymotorsports\Competition 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2704FBA2-FAE4-49DC-8E15-A22B28E904FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B640A649-C34D-4CC6-A855-C4959942003E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Competition 2025/2025_FSAE_Design_IC_Spec_Sheet_VU.xlsx
+++ b/Competition 2025/2025_FSAE_Design_IC_Spec_Sheet_VU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egroh\Documents\GitHub\vandymotorsports\Competition 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B640A649-C34D-4CC6-A855-C4959942003E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28513F27-1A6F-45CA-B977-650BCB879B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2749,9 +2749,6 @@
     <t>Yamaha 5-speed sequential gearbox, 520 chain driven</t>
   </si>
   <si>
-    <t>Stroker crank shaft adds 3mm to stroke, big bore cylinder kit adds 3mm to bore, displacement increase from 449cc to 501cc, clutch from Rekluse</t>
-  </si>
-  <si>
     <t>LeoVince LV One EVO Slip-On Exhaust</t>
   </si>
   <si>
@@ -2824,9 +2821,6 @@
     <t>removeable electronic dash</t>
   </si>
   <si>
-    <t>Fixed, Vented Steel. Thickness: 0.155" Outer Diameter Wave Pattern, Max Diameter: 7"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tilton Brand 5/8" with Bias Bar </t>
   </si>
   <si>
@@ -2854,21 +2848,9 @@
     <t>4130  42-47 HRC, 2.59" OD</t>
   </si>
   <si>
-    <t>Engine data is logged through the custom data logging programs provided by the ECU. Accelerometer, GPS, Gryoscope data is collected and stored with a RaceBox Mini.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dedicated ground plane welded onto the chassis. </t>
   </si>
   <si>
-    <t>Shorai  LFX14L2-BS12.  The battery supplies 12 V with a capacity of 14 Ah and CCA of 210 A.  Charging is provided by the yamaha regulator and engine driven alternator</t>
-  </si>
-  <si>
-    <t>4 AWG for high current, 16 AWG for charging, 20 AWG for everything else. Aluminum case with rubber padding</t>
-  </si>
-  <si>
-    <t>There are three active safety mechanisms that can shut off power to the sensors and ECU.  There is a master switch located on the side of the car near the drivers shoulder through which all current between the battery and the rest of the car flows.  There is a cockpit master switch which controls relays that supply power to the ECU, injector coil, fuel pump and ignition coils.  Lastly, there is a brake over travel switch in series with the cockpit master switch which controls the same relays as the cockpit master switch and is designed to cut power in the event the brakes travel past their desirable range.  In addition, each relays' power line is fused.  The relay that supplies power to the starter motor is also fused.  The ECU is a PE3-8400A.</t>
-  </si>
-  <si>
     <t>Hoosier</t>
   </si>
   <si>
@@ -2884,9 +2866,6 @@
     <t>1-1</t>
   </si>
   <si>
-    <t>Keiser aluminum wheels, outer wheel half 2.5", inner wheel half 5"</t>
-  </si>
-  <si>
     <t>Pull rod, double a arm, 185 lb/in springs</t>
   </si>
   <si>
@@ -2899,9 +2878,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>variable steering arm length for adjusting toe and ackermann, variable caster by shimming upper control arms and swapping clevises, variable cambe by shimming uprights</t>
-  </si>
-  <si>
     <t>not yet conducted</t>
   </si>
   <si>
@@ -2927,6 +2903,48 @@
   </si>
   <si>
     <t>16.0X7.5</t>
+  </si>
+  <si>
+    <t>Keiser aluminum wheels, outer half 2.5", inner half 5"</t>
+  </si>
+  <si>
+    <t>steering arm length for toe, shim upper control arms &amp; swapping clevises to vary caster, shim upright to vary camber</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fixed, steel, 0.155" thick, wave pattern, max </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Franklin Gothic Medium Cond"/>
+        <family val="2"/>
+      </rPr>
+      <t>⌀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Medium Cond"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 7"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PE3-8400A ECU. Master switch, cockpit master switch, brake over travel switch.  Fuses on relay power lines and starter motor power. </t>
+  </si>
+  <si>
+    <t>4 AWG for high current, 16 AWG for charging, 20 AWG for everything else</t>
+  </si>
+  <si>
+    <t>Shorai  LFX14L2-BS12, supplies 12 V, 14 Ah capacity, CCA of 210 A.  Charging provided by yamaha regulator.</t>
+  </si>
+  <si>
+    <t>Engine data logged through the custom data logged by the ECU. Accel, GPS, Gryo data is collected with RaceBox Mini.</t>
+  </si>
+  <si>
+    <t>3mm added to stroke, 3mm added to bore, displacement increased from 439 to 501cc</t>
   </si>
 </sst>
 </file>
@@ -2936,7 +2954,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3123,6 +3141,11 @@
       <name val="Franklin Gothic Medium Cond"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Franklin Gothic Medium Cond"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3728,7 +3751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4126,6 +4149,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4135,6 +4167,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4144,48 +4185,234 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4193,223 +4420,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4786,8 +4800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120:H120"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4795,82 +4809,82 @@
     <col min="1" max="1" width="28.6640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" style="8" customWidth="1"/>
     <col min="3" max="8" width="12.88671875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="223"/>
+    <col min="9" max="9" width="9.109375" style="10"/>
     <col min="10" max="10" width="37.44140625" style="10" customWidth="1"/>
     <col min="11" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
       <c r="H1" s="6">
         <v>2025</v>
       </c>
-      <c r="I1" s="224"/>
+      <c r="I1" s="134"/>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="225"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="135"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="200">
+      <c r="B3" s="199"/>
+      <c r="C3" s="170">
         <v>130</v>
       </c>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="226"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="208" t="s">
+      <c r="A4" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="209"/>
-      <c r="C4" s="219" t="s">
+      <c r="B4" s="146"/>
+      <c r="C4" s="161" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="227"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="148"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
     </row>
     <row r="6" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
@@ -4879,12 +4893,12 @@
       <c r="B6" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="184"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="186"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="189"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
@@ -4954,11 +4968,11 @@
       <c r="E9" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="212" t="s">
+      <c r="F9" s="151" t="s">
         <v>212</v>
       </c>
-      <c r="G9" s="206"/>
-      <c r="H9" s="207"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="149"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
@@ -4985,7 +4999,7 @@
       <c r="H10" s="24">
         <v>162.9</v>
       </c>
-      <c r="I10" s="222"/>
+      <c r="I10" s="133"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="111" t="s">
@@ -5004,18 +5018,18 @@
       <c r="F11" s="25">
         <v>50.4</v>
       </c>
-      <c r="G11" s="203"/>
-      <c r="H11" s="204"/>
-      <c r="I11" s="222"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="133"/>
     </row>
     <row r="12" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="148"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
@@ -5024,16 +5038,16 @@
       <c r="B13" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="187" t="s">
+      <c r="C13" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="188"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="190" t="s">
+      <c r="D13" s="191"/>
+      <c r="E13" s="192"/>
+      <c r="F13" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="188"/>
-      <c r="H13" s="189"/>
+      <c r="G13" s="191"/>
+      <c r="H13" s="192"/>
     </row>
     <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
@@ -5041,22 +5055,22 @@
       </c>
       <c r="B14" s="63"/>
       <c r="C14" s="57" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D14" s="130" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E14" s="131" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G14" s="130" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H14" s="131" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5090,32 +5104,32 @@
         <v>201</v>
       </c>
       <c r="B16" s="117"/>
-      <c r="C16" s="213" t="s">
-        <v>265</v>
-      </c>
-      <c r="D16" s="214"/>
-      <c r="E16" s="215"/>
-      <c r="F16" s="213" t="s">
-        <v>265</v>
-      </c>
-      <c r="G16" s="214"/>
-      <c r="H16" s="215"/>
+      <c r="C16" s="152" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" s="153"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="152" t="s">
+        <v>272</v>
+      </c>
+      <c r="G16" s="153"/>
+      <c r="H16" s="154"/>
     </row>
     <row r="17" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="60" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="117"/>
-      <c r="C17" s="210" t="s">
-        <v>266</v>
-      </c>
-      <c r="D17" s="206"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="211" t="s">
-        <v>278</v>
-      </c>
-      <c r="G17" s="206"/>
-      <c r="H17" s="207"/>
+      <c r="C17" s="147" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="148"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="150" t="s">
+        <v>270</v>
+      </c>
+      <c r="G17" s="148"/>
+      <c r="H17" s="149"/>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="60" t="s">
@@ -5153,13 +5167,13 @@
       <c r="C19" s="31">
         <v>148.4</v>
       </c>
-      <c r="D19" s="160"/>
-      <c r="E19" s="161"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="158"/>
       <c r="F19" s="32">
         <v>148.4</v>
       </c>
-      <c r="G19" s="160"/>
-      <c r="H19" s="161"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="158"/>
     </row>
     <row r="20" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="60" t="s">
@@ -5171,13 +5185,13 @@
       <c r="C20" s="31">
         <v>299</v>
       </c>
-      <c r="D20" s="160"/>
-      <c r="E20" s="161"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="158"/>
       <c r="F20" s="32">
         <v>465</v>
       </c>
-      <c r="G20" s="160"/>
-      <c r="H20" s="161"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="158"/>
     </row>
     <row r="21" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="60" t="s">
@@ -5189,13 +5203,13 @@
       <c r="C21" s="33">
         <v>2.44</v>
       </c>
-      <c r="D21" s="160"/>
-      <c r="E21" s="161"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="158"/>
       <c r="F21" s="34">
         <v>3.2</v>
       </c>
-      <c r="G21" s="160"/>
-      <c r="H21" s="161"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="158"/>
     </row>
     <row r="22" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="60" t="s">
@@ -5261,7 +5275,7 @@
         <v>99</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F24" s="36">
         <v>2.14</v>
@@ -5270,7 +5284,7 @@
         <v>99</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
@@ -5283,13 +5297,13 @@
       <c r="C25" s="48">
         <v>35.5</v>
       </c>
-      <c r="D25" s="160"/>
-      <c r="E25" s="161"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="158"/>
       <c r="F25" s="15">
         <v>31</v>
       </c>
-      <c r="G25" s="160"/>
-      <c r="H25" s="161"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="158"/>
     </row>
     <row r="26" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="60" t="s">
@@ -5301,13 +5315,13 @@
       <c r="C26" s="48">
         <v>0.7</v>
       </c>
-      <c r="D26" s="160"/>
-      <c r="E26" s="161"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="158"/>
       <c r="F26" s="15">
         <v>0.7</v>
       </c>
-      <c r="G26" s="160"/>
-      <c r="H26" s="161"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="158"/>
     </row>
     <row r="27" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="60" t="s">
@@ -5319,13 +5333,13 @@
       <c r="C27" s="35">
         <v>0</v>
       </c>
-      <c r="D27" s="160"/>
-      <c r="E27" s="161"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="158"/>
       <c r="F27" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="G27" s="160"/>
-      <c r="H27" s="161"/>
+        <v>256</v>
+      </c>
+      <c r="G27" s="157"/>
+      <c r="H27" s="158"/>
     </row>
     <row r="28" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="60" t="s">
@@ -5337,26 +5351,26 @@
       <c r="C28" s="35">
         <v>-0.8</v>
       </c>
-      <c r="D28" s="160"/>
-      <c r="E28" s="161"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="158"/>
       <c r="F28" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="G28" s="160"/>
-      <c r="H28" s="161"/>
+        <v>256</v>
+      </c>
+      <c r="G28" s="157"/>
+      <c r="H28" s="158"/>
     </row>
     <row r="29" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="60" t="s">
         <v>96</v>
       </c>
       <c r="B29" s="117"/>
-      <c r="C29" s="194" t="s">
-        <v>267</v>
+      <c r="C29" s="197" t="s">
+        <v>260</v>
       </c>
       <c r="D29" s="140"/>
       <c r="E29" s="141"/>
-      <c r="F29" s="218" t="s">
-        <v>268</v>
+      <c r="F29" s="159" t="s">
+        <v>261</v>
       </c>
       <c r="G29" s="140"/>
       <c r="H29" s="141"/>
@@ -5371,13 +5385,13 @@
       <c r="C30" s="47">
         <v>0</v>
       </c>
-      <c r="D30" s="160"/>
-      <c r="E30" s="161"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="158"/>
       <c r="F30" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="G30" s="160"/>
-      <c r="H30" s="161"/>
+        <v>256</v>
+      </c>
+      <c r="G30" s="157"/>
+      <c r="H30" s="158"/>
     </row>
     <row r="31" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="112" t="s">
@@ -5389,13 +5403,13 @@
       <c r="C31" s="48">
         <v>48.26</v>
       </c>
-      <c r="D31" s="160"/>
-      <c r="E31" s="161"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="158"/>
       <c r="F31" s="49">
         <v>93.944999999999993</v>
       </c>
-      <c r="G31" s="160"/>
-      <c r="H31" s="161"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="158"/>
     </row>
     <row r="32" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="60" t="s">
@@ -5464,8 +5478,8 @@
       <c r="F34" s="43">
         <v>42.2</v>
       </c>
-      <c r="G34" s="216"/>
-      <c r="H34" s="217"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="156"/>
     </row>
     <row r="35" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="60" t="s">
@@ -5481,25 +5495,25 @@
         <v>144</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="F35" s="191"/>
-      <c r="G35" s="192"/>
-      <c r="H35" s="193"/>
+        <v>262</v>
+      </c>
+      <c r="F35" s="194"/>
+      <c r="G35" s="195"/>
+      <c r="H35" s="196"/>
     </row>
     <row r="36" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
         <v>171</v>
       </c>
       <c r="B36" s="118"/>
-      <c r="C36" s="205" t="s">
-        <v>270</v>
-      </c>
-      <c r="D36" s="206"/>
-      <c r="E36" s="206"/>
-      <c r="F36" s="206"/>
-      <c r="G36" s="206"/>
-      <c r="H36" s="207"/>
+      <c r="C36" s="175" t="s">
+        <v>273</v>
+      </c>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="149"/>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="111" t="s">
@@ -5526,14 +5540,14 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="148"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
+      <c r="A38" s="160"/>
+      <c r="B38" s="160"/>
+      <c r="C38" s="160"/>
+      <c r="D38" s="160"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
     </row>
     <row r="39" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
@@ -5542,29 +5556,29 @@
       <c r="B39" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="187" t="s">
+      <c r="C39" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="188"/>
-      <c r="E39" s="189"/>
-      <c r="F39" s="187" t="s">
+      <c r="D39" s="191"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="188"/>
-      <c r="H39" s="189"/>
-    </row>
-    <row r="40" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="G39" s="191"/>
+      <c r="H39" s="192"/>
+    </row>
+    <row r="40" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="60" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="66"/>
       <c r="C40" s="139" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="D40" s="140"/>
       <c r="E40" s="141"/>
       <c r="F40" s="139" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="G40" s="140"/>
       <c r="H40" s="141"/>
@@ -5575,12 +5589,12 @@
       </c>
       <c r="B41" s="66"/>
       <c r="C41" s="139" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D41" s="140"/>
       <c r="E41" s="141"/>
       <c r="F41" s="139" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G41" s="140"/>
       <c r="H41" s="141"/>
@@ -5591,12 +5605,12 @@
       </c>
       <c r="B42" s="66"/>
       <c r="C42" s="139" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D42" s="140"/>
       <c r="E42" s="141"/>
       <c r="F42" s="139" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G42" s="140"/>
       <c r="H42" s="141"/>
@@ -5607,12 +5621,12 @@
       </c>
       <c r="B43" s="66"/>
       <c r="C43" s="139" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D43" s="140"/>
       <c r="E43" s="141"/>
       <c r="F43" s="139" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G43" s="140"/>
       <c r="H43" s="141"/>
@@ -5647,12 +5661,12 @@
       </c>
       <c r="B45" s="67"/>
       <c r="C45" s="139" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D45" s="140"/>
       <c r="E45" s="141"/>
       <c r="F45" s="139" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G45" s="140"/>
       <c r="H45" s="141"/>
@@ -5663,12 +5677,12 @@
       </c>
       <c r="B46" s="66"/>
       <c r="C46" s="139" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D46" s="140"/>
       <c r="E46" s="141"/>
       <c r="F46" s="139" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G46" s="140"/>
       <c r="H46" s="141"/>
@@ -5678,26 +5692,26 @@
         <v>24</v>
       </c>
       <c r="B47" s="68"/>
-      <c r="C47" s="136" t="s">
-        <v>253</v>
-      </c>
-      <c r="D47" s="137"/>
-      <c r="E47" s="138"/>
-      <c r="F47" s="136" t="s">
-        <v>254</v>
-      </c>
-      <c r="G47" s="137"/>
-      <c r="H47" s="138"/>
+      <c r="C47" s="142" t="s">
+        <v>251</v>
+      </c>
+      <c r="D47" s="143"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="142" t="s">
+        <v>252</v>
+      </c>
+      <c r="G47" s="143"/>
+      <c r="H47" s="144"/>
     </row>
     <row r="48" spans="1:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="148"/>
-      <c r="B48" s="148"/>
-      <c r="C48" s="148"/>
-      <c r="D48" s="148"/>
-      <c r="E48" s="148"/>
-      <c r="F48" s="148"/>
-      <c r="G48" s="148"/>
-      <c r="H48" s="148"/>
+      <c r="A48" s="160"/>
+      <c r="B48" s="160"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="160"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="160"/>
     </row>
     <row r="49" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="58" t="s">
@@ -5706,40 +5720,40 @@
       <c r="B49" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="145"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="146"/>
-      <c r="F49" s="146"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="147"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="165"/>
+      <c r="E49" s="165"/>
+      <c r="F49" s="165"/>
+      <c r="G49" s="165"/>
+      <c r="H49" s="166"/>
     </row>
     <row r="50" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="60" t="s">
         <v>9</v>
       </c>
       <c r="B50" s="70"/>
-      <c r="C50" s="133" t="s">
-        <v>239</v>
-      </c>
-      <c r="D50" s="134"/>
-      <c r="E50" s="134"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="135"/>
+      <c r="C50" s="136" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" s="137"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="138"/>
     </row>
     <row r="51" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="60" t="s">
         <v>57</v>
       </c>
       <c r="B51" s="70"/>
-      <c r="C51" s="133" t="s">
-        <v>240</v>
-      </c>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="135"/>
+      <c r="C51" s="136" t="s">
+        <v>239</v>
+      </c>
+      <c r="D51" s="137"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="137"/>
+      <c r="H51" s="138"/>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="60" t="s">
@@ -5755,87 +5769,87 @@
       <c r="E52" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="F52" s="197" t="s">
-        <v>241</v>
-      </c>
-      <c r="G52" s="198"/>
-      <c r="H52" s="199"/>
+      <c r="F52" s="167" t="s">
+        <v>240</v>
+      </c>
+      <c r="G52" s="168"/>
+      <c r="H52" s="169"/>
     </row>
     <row r="53" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="60" t="s">
         <v>32</v>
       </c>
       <c r="B53" s="70"/>
-      <c r="C53" s="133" t="s">
-        <v>242</v>
-      </c>
-      <c r="D53" s="134"/>
-      <c r="E53" s="134"/>
-      <c r="F53" s="134"/>
-      <c r="G53" s="134"/>
-      <c r="H53" s="135"/>
+      <c r="C53" s="136" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53" s="137"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="137"/>
+      <c r="G53" s="137"/>
+      <c r="H53" s="138"/>
     </row>
     <row r="54" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="60" t="s">
         <v>33</v>
       </c>
       <c r="B54" s="70"/>
-      <c r="C54" s="133" t="s">
-        <v>243</v>
-      </c>
-      <c r="D54" s="134"/>
-      <c r="E54" s="134"/>
-      <c r="F54" s="134"/>
-      <c r="G54" s="134"/>
-      <c r="H54" s="135"/>
+      <c r="C54" s="136" t="s">
+        <v>242</v>
+      </c>
+      <c r="D54" s="137"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="137"/>
+      <c r="G54" s="137"/>
+      <c r="H54" s="138"/>
     </row>
     <row r="55" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="60" t="s">
         <v>34</v>
       </c>
       <c r="B55" s="70"/>
-      <c r="C55" s="133" t="s">
-        <v>244</v>
-      </c>
-      <c r="D55" s="134"/>
-      <c r="E55" s="134"/>
-      <c r="F55" s="134"/>
-      <c r="G55" s="134"/>
-      <c r="H55" s="135"/>
+      <c r="C55" s="136" t="s">
+        <v>243</v>
+      </c>
+      <c r="D55" s="137"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="137"/>
+      <c r="G55" s="137"/>
+      <c r="H55" s="138"/>
     </row>
     <row r="56" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="71" t="s">
         <v>179</v>
       </c>
       <c r="B56" s="72"/>
-      <c r="C56" s="181" t="s">
+      <c r="C56" s="184" t="s">
         <v>216</v>
       </c>
-      <c r="D56" s="182"/>
-      <c r="E56" s="182"/>
-      <c r="F56" s="182"/>
-      <c r="G56" s="182"/>
-      <c r="H56" s="183"/>
+      <c r="D56" s="185"/>
+      <c r="E56" s="185"/>
+      <c r="F56" s="185"/>
+      <c r="G56" s="185"/>
+      <c r="H56" s="186"/>
     </row>
     <row r="57" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="159"/>
-      <c r="B57" s="159"/>
-      <c r="C57" s="159"/>
-      <c r="D57" s="159"/>
-      <c r="E57" s="159"/>
-      <c r="F57" s="159"/>
-      <c r="G57" s="159"/>
-      <c r="H57" s="159"/>
+      <c r="A57" s="214"/>
+      <c r="B57" s="214"/>
+      <c r="C57" s="214"/>
+      <c r="D57" s="214"/>
+      <c r="E57" s="214"/>
+      <c r="F57" s="214"/>
+      <c r="G57" s="214"/>
+      <c r="H57" s="214"/>
     </row>
     <row r="58" spans="1:8" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="158"/>
-      <c r="B58" s="158"/>
-      <c r="C58" s="158"/>
-      <c r="D58" s="158"/>
-      <c r="E58" s="158"/>
-      <c r="F58" s="158"/>
-      <c r="G58" s="158"/>
-      <c r="H58" s="158"/>
+      <c r="A58" s="224"/>
+      <c r="B58" s="224"/>
+      <c r="C58" s="224"/>
+      <c r="D58" s="224"/>
+      <c r="E58" s="224"/>
+      <c r="F58" s="224"/>
+      <c r="G58" s="224"/>
+      <c r="H58" s="224"/>
     </row>
     <row r="59" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="58" t="s">
@@ -5844,12 +5858,12 @@
       <c r="B59" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="145"/>
-      <c r="D59" s="146"/>
-      <c r="E59" s="146"/>
-      <c r="F59" s="146"/>
-      <c r="G59" s="146"/>
-      <c r="H59" s="147"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="165"/>
+      <c r="E59" s="165"/>
+      <c r="F59" s="165"/>
+      <c r="G59" s="165"/>
+      <c r="H59" s="166"/>
     </row>
     <row r="60" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="60" t="s">
@@ -5857,27 +5871,27 @@
       </c>
       <c r="B60" s="73"/>
       <c r="C60" s="139" t="s">
-        <v>259</v>
-      </c>
-      <c r="D60" s="156"/>
-      <c r="E60" s="156"/>
-      <c r="F60" s="156"/>
-      <c r="G60" s="156"/>
-      <c r="H60" s="157"/>
+        <v>275</v>
+      </c>
+      <c r="D60" s="216"/>
+      <c r="E60" s="216"/>
+      <c r="F60" s="216"/>
+      <c r="G60" s="216"/>
+      <c r="H60" s="217"/>
     </row>
     <row r="61" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="60" t="s">
         <v>58</v>
       </c>
       <c r="B61" s="73"/>
-      <c r="C61" s="133" t="s">
-        <v>258</v>
-      </c>
-      <c r="D61" s="134"/>
-      <c r="E61" s="134"/>
-      <c r="F61" s="134"/>
-      <c r="G61" s="134"/>
-      <c r="H61" s="135"/>
+      <c r="C61" s="136" t="s">
+        <v>276</v>
+      </c>
+      <c r="D61" s="137"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="138"/>
     </row>
     <row r="62" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="60" t="s">
@@ -5885,79 +5899,79 @@
       </c>
       <c r="B62" s="73"/>
       <c r="C62" s="139" t="s">
-        <v>257</v>
-      </c>
-      <c r="D62" s="156"/>
-      <c r="E62" s="156"/>
-      <c r="F62" s="156"/>
-      <c r="G62" s="156"/>
-      <c r="H62" s="157"/>
+        <v>277</v>
+      </c>
+      <c r="D62" s="216"/>
+      <c r="E62" s="216"/>
+      <c r="F62" s="216"/>
+      <c r="G62" s="216"/>
+      <c r="H62" s="217"/>
     </row>
     <row r="63" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="60" t="s">
         <v>54</v>
       </c>
       <c r="B63" s="70"/>
-      <c r="C63" s="133" t="s">
-        <v>256</v>
-      </c>
-      <c r="D63" s="134"/>
-      <c r="E63" s="134"/>
-      <c r="F63" s="134"/>
-      <c r="G63" s="134"/>
-      <c r="H63" s="135"/>
+      <c r="C63" s="136" t="s">
+        <v>253</v>
+      </c>
+      <c r="D63" s="137"/>
+      <c r="E63" s="137"/>
+      <c r="F63" s="137"/>
+      <c r="G63" s="137"/>
+      <c r="H63" s="138"/>
     </row>
     <row r="64" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="60" t="s">
         <v>51</v>
       </c>
       <c r="B64" s="73"/>
-      <c r="C64" s="133" t="s">
+      <c r="C64" s="136" t="s">
         <v>216</v>
       </c>
-      <c r="D64" s="134"/>
-      <c r="E64" s="134"/>
-      <c r="F64" s="134"/>
-      <c r="G64" s="134"/>
-      <c r="H64" s="135"/>
+      <c r="D64" s="137"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
+      <c r="G64" s="137"/>
+      <c r="H64" s="138"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="60" t="s">
         <v>55</v>
       </c>
       <c r="B65" s="73"/>
-      <c r="C65" s="133" t="s">
-        <v>255</v>
-      </c>
-      <c r="D65" s="134"/>
-      <c r="E65" s="134"/>
-      <c r="F65" s="134"/>
-      <c r="G65" s="134"/>
-      <c r="H65" s="135"/>
+      <c r="C65" s="136" t="s">
+        <v>278</v>
+      </c>
+      <c r="D65" s="137"/>
+      <c r="E65" s="137"/>
+      <c r="F65" s="137"/>
+      <c r="G65" s="137"/>
+      <c r="H65" s="138"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="62" t="s">
         <v>52</v>
       </c>
       <c r="B66" s="74"/>
-      <c r="C66" s="153" t="s">
+      <c r="C66" s="221" t="s">
         <v>216</v>
       </c>
-      <c r="D66" s="154"/>
-      <c r="E66" s="154"/>
-      <c r="F66" s="154"/>
-      <c r="G66" s="154"/>
-      <c r="H66" s="155"/>
+      <c r="D66" s="222"/>
+      <c r="E66" s="222"/>
+      <c r="F66" s="222"/>
+      <c r="G66" s="222"/>
+      <c r="H66" s="223"/>
     </row>
     <row r="67" spans="1:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="148"/>
-      <c r="B67" s="148"/>
-      <c r="C67" s="148"/>
-      <c r="D67" s="148"/>
-      <c r="E67" s="148"/>
-      <c r="F67" s="148"/>
-      <c r="G67" s="148"/>
-      <c r="H67" s="148"/>
+      <c r="A67" s="160"/>
+      <c r="B67" s="160"/>
+      <c r="C67" s="160"/>
+      <c r="D67" s="160"/>
+      <c r="E67" s="160"/>
+      <c r="F67" s="160"/>
+      <c r="G67" s="160"/>
+      <c r="H67" s="160"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="58" t="s">
@@ -5966,54 +5980,54 @@
       <c r="B68" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C68" s="145"/>
-      <c r="D68" s="146"/>
-      <c r="E68" s="146"/>
-      <c r="F68" s="146"/>
-      <c r="G68" s="146"/>
-      <c r="H68" s="147"/>
+      <c r="C68" s="164"/>
+      <c r="D68" s="165"/>
+      <c r="E68" s="165"/>
+      <c r="F68" s="165"/>
+      <c r="G68" s="165"/>
+      <c r="H68" s="166"/>
     </row>
     <row r="69" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="75" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="76"/>
-      <c r="C69" s="133" t="s">
-        <v>234</v>
-      </c>
-      <c r="D69" s="134"/>
-      <c r="E69" s="134"/>
-      <c r="F69" s="134"/>
-      <c r="G69" s="134"/>
-      <c r="H69" s="135"/>
+      <c r="C69" s="136" t="s">
+        <v>233</v>
+      </c>
+      <c r="D69" s="137"/>
+      <c r="E69" s="137"/>
+      <c r="F69" s="137"/>
+      <c r="G69" s="137"/>
+      <c r="H69" s="138"/>
     </row>
     <row r="70" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A70" s="75" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="76"/>
-      <c r="C70" s="133" t="s">
-        <v>235</v>
-      </c>
-      <c r="D70" s="134"/>
-      <c r="E70" s="134"/>
-      <c r="F70" s="134"/>
-      <c r="G70" s="134"/>
-      <c r="H70" s="135"/>
+      <c r="C70" s="136" t="s">
+        <v>234</v>
+      </c>
+      <c r="D70" s="137"/>
+      <c r="E70" s="137"/>
+      <c r="F70" s="137"/>
+      <c r="G70" s="137"/>
+      <c r="H70" s="138"/>
     </row>
     <row r="71" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="75" t="s">
         <v>7</v>
       </c>
       <c r="B71" s="123"/>
-      <c r="C71" s="133" t="s">
-        <v>236</v>
-      </c>
-      <c r="D71" s="134"/>
-      <c r="E71" s="134"/>
-      <c r="F71" s="134"/>
-      <c r="G71" s="134"/>
-      <c r="H71" s="135"/>
+      <c r="C71" s="136" t="s">
+        <v>235</v>
+      </c>
+      <c r="D71" s="137"/>
+      <c r="E71" s="137"/>
+      <c r="F71" s="137"/>
+      <c r="G71" s="137"/>
+      <c r="H71" s="138"/>
     </row>
     <row r="72" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" s="113" t="s">
@@ -6032,10 +6046,10 @@
         <v>109</v>
       </c>
       <c r="F72" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="G72" s="160"/>
-      <c r="H72" s="161"/>
+        <v>264</v>
+      </c>
+      <c r="G72" s="157"/>
+      <c r="H72" s="158"/>
     </row>
     <row r="73" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A73" s="75" t="s">
@@ -6060,7 +6074,7 @@
         <v>109</v>
       </c>
       <c r="H73" s="39" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
@@ -6068,28 +6082,28 @@
         <v>105</v>
       </c>
       <c r="B74" s="123"/>
-      <c r="C74" s="133" t="s">
-        <v>273</v>
-      </c>
-      <c r="D74" s="134"/>
-      <c r="E74" s="134"/>
-      <c r="F74" s="134"/>
-      <c r="G74" s="134"/>
-      <c r="H74" s="135"/>
+      <c r="C74" s="136" t="s">
+        <v>265</v>
+      </c>
+      <c r="D74" s="137"/>
+      <c r="E74" s="137"/>
+      <c r="F74" s="137"/>
+      <c r="G74" s="137"/>
+      <c r="H74" s="138"/>
     </row>
     <row r="75" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A75" s="75" t="s">
         <v>168</v>
       </c>
       <c r="B75" s="123"/>
-      <c r="C75" s="133" t="s">
-        <v>274</v>
-      </c>
-      <c r="D75" s="134"/>
-      <c r="E75" s="134"/>
-      <c r="F75" s="134"/>
-      <c r="G75" s="134"/>
-      <c r="H75" s="135"/>
+      <c r="C75" s="136" t="s">
+        <v>266</v>
+      </c>
+      <c r="D75" s="137"/>
+      <c r="E75" s="137"/>
+      <c r="F75" s="137"/>
+      <c r="G75" s="137"/>
+      <c r="H75" s="138"/>
     </row>
     <row r="76" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A76" s="75" t="s">
@@ -6128,26 +6142,26 @@
         <v>111</v>
       </c>
       <c r="D77" s="46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E77" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="F77" s="162" t="s">
-        <v>238</v>
-      </c>
-      <c r="G77" s="137"/>
-      <c r="H77" s="138"/>
+      <c r="F77" s="215" t="s">
+        <v>237</v>
+      </c>
+      <c r="G77" s="143"/>
+      <c r="H77" s="144"/>
     </row>
     <row r="78" spans="1:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="163"/>
-      <c r="B78" s="163"/>
-      <c r="C78" s="163"/>
-      <c r="D78" s="163"/>
-      <c r="E78" s="163"/>
-      <c r="F78" s="163"/>
-      <c r="G78" s="163"/>
-      <c r="H78" s="163"/>
+      <c r="A78" s="202"/>
+      <c r="B78" s="202"/>
+      <c r="C78" s="202"/>
+      <c r="D78" s="202"/>
+      <c r="E78" s="202"/>
+      <c r="F78" s="202"/>
+      <c r="G78" s="202"/>
+      <c r="H78" s="202"/>
     </row>
     <row r="79" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A79" s="79" t="s">
@@ -6156,12 +6170,12 @@
       <c r="B79" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="145"/>
-      <c r="D79" s="146"/>
-      <c r="E79" s="146"/>
-      <c r="F79" s="146"/>
-      <c r="G79" s="146"/>
-      <c r="H79" s="147"/>
+      <c r="C79" s="164"/>
+      <c r="D79" s="165"/>
+      <c r="E79" s="165"/>
+      <c r="F79" s="165"/>
+      <c r="G79" s="165"/>
+      <c r="H79" s="166"/>
     </row>
     <row r="80" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A80" s="75" t="s">
@@ -6169,7 +6183,7 @@
       </c>
       <c r="B80" s="76"/>
       <c r="C80" s="139" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="140"/>
       <c r="E80" s="140"/>
@@ -6182,19 +6196,19 @@
         <v>117</v>
       </c>
       <c r="B81" s="123"/>
-      <c r="C81" s="149" t="s">
+      <c r="C81" s="178" t="s">
         <v>112</v>
       </c>
-      <c r="D81" s="150"/>
+      <c r="D81" s="179"/>
       <c r="E81" s="26">
         <v>1</v>
       </c>
-      <c r="F81" s="151" t="s">
+      <c r="F81" s="200" t="s">
         <v>173</v>
       </c>
-      <c r="G81" s="152"/>
+      <c r="G81" s="201"/>
       <c r="H81" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
@@ -6202,17 +6216,17 @@
         <v>116</v>
       </c>
       <c r="B82" s="123"/>
-      <c r="C82" s="149" t="s">
+      <c r="C82" s="178" t="s">
         <v>113</v>
       </c>
-      <c r="D82" s="150"/>
+      <c r="D82" s="179"/>
       <c r="E82" s="26">
         <v>501</v>
       </c>
-      <c r="F82" s="151" t="s">
+      <c r="F82" s="200" t="s">
         <v>114</v>
       </c>
-      <c r="G82" s="152"/>
+      <c r="G82" s="201"/>
       <c r="H82" s="30">
         <v>12.5</v>
       </c>
@@ -6224,17 +6238,17 @@
       <c r="B83" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="C83" s="149" t="s">
+      <c r="C83" s="178" t="s">
         <v>154</v>
       </c>
-      <c r="D83" s="150"/>
+      <c r="D83" s="179"/>
       <c r="E83" s="37">
         <v>98</v>
       </c>
-      <c r="F83" s="151" t="s">
+      <c r="F83" s="200" t="s">
         <v>155</v>
       </c>
-      <c r="G83" s="152"/>
+      <c r="G83" s="201"/>
       <c r="H83" s="30">
         <v>66.400000000000006</v>
       </c>
@@ -6256,8 +6270,8 @@
       <c r="F84" s="11">
         <v>29.8</v>
       </c>
-      <c r="G84" s="175"/>
-      <c r="H84" s="176"/>
+      <c r="G84" s="176"/>
+      <c r="H84" s="177"/>
     </row>
     <row r="85" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A85" s="75" t="s">
@@ -6291,7 +6305,7 @@
       </c>
       <c r="B86" s="123"/>
       <c r="C86" s="139" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D86" s="140"/>
       <c r="E86" s="140"/>
@@ -6305,7 +6319,7 @@
       </c>
       <c r="B87" s="123"/>
       <c r="C87" s="139" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D87" s="140"/>
       <c r="E87" s="140"/>
@@ -6319,7 +6333,7 @@
       </c>
       <c r="B88" s="123"/>
       <c r="C88" s="139" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D88" s="140"/>
       <c r="E88" s="140"/>
@@ -6333,7 +6347,7 @@
       </c>
       <c r="B89" s="123"/>
       <c r="C89" s="139" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D89" s="140"/>
       <c r="E89" s="140"/>
@@ -6351,11 +6365,11 @@
       <c r="C90" s="18">
         <v>2.76</v>
       </c>
-      <c r="D90" s="170"/>
-      <c r="E90" s="171"/>
-      <c r="F90" s="171"/>
-      <c r="G90" s="171"/>
-      <c r="H90" s="172"/>
+      <c r="D90" s="209"/>
+      <c r="E90" s="210"/>
+      <c r="F90" s="210"/>
+      <c r="G90" s="210"/>
+      <c r="H90" s="211"/>
     </row>
     <row r="91" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A91" s="75" t="s">
@@ -6363,7 +6377,7 @@
       </c>
       <c r="B91" s="123"/>
       <c r="C91" s="139" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D91" s="140"/>
       <c r="E91" s="140"/>
@@ -6382,10 +6396,10 @@
       <c r="D92" s="44">
         <v>1709</v>
       </c>
-      <c r="E92" s="165" t="s">
+      <c r="E92" s="204" t="s">
         <v>121</v>
       </c>
-      <c r="F92" s="166"/>
+      <c r="F92" s="205"/>
       <c r="G92" s="29">
         <v>190</v>
       </c>
@@ -6397,12 +6411,12 @@
       </c>
       <c r="B93" s="123"/>
       <c r="C93" s="132" t="s">
-        <v>264</v>
-      </c>
-      <c r="D93" s="173" t="s">
+        <v>258</v>
+      </c>
+      <c r="D93" s="212" t="s">
         <v>152</v>
       </c>
-      <c r="E93" s="174"/>
+      <c r="E93" s="213"/>
       <c r="F93" s="43">
         <v>2390</v>
       </c>
@@ -6430,8 +6444,8 @@
       <c r="F94" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="G94" s="160"/>
-      <c r="H94" s="161"/>
+      <c r="G94" s="157"/>
+      <c r="H94" s="158"/>
     </row>
     <row r="95" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A95" s="75" t="s">
@@ -6439,7 +6453,7 @@
       </c>
       <c r="B95" s="123"/>
       <c r="C95" s="139" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D95" s="140"/>
       <c r="E95" s="140"/>
@@ -6453,7 +6467,7 @@
       </c>
       <c r="B96" s="123"/>
       <c r="C96" s="139" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D96" s="140"/>
       <c r="E96" s="140"/>
@@ -6467,7 +6481,7 @@
       </c>
       <c r="B97" s="123"/>
       <c r="C97" s="139" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D97" s="140"/>
       <c r="E97" s="140"/>
@@ -6481,7 +6495,7 @@
       </c>
       <c r="B98" s="123"/>
       <c r="C98" s="139" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D98" s="140"/>
       <c r="E98" s="140"/>
@@ -6494,15 +6508,15 @@
         <v>15</v>
       </c>
       <c r="B99" s="80"/>
-      <c r="C99" s="167" t="s">
-        <v>276</v>
-      </c>
-      <c r="D99" s="168"/>
-      <c r="E99" s="168"/>
-      <c r="F99" s="168"/>
-      <c r="G99" s="168"/>
-      <c r="H99" s="169"/>
-      <c r="I99" s="222"/>
+      <c r="C99" s="206" t="s">
+        <v>268</v>
+      </c>
+      <c r="D99" s="207"/>
+      <c r="E99" s="207"/>
+      <c r="F99" s="207"/>
+      <c r="G99" s="207"/>
+      <c r="H99" s="208"/>
+      <c r="I99" s="133"/>
     </row>
     <row r="100" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A100" s="75" t="s">
@@ -6510,11 +6524,11 @@
       </c>
       <c r="B100" s="76"/>
       <c r="C100" s="139" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D100" s="140"/>
       <c r="E100" s="140"/>
-      <c r="F100" s="164"/>
+      <c r="F100" s="203"/>
       <c r="G100" s="94" t="s">
         <v>174</v>
       </c>
@@ -6528,7 +6542,7 @@
       </c>
       <c r="B101" s="76"/>
       <c r="C101" s="139" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D101" s="140"/>
       <c r="E101" s="140"/>
@@ -6541,24 +6555,24 @@
         <v>48</v>
       </c>
       <c r="B102" s="78"/>
-      <c r="C102" s="136" t="s">
-        <v>220</v>
-      </c>
-      <c r="D102" s="137"/>
-      <c r="E102" s="137"/>
-      <c r="F102" s="137"/>
-      <c r="G102" s="137"/>
-      <c r="H102" s="138"/>
+      <c r="C102" s="142" t="s">
+        <v>279</v>
+      </c>
+      <c r="D102" s="143"/>
+      <c r="E102" s="143"/>
+      <c r="F102" s="143"/>
+      <c r="G102" s="143"/>
+      <c r="H102" s="144"/>
     </row>
     <row r="103" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="163"/>
-      <c r="B103" s="163"/>
-      <c r="C103" s="163"/>
-      <c r="D103" s="163"/>
-      <c r="E103" s="163"/>
-      <c r="F103" s="163"/>
-      <c r="G103" s="163"/>
-      <c r="H103" s="163"/>
+      <c r="A103" s="202"/>
+      <c r="B103" s="202"/>
+      <c r="C103" s="202"/>
+      <c r="D103" s="202"/>
+      <c r="E103" s="202"/>
+      <c r="F103" s="202"/>
+      <c r="G103" s="202"/>
+      <c r="H103" s="202"/>
     </row>
     <row r="104" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A104" s="79" t="s">
@@ -6567,12 +6581,12 @@
       <c r="B104" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="145"/>
-      <c r="D104" s="146"/>
-      <c r="E104" s="146"/>
-      <c r="F104" s="146"/>
-      <c r="G104" s="146"/>
-      <c r="H104" s="147"/>
+      <c r="C104" s="164"/>
+      <c r="D104" s="165"/>
+      <c r="E104" s="165"/>
+      <c r="F104" s="165"/>
+      <c r="G104" s="165"/>
+      <c r="H104" s="166"/>
     </row>
     <row r="105" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A105" s="75" t="s">
@@ -6612,11 +6626,11 @@
       <c r="C107" s="18">
         <v>1</v>
       </c>
-      <c r="D107" s="142"/>
-      <c r="E107" s="143"/>
-      <c r="F107" s="143"/>
-      <c r="G107" s="143"/>
-      <c r="H107" s="144"/>
+      <c r="D107" s="218"/>
+      <c r="E107" s="219"/>
+      <c r="F107" s="219"/>
+      <c r="G107" s="219"/>
+      <c r="H107" s="220"/>
     </row>
     <row r="108" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A108" s="113" t="s">
@@ -6676,38 +6690,38 @@
       </c>
       <c r="B110" s="76"/>
       <c r="C110" s="139" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D110" s="140"/>
       <c r="E110" s="140"/>
       <c r="F110" s="140"/>
       <c r="G110" s="140"/>
       <c r="H110" s="141"/>
-      <c r="I110" s="222"/>
+      <c r="I110" s="133"/>
     </row>
     <row r="111" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="77" t="s">
         <v>194</v>
       </c>
       <c r="B111" s="78"/>
-      <c r="C111" s="136" t="s">
+      <c r="C111" s="142" t="s">
         <v>217</v>
       </c>
-      <c r="D111" s="137"/>
-      <c r="E111" s="137"/>
-      <c r="F111" s="137"/>
-      <c r="G111" s="137"/>
-      <c r="H111" s="138"/>
+      <c r="D111" s="143"/>
+      <c r="E111" s="143"/>
+      <c r="F111" s="143"/>
+      <c r="G111" s="143"/>
+      <c r="H111" s="144"/>
     </row>
     <row r="112" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="148"/>
-      <c r="B112" s="148"/>
-      <c r="C112" s="148"/>
-      <c r="D112" s="148"/>
-      <c r="E112" s="148"/>
-      <c r="F112" s="148"/>
-      <c r="G112" s="148"/>
-      <c r="H112" s="148"/>
+      <c r="A112" s="160"/>
+      <c r="B112" s="160"/>
+      <c r="C112" s="160"/>
+      <c r="D112" s="160"/>
+      <c r="E112" s="160"/>
+      <c r="F112" s="160"/>
+      <c r="G112" s="160"/>
+      <c r="H112" s="160"/>
     </row>
     <row r="113" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A113" s="81" t="s">
@@ -6716,12 +6730,12 @@
       <c r="B113" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C113" s="145"/>
-      <c r="D113" s="146"/>
-      <c r="E113" s="146"/>
-      <c r="F113" s="146"/>
-      <c r="G113" s="146"/>
-      <c r="H113" s="147"/>
+      <c r="C113" s="164"/>
+      <c r="D113" s="165"/>
+      <c r="E113" s="165"/>
+      <c r="F113" s="165"/>
+      <c r="G113" s="165"/>
+      <c r="H113" s="166"/>
     </row>
     <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="82" t="s">
@@ -6786,31 +6800,31 @@
       <c r="H116" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="I116" s="222"/>
+      <c r="I116" s="133"/>
     </row>
     <row r="117" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="85" t="s">
         <v>50</v>
       </c>
       <c r="B117" s="86"/>
-      <c r="C117" s="136" t="s">
+      <c r="C117" s="142" t="s">
         <v>216</v>
       </c>
-      <c r="D117" s="137"/>
-      <c r="E117" s="137"/>
-      <c r="F117" s="137"/>
-      <c r="G117" s="137"/>
-      <c r="H117" s="138"/>
+      <c r="D117" s="143"/>
+      <c r="E117" s="143"/>
+      <c r="F117" s="143"/>
+      <c r="G117" s="143"/>
+      <c r="H117" s="144"/>
     </row>
     <row r="118" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="148"/>
-      <c r="B118" s="148"/>
-      <c r="C118" s="148"/>
-      <c r="D118" s="148"/>
-      <c r="E118" s="148"/>
-      <c r="F118" s="148"/>
-      <c r="G118" s="148"/>
-      <c r="H118" s="148"/>
+      <c r="A118" s="160"/>
+      <c r="B118" s="160"/>
+      <c r="C118" s="160"/>
+      <c r="D118" s="160"/>
+      <c r="E118" s="160"/>
+      <c r="F118" s="160"/>
+      <c r="G118" s="160"/>
+      <c r="H118" s="160"/>
     </row>
     <row r="119" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A119" s="79" t="s">
@@ -6819,12 +6833,12 @@
       <c r="B119" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C119" s="145"/>
-      <c r="D119" s="146"/>
-      <c r="E119" s="146"/>
-      <c r="F119" s="146"/>
-      <c r="G119" s="146"/>
-      <c r="H119" s="147"/>
+      <c r="C119" s="164"/>
+      <c r="D119" s="165"/>
+      <c r="E119" s="165"/>
+      <c r="F119" s="165"/>
+      <c r="G119" s="165"/>
+      <c r="H119" s="166"/>
     </row>
     <row r="120" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="87" t="s">
@@ -6832,30 +6846,133 @@
       </c>
       <c r="B120" s="88"/>
       <c r="C120" s="139" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D120" s="140"/>
       <c r="E120" s="140"/>
       <c r="F120" s="140"/>
       <c r="G120" s="140"/>
       <c r="H120" s="141"/>
-      <c r="I120" s="222"/>
+      <c r="I120" s="133"/>
     </row>
     <row r="121" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="77" t="s">
         <v>45</v>
       </c>
       <c r="B121" s="89"/>
-      <c r="C121" s="136"/>
-      <c r="D121" s="137"/>
-      <c r="E121" s="137"/>
-      <c r="F121" s="137"/>
-      <c r="G121" s="137"/>
-      <c r="H121" s="138"/>
-      <c r="I121" s="222"/>
+      <c r="C121" s="142"/>
+      <c r="D121" s="143"/>
+      <c r="E121" s="143"/>
+      <c r="F121" s="143"/>
+      <c r="G121" s="143"/>
+      <c r="H121" s="144"/>
+      <c r="I121" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="127">
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C105:H105"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C110:H110"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="A118:H118"/>
+    <mergeCell ref="C117:H117"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="A67:H67"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="A112:H112"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="A103:H103"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="C53:H53"/>
     <mergeCell ref="C46:E46"/>
     <mergeCell ref="C47:E47"/>
@@ -6880,109 +6997,6 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C49:H49"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="A112:H112"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="A103:H103"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="A67:H67"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C105:H105"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C110:H110"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="C119:H119"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="A118:H118"/>
-    <mergeCell ref="C117:H117"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="C65:H65"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
